--- a/Outputs/1. Budget/Grid Search/Output Files/2000000/Output_16_25.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/2000000/Output_16_25.xlsx
@@ -480,8 +480,10 @@
           <t>Required Level of Met Demand</t>
         </is>
       </c>
-      <c r="B4" t="n">
-        <v>0</v>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
       </c>
     </row>
     <row r="5">
@@ -501,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1374170.415015139</v>
+        <v>1478350.049466211</v>
       </c>
     </row>
     <row r="7">
@@ -521,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>416855.1052283184</v>
+        <v>416855.1052283191</v>
       </c>
     </row>
     <row r="9">
@@ -659,7 +661,7 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>36.3270796166963</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
         <v>354.683041620683</v>
@@ -674,7 +676,7 @@
         <v>410.9217256534534</v>
       </c>
       <c r="H2" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
         <v>41.57692977292595</v>
@@ -713,7 +715,7 @@
         <v>203.9179701396201</v>
       </c>
       <c r="U2" t="n">
-        <v>250.995171958902</v>
+        <v>212.1989152844504</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
@@ -722,7 +724,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
         <v>386.2379386560536</v>
@@ -814,13 +816,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>10.96279387419893</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
         <v>146.4339626465692</v>
@@ -862,28 +864,28 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T4" t="n">
         <v>219.5489492761692</v>
       </c>
       <c r="U4" t="n">
-        <v>286.2118382056129</v>
+        <v>79.27277117674025</v>
       </c>
       <c r="V4" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W4" t="n">
         <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="5">
@@ -893,7 +895,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
         <v>365.2728917710076</v>
@@ -902,7 +904,7 @@
         <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
         <v>406.8760457417114</v>
@@ -911,10 +913,10 @@
         <v>410.9217256534534</v>
       </c>
       <c r="H5" t="n">
-        <v>64.77203581859861</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I5" t="n">
-        <v>41.57692977292595</v>
+        <v>41.57692977292598</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -947,10 +949,10 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>203.9179701396202</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V5" t="n">
         <v>327.7522584701349</v>
@@ -959,7 +961,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>79.91534106849849</v>
       </c>
       <c r="Y5" t="n">
         <v>386.2379386560536</v>
@@ -990,10 +992,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H6" t="n">
-        <v>89.59687541851115</v>
+        <v>89.59687541851116</v>
       </c>
       <c r="I6" t="n">
-        <v>18.81721868247742</v>
+        <v>18.81721868247745</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1020,7 +1022,7 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>0.1429098734098204</v>
+        <v>0.1429098734098488</v>
       </c>
       <c r="S6" t="n">
         <v>128.1435076414547</v>
@@ -1051,13 +1053,13 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
         <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
         <v>146.4339626465692</v>
@@ -1069,10 +1071,10 @@
         <v>166.0258082590282</v>
       </c>
       <c r="H7" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>96.35242040983809</v>
+        <v>46.32785013185509</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -1099,16 +1101,16 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>88.93215267004733</v>
+        <v>88.93215267004734</v>
       </c>
       <c r="S7" t="n">
         <v>189.7690253314419</v>
       </c>
       <c r="T7" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>139.8285741207142</v>
+        <v>0</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -1117,7 +1119,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
         <v>218.5846533520948</v>
@@ -1130,10 +1132,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>232.8841539405096</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
         <v>354.683041620683</v>
@@ -1142,7 +1144,7 @@
         <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>406.8760457417114</v>
+        <v>384.7372673685143</v>
       </c>
       <c r="G8" t="n">
         <v>410.9217256534534</v>
@@ -1187,13 +1189,13 @@
         <v>203.9179701396201</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V8" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
         <v>369.731100678469</v>
@@ -1288,25 +1290,25 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
         <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
         <v>166.0258082590282</v>
       </c>
       <c r="H10" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
         <v>96.35242040983809</v>
@@ -1345,19 +1347,19 @@
         <v>219.5489492761692</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
-        <v>79.27277117674025</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
-        <v>218.5846533520948</v>
+        <v>30.96411613815231</v>
       </c>
     </row>
     <row r="11">
@@ -1382,7 +1384,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G11" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187887</v>
       </c>
       <c r="H11" t="n">
         <v>283.1540821444137</v>
@@ -1418,7 +1420,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>83.70251495695439</v>
+        <v>83.70251495695526</v>
       </c>
       <c r="T11" t="n">
         <v>199.0222304576161</v>
@@ -1546,7 +1548,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I13" t="n">
-        <v>81.26583631856553</v>
+        <v>81.2658363185655</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1573,19 +1575,19 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012164</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T13" t="n">
         <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>105.6507867899569</v>
+        <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>252.137643323828</v>
+        <v>176.762144112141</v>
       </c>
       <c r="W13" t="n">
         <v>286.522998336591</v>
@@ -1613,7 +1615,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E14" t="n">
-        <v>381.9303700722618</v>
+        <v>381.9303700722623</v>
       </c>
       <c r="F14" t="n">
         <v>406.8760457417114</v>
@@ -1622,7 +1624,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H14" t="n">
-        <v>283.1540821444123</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -1655,7 +1657,7 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T14" t="n">
         <v>199.0222304576161</v>
@@ -1762,13 +1764,13 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
-        <v>135.3135037226519</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
         <v>146.4339626465692</v>
@@ -1783,7 +1785,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I16" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1810,7 +1812,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S16" t="n">
         <v>181.0262860016446</v>
@@ -1822,16 +1824,16 @@
         <v>286.1844743892441</v>
       </c>
       <c r="V16" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X16" t="n">
-        <v>225.7096553890372</v>
+        <v>185.4048731212365</v>
       </c>
       <c r="Y16" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="17">
@@ -1892,13 +1894,13 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>83.70251495695439</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T17" t="n">
         <v>199.0222304576161</v>
       </c>
       <c r="U17" t="n">
-        <v>250.9057009881286</v>
+        <v>250.9057009881293</v>
       </c>
       <c r="V17" t="n">
         <v>327.7522584701349</v>
@@ -2017,10 +2019,10 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H19" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2047,25 +2049,25 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T19" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U19" t="n">
-        <v>172.0260335000785</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V19" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W19" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
-        <v>225.7096553890372</v>
+        <v>39.17658763086913</v>
       </c>
       <c r="Y19" t="n">
         <v>218.5846533520948</v>
@@ -2096,7 +2098,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H20" t="n">
-        <v>283.1540821444123</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
@@ -2129,7 +2131,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T20" t="n">
         <v>199.0222304576161</v>
@@ -2242,22 +2244,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>165.5241382922688</v>
+        <v>27.0291980517616</v>
       </c>
       <c r="H22" t="n">
-        <v>107.4021082756248</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2284,13 +2286,13 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T22" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U22" t="n">
         <v>286.1844743892441</v>
@@ -2324,7 +2326,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E23" t="n">
-        <v>381.9303700722614</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F23" t="n">
         <v>406.8760457417114</v>
@@ -2491,7 +2493,7 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I25" t="n">
         <v>81.26583631856553</v>
@@ -2521,25 +2523,25 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S25" t="n">
-        <v>181.0262860016446</v>
+        <v>105.9893107373036</v>
       </c>
       <c r="T25" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U25" t="n">
         <v>286.1844743892441</v>
       </c>
       <c r="V25" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W25" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X25" t="n">
-        <v>105.5518343409903</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y25" t="n">
         <v>218.5846533520948</v>
@@ -2603,7 +2605,7 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T26" t="n">
         <v>199.0222304576161</v>
@@ -2615,7 +2617,7 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W26" t="n">
-        <v>349.240968717413</v>
+        <v>349.2409687174118</v>
       </c>
       <c r="X26" t="n">
         <v>369.731100678469</v>
@@ -2719,7 +2721,7 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
         <v>0</v>
@@ -2728,10 +2730,10 @@
         <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2767,7 +2769,7 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U28" t="n">
-        <v>245.8640357413583</v>
+        <v>158.4589496224442</v>
       </c>
       <c r="V28" t="n">
         <v>252.137643323828</v>
@@ -2801,7 +2803,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F29" t="n">
-        <v>406.8760457417109</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G29" t="n">
         <v>409.8033385187866</v>
@@ -2852,7 +2854,7 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W29" t="n">
-        <v>349.240968717413</v>
+        <v>349.2409687174118</v>
       </c>
       <c r="X29" t="n">
         <v>369.731100678469</v>
@@ -2947,10 +2949,10 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D31" t="n">
         <v>148.6154730182124</v>
@@ -2959,10 +2961,10 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>165.5241382922688</v>
+        <v>79.0585636675447</v>
       </c>
       <c r="H31" t="n">
         <v>140.2947128462239</v>
@@ -2998,13 +3000,13 @@
         <v>66.37524671012169</v>
       </c>
       <c r="S31" t="n">
-        <v>105.6507867899569</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T31" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U31" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V31" t="n">
         <v>252.137643323828</v>
@@ -3041,10 +3043,10 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G32" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187852</v>
       </c>
       <c r="H32" t="n">
-        <v>283.1540821444132</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I32" t="n">
         <v>0</v>
@@ -3190,10 +3192,10 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
-        <v>108.2950343703276</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
         <v>0</v>
@@ -3202,7 +3204,7 @@
         <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
         <v>0</v>
@@ -3232,7 +3234,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>66.37524671012169</v>
+        <v>19.91555826189153</v>
       </c>
       <c r="S34" t="n">
         <v>181.0262860016446</v>
@@ -3278,7 +3280,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G35" t="n">
-        <v>409.8033385187861</v>
+        <v>409.8033385187866</v>
       </c>
       <c r="H35" t="n">
         <v>283.1540821444137</v>
@@ -3314,7 +3316,7 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695439</v>
       </c>
       <c r="T35" t="n">
         <v>199.0222304576161</v>
@@ -3430,19 +3432,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>140.2947128462239</v>
+        <v>99.97427419833816</v>
       </c>
       <c r="I37" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3469,16 +3471,16 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S37" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T37" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U37" t="n">
-        <v>172.0260335000785</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V37" t="n">
         <v>252.137643323828</v>
@@ -3557,7 +3559,7 @@
         <v>199.0222304576161</v>
       </c>
       <c r="U38" t="n">
-        <v>250.9057009881284</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V38" t="n">
         <v>327.7522584701349</v>
@@ -3569,7 +3571,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y38" t="n">
-        <v>386.2379386560536</v>
+        <v>386.237938656054</v>
       </c>
     </row>
     <row r="39">
@@ -3673,13 +3675,13 @@
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>99.97427419833815</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3706,13 +3708,13 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T40" t="n">
-        <v>217.4054503272883</v>
+        <v>177.6965697803346</v>
       </c>
       <c r="U40" t="n">
         <v>286.1844743892441</v>
@@ -3895,7 +3897,7 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>3.453391420152125</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C43" t="n">
         <v>167.2468210986278</v>
@@ -3913,10 +3915,10 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3943,16 +3945,16 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>0</v>
+        <v>172.026033500079</v>
       </c>
       <c r="T43" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U43" t="n">
-        <v>286.1844743892441</v>
+        <v>0</v>
       </c>
       <c r="V43" t="n">
         <v>252.137643323828</v>
@@ -3992,7 +3994,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H44" t="n">
-        <v>283.1540821444132</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I44" t="n">
         <v>0</v>
@@ -4138,22 +4140,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D46" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>97.98413062224057</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>83.06560892428168</v>
       </c>
       <c r="I46" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4198,7 +4200,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X46" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y46" t="n">
         <v>218.5846533520948</v>
@@ -4304,52 +4306,52 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>2012.898941548398</v>
+        <v>1678.62132134232</v>
       </c>
       <c r="C2" t="n">
-        <v>1976.204921733553</v>
+        <v>1678.62132134232</v>
       </c>
       <c r="D2" t="n">
-        <v>1617.939223126803</v>
+        <v>1320.35562273557</v>
       </c>
       <c r="E2" t="n">
-        <v>1232.150970528558</v>
+        <v>934.5673701373257</v>
       </c>
       <c r="F2" t="n">
-        <v>821.1650657389509</v>
+        <v>523.5814653477182</v>
       </c>
       <c r="G2" t="n">
-        <v>406.0926155839475</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="H2" t="n">
         <v>108.5090151927147</v>
       </c>
       <c r="I2" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J2" t="n">
-        <v>255.3912473912089</v>
+        <v>255.3912473912096</v>
       </c>
       <c r="K2" t="n">
-        <v>589.2106210810554</v>
+        <v>589.2106210810562</v>
       </c>
       <c r="L2" t="n">
-        <v>1040.244834329464</v>
+        <v>1040.244834329465</v>
       </c>
       <c r="M2" t="n">
-        <v>1573.776739001388</v>
+        <v>1573.77673900139</v>
       </c>
       <c r="N2" t="n">
-        <v>2120.555556060171</v>
+        <v>2120.555556060172</v>
       </c>
       <c r="O2" t="n">
-        <v>2623.528026939508</v>
+        <v>2623.528026939509</v>
       </c>
       <c r="P2" t="n">
-        <v>3018.302393296686</v>
+        <v>3018.302393296687</v>
       </c>
       <c r="Q2" t="n">
-        <v>3266.588755052368</v>
+        <v>3266.588755052369</v>
       </c>
       <c r="R2" t="n">
         <v>3325.605821609171</v>
@@ -4358,22 +4360,22 @@
         <v>3215.315153136266</v>
       </c>
       <c r="T2" t="n">
-        <v>3009.337405520488</v>
+        <v>3009.337405520489</v>
       </c>
       <c r="U2" t="n">
-        <v>2755.806928794324</v>
+        <v>2794.995066849327</v>
       </c>
       <c r="V2" t="n">
-        <v>2755.806928794324</v>
+        <v>2794.995066849327</v>
       </c>
       <c r="W2" t="n">
-        <v>2403.03827352421</v>
+        <v>2442.226411579212</v>
       </c>
       <c r="X2" t="n">
-        <v>2403.03827352421</v>
+        <v>2068.760653318132</v>
       </c>
       <c r="Y2" t="n">
-        <v>2012.898941548398</v>
+        <v>1678.62132134232</v>
       </c>
     </row>
     <row r="3">
@@ -4383,76 +4385,76 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>941.5438544811086</v>
+        <v>1702.096133556939</v>
       </c>
       <c r="C3" t="n">
-        <v>767.0908251999816</v>
+        <v>1527.643104275812</v>
       </c>
       <c r="D3" t="n">
-        <v>618.1564155387305</v>
+        <v>1378.708694614561</v>
       </c>
       <c r="E3" t="n">
-        <v>458.9189605332749</v>
+        <v>1219.471239609105</v>
       </c>
       <c r="F3" t="n">
-        <v>312.38440256016</v>
+        <v>1072.93668163599</v>
       </c>
       <c r="G3" t="n">
-        <v>176.0213023927784</v>
+        <v>936.5735814686084</v>
       </c>
       <c r="H3" t="n">
-        <v>85.51940803064545</v>
+        <v>846.0716871064759</v>
       </c>
       <c r="I3" t="n">
-        <v>66.5121164321834</v>
+        <v>827.0643955080138</v>
       </c>
       <c r="J3" t="n">
-        <v>160.189385922801</v>
+        <v>920.7416649986312</v>
       </c>
       <c r="K3" t="n">
-        <v>398.4535849031481</v>
+        <v>1159.005863978978</v>
       </c>
       <c r="L3" t="n">
-        <v>765.1517452158134</v>
+        <v>1525.704024291643</v>
       </c>
       <c r="M3" t="n">
-        <v>1212.428070438129</v>
+        <v>1972.980349513959</v>
       </c>
       <c r="N3" t="n">
-        <v>1685.951113992584</v>
+        <v>2446.503393068414</v>
       </c>
       <c r="O3" t="n">
-        <v>2096.912393410639</v>
+        <v>2857.464672486469</v>
       </c>
       <c r="P3" t="n">
-        <v>2407.411984886742</v>
+        <v>3167.964263962572</v>
       </c>
       <c r="Q3" t="n">
-        <v>2565.053542533341</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="R3" t="n">
-        <v>2564.909189125857</v>
+        <v>3325.461468201687</v>
       </c>
       <c r="S3" t="n">
-        <v>2435.471302619337</v>
+        <v>3196.023581695167</v>
       </c>
       <c r="T3" t="n">
-        <v>2242.828302297192</v>
+        <v>3003.380581373022</v>
       </c>
       <c r="U3" t="n">
-        <v>2014.760455431608</v>
+        <v>2775.312734507438</v>
       </c>
       <c r="V3" t="n">
-        <v>1779.608347199865</v>
+        <v>2540.160626275695</v>
       </c>
       <c r="W3" t="n">
-        <v>1525.370990471663</v>
+        <v>2285.923269547494</v>
       </c>
       <c r="X3" t="n">
-        <v>1317.519490266131</v>
+        <v>2078.071769341961</v>
       </c>
       <c r="Y3" t="n">
-        <v>1109.759191501177</v>
+        <v>1870.311470577007</v>
       </c>
     </row>
     <row r="4">
@@ -4462,10 +4464,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>922.6774975139006</v>
+        <v>941.4970410294717</v>
       </c>
       <c r="C4" t="n">
-        <v>922.6774975139006</v>
+        <v>772.5608581015648</v>
       </c>
       <c r="D4" t="n">
         <v>772.5608581015648</v>
@@ -4483,7 +4485,7 @@
         <v>163.8377936138381</v>
       </c>
       <c r="I4" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J4" t="n">
         <v>111.634748879119</v>
@@ -4510,28 +4512,28 @@
         <v>1927.294548088493</v>
       </c>
       <c r="R4" t="n">
-        <v>1927.294548088493</v>
+        <v>1837.464090846021</v>
       </c>
       <c r="S4" t="n">
-        <v>1927.294548088493</v>
+        <v>1645.778206672847</v>
       </c>
       <c r="T4" t="n">
-        <v>1705.527932658019</v>
+        <v>1424.011591242373</v>
       </c>
       <c r="U4" t="n">
-        <v>1416.425065783662</v>
+        <v>1343.938085003241</v>
       </c>
       <c r="V4" t="n">
-        <v>1161.740577577775</v>
+        <v>1343.938085003241</v>
       </c>
       <c r="W4" t="n">
-        <v>1161.740577577775</v>
+        <v>1343.938085003241</v>
       </c>
       <c r="X4" t="n">
-        <v>933.7510266797581</v>
+        <v>1343.938085003241</v>
       </c>
       <c r="Y4" t="n">
-        <v>933.7510266797581</v>
+        <v>1123.145505859711</v>
       </c>
     </row>
     <row r="5">
@@ -4541,22 +4543,22 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1754.744438482647</v>
+        <v>1601.11348746897</v>
       </c>
       <c r="C5" t="n">
-        <v>1385.781921542235</v>
+        <v>1232.150970528558</v>
       </c>
       <c r="D5" t="n">
-        <v>1385.781921542235</v>
+        <v>1232.150970528558</v>
       </c>
       <c r="E5" t="n">
-        <v>999.993668943991</v>
+        <v>1232.150970528558</v>
       </c>
       <c r="F5" t="n">
-        <v>589.0077641543835</v>
+        <v>821.1650657389509</v>
       </c>
       <c r="G5" t="n">
-        <v>173.93531399938</v>
+        <v>406.0926155839475</v>
       </c>
       <c r="H5" t="n">
         <v>108.5090151927147</v>
@@ -4565,10 +4567,10 @@
         <v>66.51211643218342</v>
       </c>
       <c r="J5" t="n">
-        <v>255.3912473912089</v>
+        <v>255.3912473912096</v>
       </c>
       <c r="K5" t="n">
-        <v>589.2106210810554</v>
+        <v>589.2106210810559</v>
       </c>
       <c r="L5" t="n">
         <v>1040.244834329464</v>
@@ -4595,22 +4597,22 @@
         <v>3215.315153136266</v>
       </c>
       <c r="T5" t="n">
-        <v>3215.315153136266</v>
+        <v>3009.337405520488</v>
       </c>
       <c r="U5" t="n">
-        <v>3215.315153136266</v>
+        <v>2755.806928794324</v>
       </c>
       <c r="V5" t="n">
-        <v>2884.252265792695</v>
+        <v>2424.744041450753</v>
       </c>
       <c r="W5" t="n">
-        <v>2531.48361052258</v>
+        <v>2071.975386180639</v>
       </c>
       <c r="X5" t="n">
-        <v>2531.48361052258</v>
+        <v>1991.252819444782</v>
       </c>
       <c r="Y5" t="n">
-        <v>2141.344278546769</v>
+        <v>1601.11348746897</v>
       </c>
     </row>
     <row r="6">
@@ -4635,22 +4637,22 @@
         <v>312.3844025601595</v>
       </c>
       <c r="G6" t="n">
-        <v>176.0213023927779</v>
+        <v>176.021302392778</v>
       </c>
       <c r="H6" t="n">
-        <v>85.51940803064537</v>
+        <v>85.51940803064547</v>
       </c>
       <c r="I6" t="n">
         <v>66.5121164321834</v>
       </c>
       <c r="J6" t="n">
-        <v>160.189385922801</v>
+        <v>160.1893859228005</v>
       </c>
       <c r="K6" t="n">
-        <v>398.4535849031479</v>
+        <v>398.4535849031476</v>
       </c>
       <c r="L6" t="n">
-        <v>765.151745215813</v>
+        <v>765.1517452158129</v>
       </c>
       <c r="M6" t="n">
         <v>1212.428070438129</v>
@@ -4699,40 +4701,40 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>772.5608581015648</v>
+        <v>725.9304417640988</v>
       </c>
       <c r="C7" t="n">
-        <v>772.5608581015648</v>
+        <v>725.9304417640988</v>
       </c>
       <c r="D7" t="n">
-        <v>772.5608581015648</v>
+        <v>575.813802351763</v>
       </c>
       <c r="E7" t="n">
-        <v>624.6477645191717</v>
+        <v>427.9007087693699</v>
       </c>
       <c r="F7" t="n">
-        <v>477.7578170212613</v>
+        <v>281.0107612714595</v>
       </c>
       <c r="G7" t="n">
-        <v>310.0549803959803</v>
+        <v>113.3079246461785</v>
       </c>
       <c r="H7" t="n">
-        <v>163.8377936138381</v>
+        <v>113.3079246461785</v>
       </c>
       <c r="I7" t="n">
         <v>66.51211643218342</v>
       </c>
       <c r="J7" t="n">
-        <v>111.634748879119</v>
+        <v>111.6347488791189</v>
       </c>
       <c r="K7" t="n">
-        <v>315.6219318279954</v>
+        <v>315.6219318279952</v>
       </c>
       <c r="L7" t="n">
         <v>632.1817302764914</v>
       </c>
       <c r="M7" t="n">
-        <v>976.3387758760405</v>
+        <v>976.3387758760404</v>
       </c>
       <c r="N7" t="n">
         <v>1317.747152581905</v>
@@ -4744,31 +4746,31 @@
         <v>1849.684251935978</v>
       </c>
       <c r="Q7" t="n">
-        <v>1927.294548088493</v>
+        <v>1927.294548088492</v>
       </c>
       <c r="R7" t="n">
-        <v>1837.464090846021</v>
+        <v>1837.46409084602</v>
       </c>
       <c r="S7" t="n">
         <v>1645.778206672847</v>
       </c>
       <c r="T7" t="n">
-        <v>1424.011591242373</v>
+        <v>1645.778206672847</v>
       </c>
       <c r="U7" t="n">
-        <v>1282.770607282056</v>
+        <v>1645.778206672847</v>
       </c>
       <c r="V7" t="n">
-        <v>1282.770607282056</v>
+        <v>1645.778206672847</v>
       </c>
       <c r="W7" t="n">
-        <v>993.3534372450949</v>
+        <v>1356.361036635886</v>
       </c>
       <c r="X7" t="n">
-        <v>993.3534372450949</v>
+        <v>1128.371485737869</v>
       </c>
       <c r="Y7" t="n">
-        <v>772.5608581015648</v>
+        <v>907.5789065943385</v>
       </c>
     </row>
     <row r="8">
@@ -4778,16 +4780,16 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1528.069587875904</v>
+        <v>1639.433183287319</v>
       </c>
       <c r="C8" t="n">
-        <v>1292.833068744076</v>
+        <v>1270.470666346907</v>
       </c>
       <c r="D8" t="n">
-        <v>934.5673701373257</v>
+        <v>912.2049677401569</v>
       </c>
       <c r="E8" t="n">
-        <v>934.5673701373257</v>
+        <v>912.2049677401569</v>
       </c>
       <c r="F8" t="n">
         <v>523.5814653477182</v>
@@ -4799,19 +4801,19 @@
         <v>108.5090151927147</v>
       </c>
       <c r="I8" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J8" t="n">
-        <v>255.3912473912087</v>
+        <v>255.3912473912089</v>
       </c>
       <c r="K8" t="n">
-        <v>589.2106210810553</v>
+        <v>589.2106210810554</v>
       </c>
       <c r="L8" t="n">
         <v>1040.244834329464</v>
       </c>
       <c r="M8" t="n">
-        <v>1573.776739001389</v>
+        <v>1573.776739001388</v>
       </c>
       <c r="N8" t="n">
         <v>2120.555556060171</v>
@@ -4823,7 +4825,7 @@
         <v>3018.302393296686</v>
       </c>
       <c r="Q8" t="n">
-        <v>3266.588755052368</v>
+        <v>3266.588755052369</v>
       </c>
       <c r="R8" t="n">
         <v>3325.605821609171</v>
@@ -4832,22 +4834,22 @@
         <v>3215.315153136266</v>
       </c>
       <c r="T8" t="n">
-        <v>3009.337405520488</v>
+        <v>3009.337405520489</v>
       </c>
       <c r="U8" t="n">
-        <v>3009.337405520488</v>
+        <v>2755.806928794325</v>
       </c>
       <c r="V8" t="n">
-        <v>2678.274518176917</v>
+        <v>2755.806928794325</v>
       </c>
       <c r="W8" t="n">
-        <v>2678.274518176917</v>
+        <v>2403.038273524211</v>
       </c>
       <c r="X8" t="n">
-        <v>2304.808759915838</v>
+        <v>2029.572515263131</v>
       </c>
       <c r="Y8" t="n">
-        <v>1914.669427940026</v>
+        <v>1639.433183287319</v>
       </c>
     </row>
     <row r="9">
@@ -4872,10 +4874,10 @@
         <v>312.3844025601595</v>
       </c>
       <c r="G9" t="n">
-        <v>176.0213023927781</v>
+        <v>176.021302392778</v>
       </c>
       <c r="H9" t="n">
-        <v>85.51940803064576</v>
+        <v>85.51940803064547</v>
       </c>
       <c r="I9" t="n">
         <v>66.51211643218342</v>
@@ -4887,7 +4889,7 @@
         <v>398.4535849031479</v>
       </c>
       <c r="L9" t="n">
-        <v>765.1517452158131</v>
+        <v>765.151745215813</v>
       </c>
       <c r="M9" t="n">
         <v>1212.428070438129</v>
@@ -4936,28 +4938,28 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>941.4970410294717</v>
+        <v>331.5406302391191</v>
       </c>
       <c r="C10" t="n">
-        <v>772.5608581015648</v>
+        <v>331.5406302391191</v>
       </c>
       <c r="D10" t="n">
-        <v>772.5608581015648</v>
+        <v>331.5406302391191</v>
       </c>
       <c r="E10" t="n">
-        <v>624.6477645191717</v>
+        <v>331.5406302391191</v>
       </c>
       <c r="F10" t="n">
-        <v>477.7578170212613</v>
+        <v>331.5406302391191</v>
       </c>
       <c r="G10" t="n">
-        <v>310.0549803959803</v>
+        <v>163.8377936138381</v>
       </c>
       <c r="H10" t="n">
         <v>163.8377936138381</v>
       </c>
       <c r="I10" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J10" t="n">
         <v>111.634748879119</v>
@@ -4993,19 +4995,19 @@
         <v>1424.011591242373</v>
       </c>
       <c r="U10" t="n">
-        <v>1424.011591242373</v>
+        <v>1134.908724368016</v>
       </c>
       <c r="V10" t="n">
-        <v>1424.011591242373</v>
+        <v>880.2242361621296</v>
       </c>
       <c r="W10" t="n">
-        <v>1343.938085003241</v>
+        <v>590.8070661251691</v>
       </c>
       <c r="X10" t="n">
-        <v>1343.938085003241</v>
+        <v>362.8175152271517</v>
       </c>
       <c r="Y10" t="n">
-        <v>1123.145505859711</v>
+        <v>331.5406302391191</v>
       </c>
     </row>
     <row r="11">
@@ -5015,76 +5017,76 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551877</v>
       </c>
       <c r="C11" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611466</v>
       </c>
       <c r="D11" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004715</v>
       </c>
       <c r="E11" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406471</v>
       </c>
       <c r="F11" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168634</v>
       </c>
       <c r="G11" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362687</v>
       </c>
       <c r="H11" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797193</v>
       </c>
       <c r="I11" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J11" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K11" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075811</v>
       </c>
       <c r="L11" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M11" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014781</v>
       </c>
       <c r="N11" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355939</v>
       </c>
       <c r="O11" t="n">
-        <v>3640.422291068008</v>
+        <v>3640.422291068013</v>
       </c>
       <c r="P11" t="n">
-        <v>4194.413870694706</v>
+        <v>4194.413870694711</v>
       </c>
       <c r="Q11" t="n">
-        <v>4562.265728852254</v>
+        <v>4562.265728852258</v>
       </c>
       <c r="R11" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398596</v>
       </c>
       <c r="S11" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492581</v>
       </c>
       <c r="T11" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474786</v>
       </c>
       <c r="U11" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466576</v>
       </c>
       <c r="V11" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123005</v>
       </c>
       <c r="W11" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852891</v>
       </c>
       <c r="X11" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591811</v>
       </c>
       <c r="Y11" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615999</v>
       </c>
     </row>
     <row r="12">
@@ -5103,7 +5105,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E12" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F12" t="n">
         <v>314.2396613568978</v>
@@ -5112,28 +5114,28 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H12" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797193</v>
       </c>
       <c r="I12" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797193</v>
       </c>
       <c r="J12" t="n">
-        <v>243.4633055756266</v>
+        <v>243.4633055756267</v>
       </c>
       <c r="K12" t="n">
-        <v>280.8495004245706</v>
+        <v>577.3880777468473</v>
       </c>
       <c r="L12" t="n">
-        <v>776.1751066403293</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M12" t="n">
-        <v>1373.553594266881</v>
+        <v>1577.528408326419</v>
       </c>
       <c r="N12" t="n">
-        <v>2001.151557821488</v>
+        <v>1577.528408326419</v>
       </c>
       <c r="O12" t="n">
-        <v>2553.061288060775</v>
+        <v>2129.438138565707</v>
       </c>
       <c r="P12" t="n">
         <v>2553.061288060775</v>
@@ -5173,64 +5175,64 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>1098.667160263526</v>
+        <v>1098.667160263527</v>
       </c>
       <c r="C13" t="n">
-        <v>929.7309773356194</v>
+        <v>929.7309773356195</v>
       </c>
       <c r="D13" t="n">
-        <v>779.6143379232836</v>
+        <v>779.6143379232838</v>
       </c>
       <c r="E13" t="n">
-        <v>631.7012443408905</v>
+        <v>631.7012443408906</v>
       </c>
       <c r="F13" t="n">
-        <v>484.8112968429802</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G13" t="n">
-        <v>317.6151975578601</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H13" t="n">
-        <v>175.9033664000582</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I13" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797193</v>
       </c>
       <c r="J13" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K13" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L13" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M13" t="n">
-        <v>1248.150240910809</v>
+        <v>1248.15024091081</v>
       </c>
       <c r="N13" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O13" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P13" t="n">
-        <v>2327.764848853361</v>
+        <v>2327.764848853362</v>
       </c>
       <c r="Q13" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R13" t="n">
-        <v>2379.917379832663</v>
+        <v>2379.917379832664</v>
       </c>
       <c r="S13" t="n">
-        <v>2379.917379832663</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T13" t="n">
-        <v>2379.917379832663</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="U13" t="n">
-        <v>2273.199413378161</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="V13" t="n">
         <v>2018.514925172274</v>
@@ -5252,76 +5254,76 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C14" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611464</v>
       </c>
       <c r="D14" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E14" t="n">
-        <v>1204.759558406467</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F14" t="n">
-        <v>793.7736536168597</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G14" t="n">
-        <v>379.8308874362672</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H14" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I14" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J14" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111718</v>
       </c>
       <c r="K14" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075811</v>
       </c>
       <c r="L14" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M14" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N14" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O14" t="n">
-        <v>3640.422291068008</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P14" t="n">
-        <v>4194.413870694706</v>
+        <v>4194.413870694709</v>
       </c>
       <c r="Q14" t="n">
-        <v>4562.265728852254</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R14" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S14" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T14" t="n">
-        <v>4405.252601474783</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U14" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V14" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W14" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X14" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y14" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="15">
@@ -5340,7 +5342,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E15" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F15" t="n">
         <v>314.2396613568978</v>
@@ -5349,10 +5351,10 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H15" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I15" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J15" t="n">
         <v>243.4633055756266</v>
@@ -5361,22 +5363,22 @@
         <v>243.4633055756266</v>
       </c>
       <c r="L15" t="n">
-        <v>738.7889117913853</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="M15" t="n">
-        <v>1336.167399417937</v>
+        <v>680.0291294438171</v>
       </c>
       <c r="N15" t="n">
-        <v>1963.765362972544</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="O15" t="n">
-        <v>2515.675093211831</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P15" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q15" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R15" t="n">
         <v>2553.061288060775</v>
@@ -5410,10 +5412,10 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>916.2946447138411</v>
+        <v>1098.667160263526</v>
       </c>
       <c r="C16" t="n">
-        <v>916.2946447138411</v>
+        <v>929.7309773356194</v>
       </c>
       <c r="D16" t="n">
         <v>779.6143379232836</v>
@@ -5428,58 +5430,58 @@
         <v>317.6151975578601</v>
       </c>
       <c r="H16" t="n">
-        <v>175.9033664000582</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I16" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J16" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K16" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L16" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M16" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N16" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O16" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P16" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q16" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R16" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S16" t="n">
-        <v>2197.062545487567</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T16" t="n">
-        <v>1977.461080510508</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U16" t="n">
-        <v>1688.385853854706</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V16" t="n">
-        <v>1433.701365648819</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="W16" t="n">
-        <v>1144.284195611858</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="X16" t="n">
-        <v>916.2946447138411</v>
+        <v>1501.108204237296</v>
       </c>
       <c r="Y16" t="n">
-        <v>916.2946447138411</v>
+        <v>1280.315625093766</v>
       </c>
     </row>
     <row r="17">
@@ -5507,43 +5509,43 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H17" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I17" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192596</v>
       </c>
       <c r="J17" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K17" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075811</v>
       </c>
       <c r="L17" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M17" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N17" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O17" t="n">
-        <v>3640.422291068008</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P17" t="n">
-        <v>4194.413870694706</v>
+        <v>4194.413870694709</v>
       </c>
       <c r="Q17" t="n">
-        <v>4562.265728852254</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R17" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S17" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T17" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U17" t="n">
         <v>4151.812499466573</v>
@@ -5577,7 +5579,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E18" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F18" t="n">
         <v>314.2396613568978</v>
@@ -5586,34 +5588,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H18" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I18" t="n">
-        <v>95.58405025273902</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J18" t="n">
-        <v>245.2306927803937</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K18" t="n">
-        <v>245.2306927803937</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L18" t="n">
-        <v>740.5562989961525</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M18" t="n">
-        <v>1337.934786622704</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N18" t="n">
-        <v>1337.934786622704</v>
+        <v>2001.151557821488</v>
       </c>
       <c r="O18" t="n">
-        <v>1859.536823237711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P18" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q18" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R18" t="n">
         <v>2553.061288060775</v>
@@ -5647,76 +5649,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>1098.667160263526</v>
+        <v>956.9553291057244</v>
       </c>
       <c r="C19" t="n">
-        <v>929.7309773356194</v>
+        <v>788.0191461778176</v>
       </c>
       <c r="D19" t="n">
-        <v>779.6143379232836</v>
+        <v>637.9025067654818</v>
       </c>
       <c r="E19" t="n">
-        <v>631.7012443408905</v>
+        <v>489.9894131830887</v>
       </c>
       <c r="F19" t="n">
-        <v>484.8112968429802</v>
+        <v>343.0994656851783</v>
       </c>
       <c r="G19" t="n">
-        <v>317.6151975578601</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="H19" t="n">
-        <v>175.9033664000582</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I19" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J19" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K19" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L19" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M19" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N19" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O19" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P19" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q19" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R19" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S19" t="n">
-        <v>2446.96308358026</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T19" t="n">
-        <v>2446.96308358026</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U19" t="n">
-        <v>2273.199413378161</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V19" t="n">
-        <v>2018.514925172274</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="W19" t="n">
-        <v>1729.097755135313</v>
+        <v>1398.968683817746</v>
       </c>
       <c r="X19" t="n">
-        <v>1501.108204237296</v>
+        <v>1359.396373079494</v>
       </c>
       <c r="Y19" t="n">
-        <v>1280.315625093766</v>
+        <v>1138.603793935964</v>
       </c>
     </row>
     <row r="20">
@@ -5726,76 +5728,76 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C20" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D20" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E20" t="n">
-        <v>1204.759558406467</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F20" t="n">
-        <v>793.7736536168597</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G20" t="n">
-        <v>379.8308874362672</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H20" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I20" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192548</v>
       </c>
       <c r="J20" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111708</v>
       </c>
       <c r="K20" t="n">
         <v>852.8523611075802</v>
       </c>
       <c r="L20" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M20" t="n">
         <v>2206.558663014778</v>
       </c>
       <c r="N20" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O20" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P20" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q20" t="n">
-        <v>4562.265728852254</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R20" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S20" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T20" t="n">
-        <v>4405.252601474783</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U20" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V20" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W20" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X20" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y20" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="21">
@@ -5823,34 +5825,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H21" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I21" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J21" t="n">
         <v>243.4633055756266</v>
       </c>
       <c r="K21" t="n">
-        <v>577.3880777468471</v>
+        <v>280.8495004245705</v>
       </c>
       <c r="L21" t="n">
-        <v>577.3880777468471</v>
+        <v>776.1751066403293</v>
       </c>
       <c r="M21" t="n">
-        <v>1174.766565373399</v>
+        <v>1373.553594266881</v>
       </c>
       <c r="N21" t="n">
-        <v>1802.364528928006</v>
+        <v>2001.151557821488</v>
       </c>
       <c r="O21" t="n">
-        <v>2354.274259167293</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P21" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q21" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R21" t="n">
         <v>2553.061288060775</v>
@@ -5884,76 +5886,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>3227.225672628156</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="C22" t="n">
-        <v>3058.289489700249</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="D22" t="n">
-        <v>2908.172850287914</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="E22" t="n">
-        <v>2760.25975670552</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="F22" t="n">
-        <v>2613.36980920761</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="G22" t="n">
-        <v>2446.17370992249</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="H22" t="n">
-        <v>2337.686731866303</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="I22" t="n">
-        <v>2337.686731866303</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J22" t="n">
-        <v>2417.922750296627</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K22" t="n">
-        <v>2679.612012822166</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L22" t="n">
-        <v>3070.010606998106</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M22" t="n">
-        <v>3492.020309729141</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N22" t="n">
-        <v>3909.430181389149</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O22" t="n">
-        <v>4278.959462098134</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P22" t="n">
-        <v>4571.634917671693</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q22" t="n">
-        <v>4690.833152398593</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R22" t="n">
-        <v>4690.833152398593</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S22" t="n">
-        <v>4690.833152398593</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T22" t="n">
-        <v>4690.833152398593</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U22" t="n">
-        <v>4401.757925742791</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V22" t="n">
-        <v>4147.073437536904</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W22" t="n">
-        <v>3857.656267499943</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X22" t="n">
-        <v>3629.666716601926</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y22" t="n">
-        <v>3408.874137458396</v>
+        <v>695.5020655703114</v>
       </c>
     </row>
     <row r="23">
@@ -5969,7 +5971,7 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D23" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E23" t="n">
         <v>1204.759558406469</v>
@@ -5978,10 +5980,10 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G23" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H23" t="n">
-        <v>93.81666304797187</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I23" t="n">
         <v>95.34095638192593</v>
@@ -5996,10 +5998,10 @@
         <v>1478.611553332387</v>
       </c>
       <c r="M23" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N23" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O23" t="n">
         <v>3640.42229106801</v>
@@ -6042,76 +6044,76 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>943.3991132778466</v>
+        <v>3081.170977615666</v>
       </c>
       <c r="C24" t="n">
-        <v>768.9460839967196</v>
+        <v>2906.717948334539</v>
       </c>
       <c r="D24" t="n">
-        <v>620.0116743354683</v>
+        <v>2757.783538673288</v>
       </c>
       <c r="E24" t="n">
-        <v>460.7742193300128</v>
+        <v>2598.546083667832</v>
       </c>
       <c r="F24" t="n">
-        <v>314.2396613568978</v>
+        <v>2452.011525694717</v>
       </c>
       <c r="G24" t="n">
-        <v>178.4809954028057</v>
+        <v>2316.252859740625</v>
       </c>
       <c r="H24" t="n">
-        <v>93.81666304797187</v>
+        <v>2231.588527385791</v>
       </c>
       <c r="I24" t="n">
-        <v>93.81666304797187</v>
+        <v>2231.588527385791</v>
       </c>
       <c r="J24" t="n">
-        <v>243.4633055756266</v>
+        <v>2381.235169913446</v>
       </c>
       <c r="K24" t="n">
-        <v>577.3880777468471</v>
+        <v>2381.235169913446</v>
       </c>
       <c r="L24" t="n">
-        <v>1072.713683962606</v>
+        <v>2808.971891347485</v>
       </c>
       <c r="M24" t="n">
-        <v>1336.913939313768</v>
+        <v>3406.350378974037</v>
       </c>
       <c r="N24" t="n">
-        <v>1964.511902868375</v>
+        <v>4033.948342528643</v>
       </c>
       <c r="O24" t="n">
-        <v>2516.421633107662</v>
+        <v>4033.948342528643</v>
       </c>
       <c r="P24" t="n">
-        <v>2516.421633107662</v>
+        <v>4457.571492023711</v>
       </c>
       <c r="Q24" t="n">
-        <v>2516.421633107662</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="R24" t="n">
-        <v>2553.061288060775</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S24" t="n">
-        <v>2434.850501963388</v>
+        <v>4572.622366301206</v>
       </c>
       <c r="T24" t="n">
-        <v>2244.643795685161</v>
+        <v>4382.41566002298</v>
       </c>
       <c r="U24" t="n">
-        <v>2016.615714228345</v>
+        <v>4154.387578566165</v>
       </c>
       <c r="V24" t="n">
-        <v>1781.463605996603</v>
+        <v>3919.235470334422</v>
       </c>
       <c r="W24" t="n">
-        <v>1527.226249268401</v>
+        <v>3664.998113606221</v>
       </c>
       <c r="X24" t="n">
-        <v>1319.374749062868</v>
+        <v>3457.146613400688</v>
       </c>
       <c r="Y24" t="n">
-        <v>1111.614450297915</v>
+        <v>3249.386314635734</v>
       </c>
     </row>
     <row r="25">
@@ -6121,22 +6123,22 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>956.9553291057244</v>
+        <v>1098.667160263527</v>
       </c>
       <c r="C25" t="n">
-        <v>788.0191461778176</v>
+        <v>929.7309773356195</v>
       </c>
       <c r="D25" t="n">
-        <v>637.9025067654818</v>
+        <v>779.6143379232838</v>
       </c>
       <c r="E25" t="n">
-        <v>489.9894131830887</v>
+        <v>631.7012443408906</v>
       </c>
       <c r="F25" t="n">
-        <v>343.0994656851783</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G25" t="n">
-        <v>175.9033664000583</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H25" t="n">
         <v>175.9033664000583</v>
@@ -6169,28 +6171,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R25" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S25" t="n">
-        <v>2264.108249235165</v>
+        <v>2272.857469997003</v>
       </c>
       <c r="T25" t="n">
-        <v>2044.506784258106</v>
+        <v>2272.857469997003</v>
       </c>
       <c r="U25" t="n">
-        <v>1755.431557602304</v>
+        <v>1983.7822433412</v>
       </c>
       <c r="V25" t="n">
-        <v>1755.431557602304</v>
+        <v>1729.097755135313</v>
       </c>
       <c r="W25" t="n">
-        <v>1466.014387565343</v>
+        <v>1729.097755135313</v>
       </c>
       <c r="X25" t="n">
-        <v>1359.396373079494</v>
+        <v>1501.108204237296</v>
       </c>
       <c r="Y25" t="n">
-        <v>1138.603793935964</v>
+        <v>1280.315625093766</v>
       </c>
     </row>
     <row r="26">
@@ -6218,49 +6220,49 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H26" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I26" t="n">
-        <v>95.34095638192592</v>
+        <v>95.34095638192548</v>
       </c>
       <c r="J26" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111708</v>
       </c>
       <c r="K26" t="n">
-        <v>852.8523611075807</v>
+        <v>852.85236110758</v>
       </c>
       <c r="L26" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M26" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N26" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O26" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P26" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694706</v>
       </c>
       <c r="Q26" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852254</v>
       </c>
       <c r="R26" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S26" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T26" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474783</v>
       </c>
       <c r="U26" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V26" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W26" t="n">
         <v>3467.980956852889</v>
@@ -6297,31 +6299,31 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H27" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I27" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J27" t="n">
-        <v>243.4633055756266</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="K27" t="n">
-        <v>577.3880777468471</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="L27" t="n">
-        <v>577.3880777468471</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="M27" t="n">
-        <v>1174.766565373399</v>
+        <v>680.0291294438176</v>
       </c>
       <c r="N27" t="n">
-        <v>1802.364528928006</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="O27" t="n">
-        <v>2354.274259167293</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P27" t="n">
-        <v>2516.421633107662</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q27" t="n">
         <v>2516.421633107662</v>
@@ -6358,28 +6360,28 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>554.5813165460164</v>
+        <v>642.8692823226939</v>
       </c>
       <c r="C28" t="n">
-        <v>385.6451336181095</v>
+        <v>473.9330993947871</v>
       </c>
       <c r="D28" t="n">
-        <v>235.5284942057738</v>
+        <v>323.8164599824514</v>
       </c>
       <c r="E28" t="n">
-        <v>235.5284942057738</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="F28" t="n">
-        <v>235.5284942057738</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="G28" t="n">
-        <v>235.5284942057738</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="H28" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="I28" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J28" t="n">
         <v>174.0526814782957</v>
@@ -6388,46 +6390,46 @@
         <v>435.7419440038343</v>
       </c>
       <c r="L28" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797705</v>
       </c>
       <c r="M28" t="n">
-        <v>1248.150240910809</v>
+        <v>1248.150240910805</v>
       </c>
       <c r="N28" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570814</v>
       </c>
       <c r="O28" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279799</v>
       </c>
       <c r="P28" t="n">
-        <v>2327.764848853361</v>
+        <v>2327.764848853357</v>
       </c>
       <c r="Q28" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580257</v>
       </c>
       <c r="R28" t="n">
-        <v>2379.917379832663</v>
+        <v>2379.917379832659</v>
       </c>
       <c r="S28" t="n">
-        <v>2197.062545487567</v>
+        <v>2197.062545487564</v>
       </c>
       <c r="T28" t="n">
-        <v>1977.461080510508</v>
+        <v>1977.461080510505</v>
       </c>
       <c r="U28" t="n">
-        <v>1729.113569660651</v>
+        <v>1817.401535437329</v>
       </c>
       <c r="V28" t="n">
-        <v>1474.429081454764</v>
+        <v>1562.717047231442</v>
       </c>
       <c r="W28" t="n">
-        <v>1185.011911417804</v>
+        <v>1273.299877194481</v>
       </c>
       <c r="X28" t="n">
-        <v>957.0223605197863</v>
+        <v>1045.310326296464</v>
       </c>
       <c r="Y28" t="n">
-        <v>736.2297813762561</v>
+        <v>824.5177471529337</v>
       </c>
     </row>
     <row r="29">
@@ -6443,10 +6445,10 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D29" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E29" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F29" t="n">
         <v>793.7736536168611</v>
@@ -6455,55 +6457,55 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H29" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I29" t="n">
-        <v>95.34095638192591</v>
+        <v>95.34095638192548</v>
       </c>
       <c r="J29" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111708</v>
       </c>
       <c r="K29" t="n">
-        <v>852.8523611075807</v>
+        <v>852.85236110758</v>
       </c>
       <c r="L29" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M29" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N29" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O29" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P29" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694706</v>
       </c>
       <c r="Q29" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852254</v>
       </c>
       <c r="R29" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S29" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T29" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474783</v>
       </c>
       <c r="U29" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V29" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W29" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X29" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y29" t="n">
         <v>2704.375866615997</v>
@@ -6534,31 +6536,31 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H30" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I30" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273902</v>
       </c>
       <c r="J30" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K30" t="n">
-        <v>577.3880777468471</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="L30" t="n">
-        <v>1072.713683962606</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="M30" t="n">
-        <v>1670.092171589158</v>
+        <v>680.0291294438176</v>
       </c>
       <c r="N30" t="n">
-        <v>1670.092171589158</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="O30" t="n">
-        <v>2222.001901828445</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P30" t="n">
-        <v>2516.421633107662</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q30" t="n">
         <v>2516.421633107662</v>
@@ -6595,76 +6597,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>3342.537229081859</v>
+        <v>695.5020655703109</v>
       </c>
       <c r="C31" t="n">
-        <v>3173.601046153952</v>
+        <v>695.5020655703109</v>
       </c>
       <c r="D31" t="n">
-        <v>3023.484406741616</v>
+        <v>545.3854261579752</v>
       </c>
       <c r="E31" t="n">
-        <v>2875.571313159223</v>
+        <v>397.4723325755821</v>
       </c>
       <c r="F31" t="n">
-        <v>2728.681365661313</v>
+        <v>397.4723325755821</v>
       </c>
       <c r="G31" t="n">
-        <v>2561.485266376193</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="H31" t="n">
-        <v>2419.773435218391</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="I31" t="n">
-        <v>2337.686731866304</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J31" t="n">
-        <v>2417.922750296628</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K31" t="n">
-        <v>2679.612012822167</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L31" t="n">
-        <v>3070.010606998107</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M31" t="n">
-        <v>3492.020309729142</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N31" t="n">
-        <v>3909.43018138915</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O31" t="n">
-        <v>4278.959462098135</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P31" t="n">
-        <v>4571.634917671694</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q31" t="n">
-        <v>4690.833152398593</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R31" t="n">
-        <v>4623.787448650995</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S31" t="n">
-        <v>4517.069482196493</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T31" t="n">
-        <v>4517.069482196493</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U31" t="n">
-        <v>4517.069482196493</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V31" t="n">
-        <v>4262.384993990607</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W31" t="n">
-        <v>3972.967823953646</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X31" t="n">
-        <v>3744.978273055629</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y31" t="n">
-        <v>3524.185693912098</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="32">
@@ -6674,76 +6676,76 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C32" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D32" t="n">
         <v>1590.547811004712</v>
       </c>
       <c r="E32" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406467</v>
       </c>
       <c r="F32" t="n">
-        <v>793.7736536168607</v>
+        <v>793.7736536168597</v>
       </c>
       <c r="G32" t="n">
-        <v>379.8308874362681</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H32" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I32" t="n">
-        <v>95.34095638192591</v>
+        <v>95.34095638192548</v>
       </c>
       <c r="J32" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111708</v>
       </c>
       <c r="K32" t="n">
-        <v>852.8523611075807</v>
+        <v>852.85236110758</v>
       </c>
       <c r="L32" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M32" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N32" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O32" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P32" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694706</v>
       </c>
       <c r="Q32" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852254</v>
       </c>
       <c r="R32" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S32" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T32" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474783</v>
       </c>
       <c r="U32" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V32" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W32" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X32" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y32" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="33">
@@ -6771,31 +6773,31 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H33" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I33" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273902</v>
       </c>
       <c r="J33" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K33" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L33" t="n">
-        <v>1072.713683962606</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M33" t="n">
-        <v>1670.092171589158</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N33" t="n">
-        <v>2297.690135143765</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="O33" t="n">
-        <v>2516.421633107662</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P33" t="n">
-        <v>2516.421633107662</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q33" t="n">
         <v>2516.421633107662</v>
@@ -6832,76 +6834,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>2757.723669558405</v>
+        <v>2804.652647788939</v>
       </c>
       <c r="C34" t="n">
-        <v>2588.787486630498</v>
+        <v>2635.716464861032</v>
       </c>
       <c r="D34" t="n">
-        <v>2479.398563024106</v>
+        <v>2485.599825448697</v>
       </c>
       <c r="E34" t="n">
-        <v>2479.398563024106</v>
+        <v>2337.686731866303</v>
       </c>
       <c r="F34" t="n">
-        <v>2479.398563024106</v>
+        <v>2337.686731866303</v>
       </c>
       <c r="G34" t="n">
-        <v>2479.398563024106</v>
+        <v>2337.686731866303</v>
       </c>
       <c r="H34" t="n">
-        <v>2337.686731866304</v>
+        <v>2337.686731866303</v>
       </c>
       <c r="I34" t="n">
-        <v>2337.686731866304</v>
+        <v>2337.686731866303</v>
       </c>
       <c r="J34" t="n">
-        <v>2417.922750296628</v>
+        <v>2417.922750296627</v>
       </c>
       <c r="K34" t="n">
-        <v>2679.612012822167</v>
+        <v>2679.612012822166</v>
       </c>
       <c r="L34" t="n">
-        <v>3070.010606998107</v>
+        <v>3070.010606998106</v>
       </c>
       <c r="M34" t="n">
-        <v>3492.020309729142</v>
+        <v>3492.020309729141</v>
       </c>
       <c r="N34" t="n">
-        <v>3909.43018138915</v>
+        <v>3909.430181389149</v>
       </c>
       <c r="O34" t="n">
-        <v>4278.959462098135</v>
+        <v>4278.959462098134</v>
       </c>
       <c r="P34" t="n">
-        <v>4571.634917671694</v>
+        <v>4571.634917671693</v>
       </c>
       <c r="Q34" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="R34" t="n">
-        <v>4623.787448650995</v>
+        <v>4670.71642688153</v>
       </c>
       <c r="S34" t="n">
-        <v>4440.9326143059</v>
+        <v>4487.861592536435</v>
       </c>
       <c r="T34" t="n">
-        <v>4221.331149328841</v>
+        <v>4268.260127559376</v>
       </c>
       <c r="U34" t="n">
-        <v>3932.255922673039</v>
+        <v>3979.184900903574</v>
       </c>
       <c r="V34" t="n">
-        <v>3677.571434467152</v>
+        <v>3724.500412697687</v>
       </c>
       <c r="W34" t="n">
-        <v>3388.154264430192</v>
+        <v>3435.083242660727</v>
       </c>
       <c r="X34" t="n">
-        <v>3160.164713532175</v>
+        <v>3207.093691762709</v>
       </c>
       <c r="Y34" t="n">
-        <v>2939.372134388645</v>
+        <v>2986.301112619179</v>
       </c>
     </row>
     <row r="35">
@@ -6917,28 +6919,28 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D35" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E35" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F35" t="n">
-        <v>793.7736536168607</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G35" t="n">
         <v>379.8308874362686</v>
       </c>
       <c r="H35" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I35" t="n">
-        <v>95.34095638192596</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J35" t="n">
         <v>378.1925803111717</v>
       </c>
       <c r="K35" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L35" t="n">
         <v>1478.611553332387</v>
@@ -6956,7 +6958,7 @@
         <v>4194.413870694707</v>
       </c>
       <c r="Q35" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852254</v>
       </c>
       <c r="R35" t="n">
         <v>4690.833152398593</v>
@@ -6971,13 +6973,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V35" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W35" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X35" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y35" t="n">
         <v>2704.375866615997</v>
@@ -7008,31 +7010,31 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H36" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I36" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J36" t="n">
-        <v>93.81666304797187</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K36" t="n">
-        <v>93.81666304797187</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="L36" t="n">
-        <v>506.2737913123336</v>
+        <v>738.7889117913853</v>
       </c>
       <c r="M36" t="n">
-        <v>1103.652278938886</v>
+        <v>1336.167399417937</v>
       </c>
       <c r="N36" t="n">
-        <v>1731.250242493492</v>
+        <v>1963.765362972544</v>
       </c>
       <c r="O36" t="n">
-        <v>2283.159972732779</v>
+        <v>2515.675093211831</v>
       </c>
       <c r="P36" t="n">
-        <v>2283.159972732779</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="Q36" t="n">
         <v>2516.421633107662</v>
@@ -7069,28 +7071,28 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>1098.667160263527</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C37" t="n">
-        <v>929.7309773356195</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D37" t="n">
-        <v>779.6143379232838</v>
+        <v>194.8007783998286</v>
       </c>
       <c r="E37" t="n">
-        <v>631.7012443408906</v>
+        <v>194.8007783998286</v>
       </c>
       <c r="F37" t="n">
-        <v>484.8112968429803</v>
+        <v>194.8007783998286</v>
       </c>
       <c r="G37" t="n">
-        <v>317.6151975578602</v>
+        <v>194.8007783998286</v>
       </c>
       <c r="H37" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I37" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J37" t="n">
         <v>174.0526814782957</v>
@@ -7117,28 +7119,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R37" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S37" t="n">
-        <v>2446.96308358026</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T37" t="n">
-        <v>2446.96308358026</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U37" t="n">
-        <v>2273.199413378161</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V37" t="n">
-        <v>2018.514925172274</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W37" t="n">
-        <v>1729.097755135313</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X37" t="n">
-        <v>1501.108204237296</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y37" t="n">
-        <v>1280.315625093766</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="38">
@@ -7166,46 +7168,46 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H38" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I38" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J38" t="n">
-        <v>378.1925803111712</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K38" t="n">
-        <v>852.8523611075802</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L38" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M38" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N38" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O38" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P38" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694709</v>
       </c>
       <c r="Q38" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R38" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S38" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T38" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U38" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V38" t="n">
         <v>3820.749612123003</v>
@@ -7236,7 +7238,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E39" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F39" t="n">
         <v>314.2396613568978</v>
@@ -7245,34 +7247,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H39" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I39" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="J39" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K39" t="n">
-        <v>577.3880777468471</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="L39" t="n">
-        <v>1072.713683962606</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="M39" t="n">
-        <v>1373.553594266881</v>
+        <v>680.0291294438176</v>
       </c>
       <c r="N39" t="n">
-        <v>2001.151557821488</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="O39" t="n">
-        <v>2553.061288060775</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P39" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q39" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R39" t="n">
         <v>2553.061288060775</v>
@@ -7306,28 +7308,28 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>513.8536007400712</v>
+        <v>803.8641191832229</v>
       </c>
       <c r="C40" t="n">
-        <v>344.9174178121643</v>
+        <v>634.927936255316</v>
       </c>
       <c r="D40" t="n">
-        <v>194.8007783998286</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="E40" t="n">
-        <v>194.8007783998286</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="F40" t="n">
-        <v>194.8007783998286</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G40" t="n">
-        <v>93.81666304797187</v>
+        <v>317.6151975578603</v>
       </c>
       <c r="H40" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I40" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J40" t="n">
         <v>174.0526814782957</v>
@@ -7354,28 +7356,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R40" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S40" t="n">
-        <v>2197.062545487567</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="T40" t="n">
-        <v>1977.461080510508</v>
+        <v>2267.47159895366</v>
       </c>
       <c r="U40" t="n">
-        <v>1688.385853854706</v>
+        <v>1978.396372297858</v>
       </c>
       <c r="V40" t="n">
-        <v>1433.701365648819</v>
+        <v>1723.711884091971</v>
       </c>
       <c r="W40" t="n">
-        <v>1144.284195611858</v>
+        <v>1434.29471405501</v>
       </c>
       <c r="X40" t="n">
-        <v>916.2946447138411</v>
+        <v>1206.305163156993</v>
       </c>
       <c r="Y40" t="n">
-        <v>695.5020655703109</v>
+        <v>985.5125840134626</v>
       </c>
     </row>
     <row r="41">
@@ -7385,31 +7387,31 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C41" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D41" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E41" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F41" t="n">
-        <v>793.7736536168609</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G41" t="n">
         <v>379.8308874362683</v>
       </c>
       <c r="H41" t="n">
-        <v>93.81666304797187</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I41" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J41" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K41" t="n">
         <v>852.8523611075807</v>
@@ -7424,7 +7426,7 @@
         <v>2950.898526355937</v>
       </c>
       <c r="O41" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P41" t="n">
         <v>4194.413870694707</v>
@@ -7442,19 +7444,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U41" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V41" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W41" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X41" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y41" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="42">
@@ -7485,28 +7487,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I42" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J42" t="n">
-        <v>245.2306927803937</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K42" t="n">
-        <v>245.2306927803937</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L42" t="n">
-        <v>740.5562989961525</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M42" t="n">
-        <v>1337.934786622704</v>
+        <v>1373.553594266881</v>
       </c>
       <c r="N42" t="n">
-        <v>1965.532750177311</v>
+        <v>2001.151557821488</v>
       </c>
       <c r="O42" t="n">
-        <v>2517.442480416598</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P42" t="n">
-        <v>2517.442480416598</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q42" t="n">
         <v>2553.061288060775</v>
@@ -7543,25 +7545,25 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>3118.73869457197</v>
+        <v>3342.537229081859</v>
       </c>
       <c r="C43" t="n">
-        <v>2949.802511644064</v>
+        <v>3173.601046153952</v>
       </c>
       <c r="D43" t="n">
-        <v>2799.685872231728</v>
+        <v>3023.484406741616</v>
       </c>
       <c r="E43" t="n">
-        <v>2651.772778649335</v>
+        <v>2875.571313159223</v>
       </c>
       <c r="F43" t="n">
-        <v>2504.882831151424</v>
+        <v>2728.681365661313</v>
       </c>
       <c r="G43" t="n">
-        <v>2337.686731866304</v>
+        <v>2561.485266376193</v>
       </c>
       <c r="H43" t="n">
-        <v>2337.686731866304</v>
+        <v>2419.773435218391</v>
       </c>
       <c r="I43" t="n">
         <v>2337.686731866304</v>
@@ -7591,28 +7593,28 @@
         <v>4690.833152398593</v>
       </c>
       <c r="R43" t="n">
-        <v>4623.787448650995</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S43" t="n">
-        <v>4623.787448650995</v>
+        <v>4517.069482196493</v>
       </c>
       <c r="T43" t="n">
-        <v>4404.185983673937</v>
+        <v>4517.069482196493</v>
       </c>
       <c r="U43" t="n">
-        <v>4115.110757018135</v>
+        <v>4517.069482196493</v>
       </c>
       <c r="V43" t="n">
-        <v>3860.426268812248</v>
+        <v>4262.384993990607</v>
       </c>
       <c r="W43" t="n">
-        <v>3571.009098775287</v>
+        <v>3972.967823953646</v>
       </c>
       <c r="X43" t="n">
-        <v>3343.01954787727</v>
+        <v>3744.978273055629</v>
       </c>
       <c r="Y43" t="n">
-        <v>3122.22696873374</v>
+        <v>3524.185693912098</v>
       </c>
     </row>
     <row r="44">
@@ -7628,28 +7630,28 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D44" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E44" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F44" t="n">
-        <v>793.7736536168607</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G44" t="n">
-        <v>379.8308874362681</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H44" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I44" t="n">
-        <v>95.3409563819265</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J44" t="n">
-        <v>378.192580311172</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K44" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L44" t="n">
         <v>1478.611553332387</v>
@@ -7661,7 +7663,7 @@
         <v>2950.898526355937</v>
       </c>
       <c r="O44" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P44" t="n">
         <v>4194.413870694707</v>
@@ -7731,22 +7733,22 @@
         <v>579.1554649516142</v>
       </c>
       <c r="L45" t="n">
-        <v>1074.481071167373</v>
+        <v>739.5354516872161</v>
       </c>
       <c r="M45" t="n">
-        <v>1671.859558793925</v>
+        <v>1336.913939313768</v>
       </c>
       <c r="N45" t="n">
-        <v>1896.176478190825</v>
+        <v>1964.511902868375</v>
       </c>
       <c r="O45" t="n">
-        <v>1896.176478190825</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="P45" t="n">
-        <v>2319.799627685893</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="Q45" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R45" t="n">
         <v>2553.061288060775</v>
@@ -7780,25 +7782,25 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>741.8431516380886</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C46" t="n">
-        <v>572.9069687101817</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D46" t="n">
-        <v>422.7903292978459</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E46" t="n">
-        <v>274.8772357154528</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F46" t="n">
-        <v>274.8772357154528</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="G46" t="n">
-        <v>175.9033664000583</v>
+        <v>177.7213185270443</v>
       </c>
       <c r="H46" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I46" t="n">
         <v>93.81666304797187</v>
@@ -7846,10 +7848,10 @@
         <v>1144.284195611858</v>
       </c>
       <c r="X46" t="n">
-        <v>1144.284195611858</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y46" t="n">
-        <v>923.4916164683283</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
   </sheetData>
@@ -23464,16 +23466,16 @@
         <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
         <v>217.4054503272883</v>
       </c>
       <c r="U13" t="n">
-        <v>180.5336875992872</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V13" t="n">
-        <v>0</v>
+        <v>75.37549921168704</v>
       </c>
       <c r="W13" t="n">
         <v>0</v>
@@ -23650,13 +23652,13 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>13.3019692955605</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
         <v>0</v>
@@ -23710,16 +23712,16 @@
         <v>0</v>
       </c>
       <c r="V16" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W16" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
-        <v>0</v>
+        <v>40.30478226780068</v>
       </c>
       <c r="Y16" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -23905,7 +23907,7 @@
         <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I19" t="n">
         <v>0</v>
@@ -23935,25 +23937,25 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>114.1584408891656</v>
+        <v>0</v>
       </c>
       <c r="V19" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W19" t="n">
         <v>0</v>
       </c>
       <c r="X19" t="n">
-        <v>0</v>
+        <v>186.533067758168</v>
       </c>
       <c r="Y19" t="n">
         <v>0</v>
@@ -24130,22 +24132,22 @@
         <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>138.4949402405072</v>
       </c>
       <c r="H22" t="n">
-        <v>32.89260457059909</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24172,13 +24174,13 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U22" t="n">
         <v>0</v>
@@ -24379,7 +24381,7 @@
         <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
         <v>0</v>
@@ -24409,25 +24411,25 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>75.03697526434104</v>
       </c>
       <c r="T25" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U25" t="n">
         <v>0</v>
       </c>
       <c r="V25" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W25" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X25" t="n">
-        <v>120.1578210480469</v>
+        <v>0</v>
       </c>
       <c r="Y25" t="n">
         <v>0</v>
@@ -24607,7 +24609,7 @@
         <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
         <v>145.4210480229312</v>
@@ -24616,10 +24618,10 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I28" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24655,7 +24657,7 @@
         <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>40.32043864788582</v>
+        <v>127.7255247667999</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -24740,7 +24742,7 @@
         <v>0</v>
       </c>
       <c r="W29" t="n">
-        <v>0</v>
+        <v>1.193711796076968e-12</v>
       </c>
       <c r="X29" t="n">
         <v>0</v>
@@ -24835,10 +24837,10 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C31" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
         <v>0</v>
@@ -24847,10 +24849,10 @@
         <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>86.46557462472414</v>
       </c>
       <c r="H31" t="n">
         <v>0</v>
@@ -24886,13 +24888,13 @@
         <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>75.37549921168767</v>
+        <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U31" t="n">
-        <v>286.1844743892441</v>
+        <v>0</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -24929,7 +24931,7 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>0</v>
+        <v>1.4210854715202e-12</v>
       </c>
       <c r="H32" t="n">
         <v>0</v>
@@ -25078,10 +25080,10 @@
         <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>40.3204386478848</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
         <v>145.4210480229312</v>
@@ -25090,7 +25092,7 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I34" t="n">
         <v>81.26583631856553</v>
@@ -25120,7 +25122,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>0</v>
+        <v>46.45968844823016</v>
       </c>
       <c r="S34" t="n">
         <v>0</v>
@@ -25318,19 +25320,19 @@
         <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>40.32043864788572</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25357,16 +25359,16 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U37" t="n">
-        <v>114.1584408891656</v>
+        <v>0</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -25561,13 +25563,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
-        <v>65.54986409393069</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25594,13 +25596,13 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S40" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T40" t="n">
-        <v>0</v>
+        <v>39.70888054695368</v>
       </c>
       <c r="U40" t="n">
         <v>0</v>
@@ -25783,7 +25785,7 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>176.3785887617852</v>
+        <v>0</v>
       </c>
       <c r="C43" t="n">
         <v>0</v>
@@ -25801,10 +25803,10 @@
         <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25831,16 +25833,16 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S43" t="n">
-        <v>181.0262860016446</v>
+        <v>9.000252501565598</v>
       </c>
       <c r="T43" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U43" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -26026,22 +26028,22 @@
         <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
-        <v>67.54000767002827</v>
+        <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>140.2947128462239</v>
+        <v>57.22910392194221</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26086,7 +26088,7 @@
         <v>0</v>
       </c>
       <c r="X46" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y46" t="n">
         <v>0</v>
@@ -26155,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>917799.0280914542</v>
+        <v>917799.0280914543</v>
       </c>
     </row>
     <row r="7">
@@ -26163,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>917799.0280914543</v>
+        <v>917799.0280914542</v>
       </c>
     </row>
     <row r="8">
@@ -26171,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>917799.0280914543</v>
+        <v>917799.0280914542</v>
       </c>
     </row>
     <row r="9">
@@ -26179,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>917799.0280914542</v>
+        <v>917799.0280914543</v>
       </c>
     </row>
     <row r="10">
@@ -26187,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>917799.0280914541</v>
+        <v>917799.0280914539</v>
       </c>
     </row>
     <row r="11">
@@ -26195,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>917799.0280914543</v>
+        <v>917799.0280914542</v>
       </c>
     </row>
     <row r="12">
@@ -26203,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>917799.0280914542</v>
+        <v>917799.0280914541</v>
       </c>
     </row>
     <row r="13">
@@ -26211,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>917799.0280914543</v>
+        <v>917799.0280914541</v>
       </c>
     </row>
     <row r="14">
@@ -26219,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>917799.0280914541</v>
+        <v>917799.0280914543</v>
       </c>
     </row>
     <row r="15">
@@ -26227,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>917799.0280914542</v>
+        <v>917799.0280914543</v>
       </c>
     </row>
     <row r="16">
@@ -26314,16 +26316,16 @@
         <v>513151.106165177</v>
       </c>
       <c r="C2" t="n">
-        <v>513151.1061651771</v>
+        <v>513151.106165177</v>
       </c>
       <c r="D2" t="n">
         <v>513151.106165177</v>
       </c>
       <c r="E2" t="n">
-        <v>504466.6248062536</v>
+        <v>504466.6248062539</v>
       </c>
       <c r="F2" t="n">
-        <v>504466.6248062536</v>
+        <v>504466.6248062538</v>
       </c>
       <c r="G2" t="n">
         <v>504466.6248062538</v>
@@ -26332,28 +26334,28 @@
         <v>504466.6248062536</v>
       </c>
       <c r="I2" t="n">
+        <v>504466.6248062538</v>
+      </c>
+      <c r="J2" t="n">
+        <v>504466.6248062538</v>
+      </c>
+      <c r="K2" t="n">
         <v>504466.6248062536</v>
-      </c>
-      <c r="J2" t="n">
-        <v>504466.6248062537</v>
-      </c>
-      <c r="K2" t="n">
-        <v>504466.6248062538</v>
       </c>
       <c r="L2" t="n">
         <v>504466.6248062536</v>
       </c>
       <c r="M2" t="n">
+        <v>504466.6248062537</v>
+      </c>
+      <c r="N2" t="n">
+        <v>504466.624806254</v>
+      </c>
+      <c r="O2" t="n">
         <v>504466.6248062538</v>
       </c>
-      <c r="N2" t="n">
-        <v>504466.6248062536</v>
-      </c>
-      <c r="O2" t="n">
-        <v>504466.6248062536</v>
-      </c>
       <c r="P2" t="n">
-        <v>504466.6248062538</v>
+        <v>504466.6248062537</v>
       </c>
     </row>
     <row r="3">
@@ -26369,10 +26371,10 @@
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>1.947259988810401e-10</v>
       </c>
       <c r="E3" t="n">
-        <v>325412.4618073551</v>
+        <v>325412.4618073557</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26396,7 +26398,7 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>85055.02793551175</v>
+        <v>85055.02793551196</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26415,13 +26417,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>89744.12305813251</v>
+        <v>89744.12305813248</v>
       </c>
       <c r="C4" t="n">
         <v>89744.12305813251</v>
       </c>
       <c r="D4" t="n">
-        <v>89744.12305813248</v>
+        <v>89744.12305813246</v>
       </c>
       <c r="E4" t="n">
         <v>10557.08828678121</v>
@@ -26448,7 +26450,7 @@
         <v>10557.08828678121</v>
       </c>
       <c r="M4" t="n">
-        <v>10557.08828678121</v>
+        <v>10557.08828678125</v>
       </c>
       <c r="N4" t="n">
         <v>10557.08828678121</v>
@@ -26476,7 +26478,7 @@
         <v>107933.9405613933</v>
       </c>
       <c r="E5" t="n">
-        <v>101122.5298239071</v>
+        <v>101122.5298239072</v>
       </c>
       <c r="F5" t="n">
         <v>101122.5298239071</v>
@@ -26522,46 +26524,46 @@
         <v>-1013271.703181941</v>
       </c>
       <c r="C6" t="n">
-        <v>315473.0425456513</v>
+        <v>315473.0425456514</v>
       </c>
       <c r="D6" t="n">
-        <v>315473.0425456512</v>
+        <v>315473.0425456511</v>
       </c>
       <c r="E6" t="n">
-        <v>67374.54488821031</v>
+        <v>67374.54488820987</v>
       </c>
       <c r="F6" t="n">
+        <v>392787.0066955658</v>
+      </c>
+      <c r="G6" t="n">
         <v>392787.0066955654</v>
       </c>
-      <c r="G6" t="n">
-        <v>392787.0066955655</v>
-      </c>
       <c r="H6" t="n">
-        <v>392787.0066955654</v>
+        <v>392787.0066955652</v>
       </c>
       <c r="I6" t="n">
-        <v>392787.0066955653</v>
+        <v>392787.0066955657</v>
       </c>
       <c r="J6" t="n">
         <v>175255.804298288</v>
       </c>
       <c r="K6" t="n">
-        <v>392787.0066955654</v>
+        <v>392787.0066955653</v>
       </c>
       <c r="L6" t="n">
         <v>392787.0066955653</v>
       </c>
       <c r="M6" t="n">
-        <v>307731.9787600538</v>
+        <v>307731.9787600534</v>
       </c>
       <c r="N6" t="n">
-        <v>392787.0066955653</v>
+        <v>392787.0066955657</v>
       </c>
       <c r="O6" t="n">
-        <v>392787.0066955653</v>
+        <v>392787.0066955654</v>
       </c>
       <c r="P6" t="n">
-        <v>392787.0066955655</v>
+        <v>392787.0066955654</v>
       </c>
     </row>
   </sheetData>
@@ -26787,22 +26789,22 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>831.4014554022926</v>
+        <v>831.4014554022929</v>
       </c>
       <c r="C4" t="n">
         <v>831.4014554022926</v>
       </c>
       <c r="D4" t="n">
-        <v>831.4014554022928</v>
+        <v>831.4014554022929</v>
       </c>
       <c r="E4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="F4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="G4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="H4" t="n">
         <v>1172.708288099648</v>
@@ -26823,7 +26825,7 @@
         <v>1172.708288099648</v>
       </c>
       <c r="N4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="O4" t="n">
         <v>1172.708288099648</v>
@@ -26963,10 +26965,10 @@
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>2.273736754432321e-13</v>
       </c>
       <c r="E3" t="n">
-        <v>278.1987997483754</v>
+        <v>278.1987997483759</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -27009,7 +27011,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>831.4014554022926</v>
+        <v>831.4014554022929</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -27018,7 +27020,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>341.3068326973554</v>
+        <v>341.3068326973562</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27042,7 +27044,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>341.3068326973554</v>
+        <v>341.3068326973562</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27255,7 +27257,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>831.4014554022926</v>
+        <v>831.4014554022929</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27264,7 +27266,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>341.3068326973554</v>
+        <v>341.3068326973562</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27379,7 +27381,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
-        <v>328.9458121543112</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
         <v>0</v>
@@ -27394,7 +27396,7 @@
         <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -27433,7 +27435,7 @@
         <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>38.79625667445163</v>
       </c>
       <c r="V2" t="n">
         <v>327.7522584701349</v>
@@ -27442,7 +27444,7 @@
         <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
         <v>0</v>
@@ -27534,13 +27536,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>168.8691863077384</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
         <v>0</v>
@@ -27582,28 +27584,28 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
         <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>206.9390670288726</v>
       </c>
       <c r="V4" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -27613,7 +27615,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
         <v>0</v>
@@ -27622,7 +27624,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
         <v>0</v>
@@ -27631,7 +27633,7 @@
         <v>0</v>
       </c>
       <c r="H5" t="n">
-        <v>229.8357285687218</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
@@ -27667,10 +27669,10 @@
         <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>203.9179701396201</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
@@ -27679,7 +27681,7 @@
         <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>369.731100678469</v>
+        <v>289.8157596099705</v>
       </c>
       <c r="Y5" t="n">
         <v>0</v>
@@ -27771,13 +27773,13 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
         <v>0</v>
@@ -27789,10 +27791,10 @@
         <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>50.02457027798302</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -27825,10 +27827,10 @@
         <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U7" t="n">
-        <v>146.3832640848987</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V7" t="n">
         <v>252.137643323828</v>
@@ -27837,7 +27839,7 @@
         <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y7" t="n">
         <v>0</v>
@@ -27850,10 +27852,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
-        <v>132.3887378304979</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
         <v>0</v>
@@ -27862,7 +27864,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>0</v>
+        <v>22.13877837319717</v>
       </c>
       <c r="G8" t="n">
         <v>0</v>
@@ -27907,13 +27909,13 @@
         <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
         <v>0</v>
@@ -28008,25 +28010,25 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
         <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I10" t="n">
         <v>0</v>
@@ -28065,19 +28067,19 @@
         <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>207.2502271598507</v>
+        <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>0</v>
+        <v>187.6205372139425</v>
       </c>
     </row>
     <row r="11">
@@ -29335,7 +29337,7 @@
         <v>0</v>
       </c>
       <c r="W26" t="n">
-        <v>0</v>
+        <v>1.193711796076968e-12</v>
       </c>
       <c r="X26" t="n">
         <v>0</v>
@@ -29460,7 +29462,7 @@
         <v>0</v>
       </c>
       <c r="L28" t="n">
-        <v>0</v>
+        <v>-3.959144123655279e-12</v>
       </c>
       <c r="M28" t="n">
         <v>0</v>
@@ -30034,7 +30036,7 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>0</v>
+        <v>9.094947017729282e-13</v>
       </c>
       <c r="T35" t="n">
         <v>0</v>
@@ -31276,43 +31278,43 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>4.381011861681598</v>
+        <v>4.381011861681597</v>
       </c>
       <c r="H5" t="n">
-        <v>44.86703772844668</v>
+        <v>44.86703772844667</v>
       </c>
       <c r="I5" t="n">
-        <v>168.89895979748</v>
+        <v>168.8989597974799</v>
       </c>
       <c r="J5" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K5" t="n">
-        <v>557.281137600381</v>
+        <v>557.2811376003809</v>
       </c>
       <c r="L5" t="n">
-        <v>691.3565293623194</v>
+        <v>691.3565293623192</v>
       </c>
       <c r="M5" t="n">
-        <v>769.2673490574995</v>
+        <v>769.2673490574992</v>
       </c>
       <c r="N5" t="n">
-        <v>781.7148990095023</v>
+        <v>781.7148990095022</v>
       </c>
       <c r="O5" t="n">
-        <v>738.1512123099059</v>
+        <v>738.1512123099058</v>
       </c>
       <c r="P5" t="n">
-        <v>629.9949819746414</v>
+        <v>629.9949819746412</v>
       </c>
       <c r="Q5" t="n">
-        <v>473.099994678169</v>
+        <v>473.0999946781689</v>
       </c>
       <c r="R5" t="n">
-        <v>275.1987363563569</v>
+        <v>275.1987363563568</v>
       </c>
       <c r="S5" t="n">
-        <v>99.83230779806951</v>
+        <v>99.83230779806949</v>
       </c>
       <c r="T5" t="n">
         <v>19.1778794245112</v>
@@ -31361,40 +31363,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I6" t="n">
-        <v>80.70516131752258</v>
+        <v>80.70516131752255</v>
       </c>
       <c r="J6" t="n">
-        <v>221.4611312026438</v>
+        <v>221.4611312026437</v>
       </c>
       <c r="K6" t="n">
         <v>378.5123470353157</v>
       </c>
       <c r="L6" t="n">
-        <v>508.9565619138796</v>
+        <v>508.9565619138795</v>
       </c>
       <c r="M6" t="n">
-        <v>593.9283018233475</v>
+        <v>593.9283018233474</v>
       </c>
       <c r="N6" t="n">
-        <v>609.6478166837925</v>
+        <v>609.6478166837924</v>
       </c>
       <c r="O6" t="n">
-        <v>557.708647897025</v>
+        <v>557.7086478970249</v>
       </c>
       <c r="P6" t="n">
-        <v>447.6103584002927</v>
+        <v>447.6103584002926</v>
       </c>
       <c r="Q6" t="n">
-        <v>299.2156706987487</v>
+        <v>299.2156706987486</v>
       </c>
       <c r="R6" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S6" t="n">
-        <v>43.53966346238316</v>
+        <v>43.53966346238315</v>
       </c>
       <c r="T6" t="n">
-        <v>9.448158375898497</v>
+        <v>9.448158375898496</v>
       </c>
       <c r="U6" t="n">
         <v>0.1542136840462215</v>
@@ -31434,13 +31436,13 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>1.965171099430538</v>
+        <v>1.965171099430537</v>
       </c>
       <c r="H7" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I7" t="n">
-        <v>59.09805451742019</v>
+        <v>59.09805451742017</v>
       </c>
       <c r="J7" t="n">
         <v>138.937596729739</v>
@@ -31449,16 +31451,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L7" t="n">
-        <v>292.167346909882</v>
+        <v>292.1673469098819</v>
       </c>
       <c r="M7" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N7" t="n">
-        <v>300.7247737883115</v>
+        <v>300.7247737883114</v>
       </c>
       <c r="O7" t="n">
-        <v>277.7680023086001</v>
+        <v>277.7680023086</v>
       </c>
       <c r="P7" t="n">
         <v>237.6785118802169</v>
@@ -31467,16 +31469,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R7" t="n">
-        <v>88.36123870712215</v>
+        <v>88.36123870712214</v>
       </c>
       <c r="S7" t="n">
-        <v>34.24757270553036</v>
+        <v>34.24757270553035</v>
       </c>
       <c r="T7" t="n">
-        <v>8.396640152112296</v>
+        <v>8.396640152112294</v>
       </c>
       <c r="U7" t="n">
-        <v>0.1071911508780295</v>
+        <v>0.1071911508780294</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -31750,49 +31752,49 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348435</v>
       </c>
       <c r="H11" t="n">
-        <v>56.32071997135341</v>
+        <v>56.32071997135342</v>
       </c>
       <c r="I11" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067233</v>
       </c>
       <c r="J11" t="n">
-        <v>466.7546155663283</v>
+        <v>466.7546155663284</v>
       </c>
       <c r="K11" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817578</v>
       </c>
       <c r="L11" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162564</v>
       </c>
       <c r="M11" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175678</v>
       </c>
       <c r="N11" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159429</v>
       </c>
       <c r="O11" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460031</v>
       </c>
       <c r="P11" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236509</v>
       </c>
       <c r="Q11" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669225</v>
       </c>
       <c r="R11" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043727</v>
       </c>
       <c r="S11" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T11" t="n">
         <v>24.07361910651528</v>
       </c>
       <c r="U11" t="n">
-        <v>0.4399519197078746</v>
+        <v>0.4399519197078747</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31829,10 +31831,10 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H12" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I12" t="n">
         <v>99.52238</v>
@@ -31841,22 +31843,22 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K12" t="n">
-        <v>175.6052721551106</v>
+        <v>475.1391886422587</v>
       </c>
       <c r="L12" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473074</v>
       </c>
       <c r="M12" t="n">
-        <v>745.5466476862121</v>
+        <v>652.047896915769</v>
       </c>
       <c r="N12" t="n">
-        <v>765.2790490071785</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O12" t="n">
-        <v>700.0808204437243</v>
+        <v>700.0808204437245</v>
       </c>
       <c r="P12" t="n">
-        <v>133.9744074143302</v>
+        <v>561.87657862147</v>
       </c>
       <c r="Q12" t="n">
         <v>139.9817740860215</v>
@@ -31865,13 +31867,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S12" t="n">
-        <v>54.65449286742438</v>
+        <v>54.6544928674244</v>
       </c>
       <c r="T12" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U12" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31908,49 +31910,49 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>2.466841066189903</v>
+        <v>2.466841066189904</v>
       </c>
       <c r="H13" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I13" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869278</v>
       </c>
       <c r="J13" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K13" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L13" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M13" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N13" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O13" t="n">
-        <v>348.6767717920058</v>
+        <v>348.6767717920059</v>
       </c>
       <c r="P13" t="n">
         <v>298.3532140417315</v>
       </c>
       <c r="Q13" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R13" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S13" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532768</v>
       </c>
       <c r="T13" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U13" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31987,7 +31989,7 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H14" t="n">
         <v>56.32071997135341</v>
@@ -31999,31 +32001,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K14" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L14" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M14" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N14" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O14" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P14" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q14" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R14" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S14" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T14" t="n">
         <v>24.07361910651528</v>
@@ -32066,10 +32068,10 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H15" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I15" t="n">
         <v>99.52238</v>
@@ -32081,34 +32083,34 @@
         <v>137.841438974359</v>
       </c>
       <c r="L15" t="n">
-        <v>638.8832749473072</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M15" t="n">
-        <v>745.5466476862121</v>
+        <v>583.1096135868572</v>
       </c>
       <c r="N15" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O15" t="n">
-        <v>700.0808204437243</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P15" t="n">
-        <v>171.7382405950817</v>
+        <v>561.8765786214699</v>
       </c>
       <c r="Q15" t="n">
-        <v>139.9817740860215</v>
+        <v>375.5996128485291</v>
       </c>
       <c r="R15" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S15" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T15" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U15" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -32148,25 +32150,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H16" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I16" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J16" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K16" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L16" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M16" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N16" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O16" t="n">
         <v>348.6767717920058</v>
@@ -32175,19 +32177,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q16" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R16" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S16" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T16" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U16" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32224,7 +32226,7 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H17" t="n">
         <v>56.32071997135341</v>
@@ -32236,31 +32238,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K17" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L17" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M17" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N17" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O17" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P17" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q17" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R17" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S17" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T17" t="n">
         <v>24.07361910651528</v>
@@ -32303,49 +32305,49 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H18" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I18" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J18" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K18" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L18" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M18" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N18" t="n">
-        <v>131.3417120833333</v>
+        <v>465.7451325200306</v>
       </c>
       <c r="O18" t="n">
-        <v>669.466988500007</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P18" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q18" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R18" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S18" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T18" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U18" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -32385,25 +32387,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H19" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I19" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J19" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K19" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L19" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M19" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N19" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O19" t="n">
         <v>348.6767717920058</v>
@@ -32412,19 +32414,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q19" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R19" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S19" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T19" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U19" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32461,7 +32463,7 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H20" t="n">
         <v>56.32071997135341</v>
@@ -32473,31 +32475,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K20" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L20" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M20" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N20" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O20" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P20" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q20" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R20" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S20" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T20" t="n">
         <v>24.07361910651528</v>
@@ -32540,10 +32542,10 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H21" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I21" t="n">
         <v>99.52238</v>
@@ -32552,37 +32554,37 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K21" t="n">
-        <v>475.1391886422585</v>
+        <v>175.6052721551105</v>
       </c>
       <c r="L21" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M21" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N21" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O21" t="n">
-        <v>700.0808204437243</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P21" t="n">
-        <v>297.7596336167232</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q21" t="n">
         <v>139.9817740860215</v>
       </c>
       <c r="R21" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S21" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T21" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U21" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
@@ -32622,25 +32624,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H22" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I22" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J22" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K22" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L22" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M22" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N22" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O22" t="n">
         <v>348.6767717920058</v>
@@ -32649,19 +32651,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q22" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R22" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S22" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T22" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U22" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32789,28 +32791,28 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K24" t="n">
-        <v>475.1391886422585</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L24" t="n">
-        <v>638.8832749473072</v>
+        <v>570.6116741576911</v>
       </c>
       <c r="M24" t="n">
-        <v>409.0029787211721</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N24" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O24" t="n">
-        <v>700.0808204437243</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P24" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q24" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R24" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S24" t="n">
         <v>54.65449286742438</v>
@@ -33023,16 +33025,16 @@
         <v>99.52238</v>
       </c>
       <c r="J27" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K27" t="n">
-        <v>475.1391886422585</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L27" t="n">
         <v>138.5543797798742</v>
       </c>
       <c r="M27" t="n">
-        <v>745.5466476862121</v>
+        <v>734.2678383622665</v>
       </c>
       <c r="N27" t="n">
         <v>765.2790490071785</v>
@@ -33041,10 +33043,10 @@
         <v>700.0808204437243</v>
       </c>
       <c r="P27" t="n">
-        <v>297.7596336167232</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q27" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R27" t="n">
         <v>182.6892564418561</v>
@@ -33257,31 +33259,31 @@
         <v>28.417755205211</v>
       </c>
       <c r="I30" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J30" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K30" t="n">
-        <v>475.1391886422585</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L30" t="n">
-        <v>638.8832749473072</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M30" t="n">
-        <v>745.5466476862121</v>
+        <v>581.3243739860829</v>
       </c>
       <c r="N30" t="n">
-        <v>131.3417120833333</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O30" t="n">
         <v>700.0808204437243</v>
       </c>
       <c r="P30" t="n">
-        <v>431.3680753731354</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q30" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R30" t="n">
         <v>182.6892564418561</v>
@@ -33494,7 +33496,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I33" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J33" t="n">
         <v>277.9958514420755</v>
@@ -33509,16 +33511,16 @@
         <v>745.5466476862121</v>
       </c>
       <c r="N33" t="n">
-        <v>765.2790490071785</v>
+        <v>320.9147064709964</v>
       </c>
       <c r="O33" t="n">
-        <v>363.5371514786841</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P33" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q33" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R33" t="n">
         <v>182.6892564418561</v>
@@ -33734,13 +33736,13 @@
         <v>99.52238</v>
       </c>
       <c r="J36" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K36" t="n">
         <v>137.841438974359</v>
       </c>
       <c r="L36" t="n">
-        <v>555.1777416630679</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M36" t="n">
         <v>745.5466476862121</v>
@@ -33752,10 +33754,10 @@
         <v>700.0808204437243</v>
       </c>
       <c r="P36" t="n">
-        <v>133.9744074143302</v>
+        <v>134.7284881171895</v>
       </c>
       <c r="Q36" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R36" t="n">
         <v>182.6892564418561</v>
@@ -33968,19 +33970,19 @@
         <v>28.417755205211</v>
       </c>
       <c r="I39" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J39" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K39" t="n">
-        <v>475.1391886422585</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L39" t="n">
-        <v>638.8832749473072</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M39" t="n">
-        <v>446.0127311990643</v>
+        <v>581.3243739860829</v>
       </c>
       <c r="N39" t="n">
         <v>765.2790490071785</v>
@@ -33989,13 +33991,13 @@
         <v>700.0808204437243</v>
       </c>
       <c r="P39" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q39" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R39" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S39" t="n">
         <v>54.65449286742438</v>
@@ -34153,7 +34155,7 @@
         <v>593.8732233669223</v>
       </c>
       <c r="R41" t="n">
-        <v>345.4516222043729</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S41" t="n">
         <v>125.31755462929</v>
@@ -34205,19 +34207,19 @@
         <v>28.417755205211</v>
       </c>
       <c r="I42" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J42" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K42" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L42" t="n">
         <v>638.8832749473072</v>
       </c>
       <c r="M42" t="n">
-        <v>745.5466476862121</v>
+        <v>446.0127311990643</v>
       </c>
       <c r="N42" t="n">
         <v>765.2790490071785</v>
@@ -34229,7 +34231,7 @@
         <v>133.9744074143302</v>
       </c>
       <c r="Q42" t="n">
-        <v>175.960367665998</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R42" t="n">
         <v>145.679503963964</v>
@@ -34363,7 +34365,7 @@
         <v>56.32071997135341</v>
       </c>
       <c r="I44" t="n">
-        <v>212.0155798067237</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J44" t="n">
         <v>466.7546155663283</v>
@@ -34387,7 +34389,7 @@
         <v>790.8204499236507</v>
       </c>
       <c r="Q44" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R44" t="n">
         <v>345.4516222043725</v>
@@ -34451,25 +34453,25 @@
         <v>475.1391886422585</v>
       </c>
       <c r="L45" t="n">
-        <v>638.8832749473072</v>
+        <v>300.5543663814922</v>
       </c>
       <c r="M45" t="n">
         <v>745.5466476862121</v>
       </c>
       <c r="N45" t="n">
-        <v>357.9244589488886</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O45" t="n">
-        <v>142.5962444444444</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P45" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q45" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R45" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S45" t="n">
         <v>54.65449286742438</v>
@@ -34933,31 +34935,31 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>190.7870009687126</v>
+        <v>190.7870009687125</v>
       </c>
       <c r="K5" t="n">
-        <v>337.1912865554005</v>
+        <v>337.1912865554004</v>
       </c>
       <c r="L5" t="n">
-        <v>455.5901143923322</v>
+        <v>455.5901143923319</v>
       </c>
       <c r="M5" t="n">
-        <v>538.9211158302268</v>
+        <v>538.9211158302265</v>
       </c>
       <c r="N5" t="n">
-        <v>552.3018354129115</v>
+        <v>552.3018354129113</v>
       </c>
       <c r="O5" t="n">
-        <v>508.0530008882191</v>
+        <v>508.053000888219</v>
       </c>
       <c r="P5" t="n">
-        <v>398.7619862193719</v>
+        <v>398.7619862193716</v>
       </c>
       <c r="Q5" t="n">
-        <v>250.7943048037195</v>
+        <v>250.7943048037194</v>
       </c>
       <c r="R5" t="n">
-        <v>59.61319854222478</v>
+        <v>59.61319854222472</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -35012,28 +35014,28 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>94.6235045359771</v>
+        <v>94.62350453597705</v>
       </c>
       <c r="K6" t="n">
         <v>240.6709080609567</v>
       </c>
       <c r="L6" t="n">
-        <v>370.4021821340054</v>
+        <v>370.4021821340053</v>
       </c>
       <c r="M6" t="n">
-        <v>451.7942679013292</v>
+        <v>451.7942679013291</v>
       </c>
       <c r="N6" t="n">
-        <v>478.3061046004592</v>
+        <v>478.3061046004591</v>
       </c>
       <c r="O6" t="n">
-        <v>415.1124034525806</v>
+        <v>415.1124034525805</v>
       </c>
       <c r="P6" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q6" t="n">
-        <v>159.2338966127272</v>
+        <v>159.2338966127271</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35091,10 +35093,10 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>45.57841661306622</v>
+        <v>45.5784166130662</v>
       </c>
       <c r="K7" t="n">
-        <v>206.0476595443196</v>
+        <v>206.0476595443195</v>
       </c>
       <c r="L7" t="n">
         <v>319.7573721701981</v>
@@ -35106,13 +35108,13 @@
         <v>344.8569461675401</v>
       </c>
       <c r="O7" t="n">
-        <v>302.3531302226398</v>
+        <v>302.3531302226397</v>
       </c>
       <c r="P7" t="n">
         <v>234.9570711451104</v>
       </c>
       <c r="Q7" t="n">
-        <v>78.39423853789366</v>
+        <v>78.39423853789363</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -35404,34 +35406,34 @@
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317341</v>
       </c>
       <c r="J11" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396421</v>
       </c>
       <c r="K11" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367772</v>
       </c>
       <c r="L11" t="n">
-        <v>632.0799921462688</v>
+        <v>632.0799921462692</v>
       </c>
       <c r="M11" t="n">
-        <v>735.3001107902948</v>
+        <v>735.3001107902951</v>
       </c>
       <c r="N11" t="n">
-        <v>751.8584478193516</v>
+        <v>751.858447819352</v>
       </c>
       <c r="O11" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243163</v>
       </c>
       <c r="P11" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q11" t="n">
-        <v>371.5675334924728</v>
+        <v>371.567533492473</v>
       </c>
       <c r="R11" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35486,25 +35488,25 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>151.1582247754088</v>
+        <v>151.1582247754089</v>
       </c>
       <c r="K12" t="n">
-        <v>37.76383318075158</v>
+        <v>337.2977496678997</v>
       </c>
       <c r="L12" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674332</v>
       </c>
       <c r="M12" t="n">
-        <v>603.4126137641938</v>
+        <v>509.9138629937507</v>
       </c>
       <c r="N12" t="n">
-        <v>633.9373369238452</v>
+        <v>0</v>
       </c>
       <c r="O12" t="n">
-        <v>557.4845759992799</v>
+        <v>557.4845759992801</v>
       </c>
       <c r="P12" t="n">
-        <v>0</v>
+        <v>427.9021712071398</v>
       </c>
       <c r="Q12" t="n">
         <v>0</v>
@@ -35565,22 +35567,22 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295344</v>
       </c>
       <c r="K13" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L13" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M13" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N13" t="n">
-        <v>421.6261329899074</v>
+        <v>421.6261329899075</v>
       </c>
       <c r="O13" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P13" t="n">
         <v>295.631773306625</v>
@@ -35641,34 +35643,34 @@
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J14" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K14" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L14" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M14" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N14" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O14" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P14" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q14" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R14" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35729,25 +35731,25 @@
         <v>0</v>
       </c>
       <c r="L15" t="n">
-        <v>500.328895167433</v>
+        <v>0</v>
       </c>
       <c r="M15" t="n">
-        <v>603.4126137641938</v>
+        <v>440.9755796648388</v>
       </c>
       <c r="N15" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O15" t="n">
-        <v>557.4845759992799</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P15" t="n">
-        <v>37.7638331807514</v>
+        <v>427.9021712071396</v>
       </c>
       <c r="Q15" t="n">
-        <v>0</v>
+        <v>235.6178387625076</v>
       </c>
       <c r="R15" t="n">
-        <v>0</v>
+        <v>37.00975247789214</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -35802,22 +35804,22 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K16" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L16" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M16" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N16" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O16" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P16" t="n">
         <v>295.631773306625</v>
@@ -35878,34 +35880,34 @@
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J17" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K17" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L17" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M17" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N17" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O17" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P17" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q17" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R17" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35957,34 +35959,34 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J18" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K18" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L18" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M18" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N18" t="n">
-        <v>0</v>
+        <v>334.4034204366973</v>
       </c>
       <c r="O18" t="n">
-        <v>526.8707440555626</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P18" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q18" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -36039,22 +36041,22 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K19" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L19" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M19" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N19" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O19" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P19" t="n">
         <v>295.631773306625</v>
@@ -36115,34 +36117,34 @@
         <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J20" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K20" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L20" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M20" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N20" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O20" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P20" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q20" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R20" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36200,28 +36202,28 @@
         <v>151.1582247754088</v>
       </c>
       <c r="K21" t="n">
-        <v>337.2977496678996</v>
+        <v>37.76383318075146</v>
       </c>
       <c r="L21" t="n">
-        <v>0</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M21" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N21" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O21" t="n">
-        <v>557.4845759992799</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P21" t="n">
-        <v>163.785226202393</v>
+        <v>0</v>
       </c>
       <c r="Q21" t="n">
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -36276,22 +36278,22 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K22" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L22" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M22" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N22" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O22" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P22" t="n">
         <v>295.631773306625</v>
@@ -36437,28 +36439,28 @@
         <v>151.1582247754088</v>
       </c>
       <c r="K24" t="n">
-        <v>337.2977496678996</v>
+        <v>0</v>
       </c>
       <c r="L24" t="n">
-        <v>500.328895167433</v>
+        <v>432.057294377817</v>
       </c>
       <c r="M24" t="n">
-        <v>266.8689447991538</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N24" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O24" t="n">
-        <v>557.4845759992799</v>
+        <v>0</v>
       </c>
       <c r="P24" t="n">
-        <v>0</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q24" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R24" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -36671,16 +36673,16 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K27" t="n">
-        <v>337.2977496678996</v>
+        <v>0</v>
       </c>
       <c r="L27" t="n">
         <v>0</v>
       </c>
       <c r="M27" t="n">
-        <v>603.4126137641938</v>
+        <v>592.1338044402482</v>
       </c>
       <c r="N27" t="n">
         <v>633.9373369238452</v>
@@ -36689,10 +36691,10 @@
         <v>557.4845759992799</v>
       </c>
       <c r="P27" t="n">
-        <v>163.785226202393</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q27" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R27" t="n">
         <v>37.00975247789211</v>
@@ -36756,7 +36758,7 @@
         <v>264.3325884096349</v>
       </c>
       <c r="L28" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191275</v>
       </c>
       <c r="M28" t="n">
         <v>426.2724270010451</v>
@@ -36905,31 +36907,31 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J30" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K30" t="n">
-        <v>337.2977496678996</v>
+        <v>0</v>
       </c>
       <c r="L30" t="n">
-        <v>500.328895167433</v>
+        <v>0</v>
       </c>
       <c r="M30" t="n">
-        <v>603.4126137641938</v>
+        <v>439.1903400640646</v>
       </c>
       <c r="N30" t="n">
-        <v>0</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O30" t="n">
         <v>557.4845759992799</v>
       </c>
       <c r="P30" t="n">
-        <v>297.3936679588052</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q30" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R30" t="n">
         <v>37.00975247789211</v>
@@ -37142,7 +37144,7 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J33" t="n">
         <v>151.1582247754088</v>
@@ -37157,16 +37159,16 @@
         <v>603.4126137641938</v>
       </c>
       <c r="N33" t="n">
-        <v>633.9373369238452</v>
+        <v>189.5729943876631</v>
       </c>
       <c r="O33" t="n">
-        <v>220.9409070342396</v>
+        <v>0</v>
       </c>
       <c r="P33" t="n">
-        <v>0</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q33" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R33" t="n">
         <v>37.00975247789211</v>
@@ -37382,13 +37384,13 @@
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K36" t="n">
         <v>0</v>
       </c>
       <c r="L36" t="n">
-        <v>416.6233618831937</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M36" t="n">
         <v>603.4126137641938</v>
@@ -37400,10 +37402,10 @@
         <v>557.4845759992799</v>
       </c>
       <c r="P36" t="n">
-        <v>0</v>
+        <v>0.7540807028592577</v>
       </c>
       <c r="Q36" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R36" t="n">
         <v>37.00975247789211</v>
@@ -37616,19 +37618,19 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J39" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K39" t="n">
-        <v>337.2977496678996</v>
+        <v>0</v>
       </c>
       <c r="L39" t="n">
-        <v>500.328895167433</v>
+        <v>0</v>
       </c>
       <c r="M39" t="n">
-        <v>303.8786972770459</v>
+        <v>439.1903400640646</v>
       </c>
       <c r="N39" t="n">
         <v>633.9373369238452</v>
@@ -37637,13 +37639,13 @@
         <v>557.4845759992799</v>
       </c>
       <c r="P39" t="n">
-        <v>0</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q39" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R39" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -37801,7 +37803,7 @@
         <v>371.5675334924728</v>
       </c>
       <c r="R41" t="n">
-        <v>129.8660843902408</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37853,19 +37855,19 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J42" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K42" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L42" t="n">
         <v>500.328895167433</v>
       </c>
       <c r="M42" t="n">
-        <v>603.4126137641938</v>
+        <v>303.8786972770459</v>
       </c>
       <c r="N42" t="n">
         <v>633.9373369238452</v>
@@ -37877,7 +37879,7 @@
         <v>0</v>
       </c>
       <c r="Q42" t="n">
-        <v>35.9785935799765</v>
+        <v>0</v>
       </c>
       <c r="R42" t="n">
         <v>0</v>
@@ -38011,7 +38013,7 @@
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>1.539690236317809</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J44" t="n">
         <v>285.708711039642</v>
@@ -38035,7 +38037,7 @@
         <v>559.5874541683811</v>
       </c>
       <c r="Q44" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R44" t="n">
         <v>129.8660843902404</v>
@@ -38099,25 +38101,25 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L45" t="n">
-        <v>500.328895167433</v>
+        <v>161.999986601618</v>
       </c>
       <c r="M45" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N45" t="n">
-        <v>226.5827468655553</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O45" t="n">
-        <v>0</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P45" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q45" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>

--- a/Outputs/1. Budget/Grid Search/Output Files/2000000/Output_16_25.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/2000000/Output_16_25.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1478350.049466211</v>
+        <v>1474337.439452218</v>
       </c>
     </row>
     <row r="7">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>416855.1052283191</v>
+        <v>416855.1052283183</v>
       </c>
     </row>
     <row r="9">
@@ -658,13 +658,13 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>354.683041620683</v>
+        <v>66.76195975981638</v>
       </c>
       <c r="E2" t="n">
         <v>381.9303700722618</v>
@@ -676,10 +676,10 @@
         <v>410.9217256534534</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I2" t="n">
-        <v>41.57692977292595</v>
+        <v>41.57692977292598</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -712,22 +712,22 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T2" t="n">
-        <v>203.9179701396201</v>
+        <v>203.9179701396202</v>
       </c>
       <c r="U2" t="n">
-        <v>212.1989152844504</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -755,10 +755,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H3" t="n">
-        <v>89.59687541851115</v>
+        <v>89.59687541851116</v>
       </c>
       <c r="I3" t="n">
-        <v>18.81721868247742</v>
+        <v>18.81721868247745</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -785,7 +785,7 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>0.1429098734098204</v>
+        <v>0.1429098734089393</v>
       </c>
       <c r="S3" t="n">
         <v>128.1435076414547</v>
@@ -816,13 +816,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>179.8319801819373</v>
+        <v>69.42562816460783</v>
       </c>
       <c r="C4" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
         <v>146.4339626465692</v>
@@ -837,7 +837,7 @@
         <v>144.7550149143208</v>
       </c>
       <c r="I4" t="n">
-        <v>96.35242040983809</v>
+        <v>96.35242040983812</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -864,19 +864,19 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
         <v>219.5489492761692</v>
       </c>
       <c r="U4" t="n">
-        <v>79.27277117674025</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V4" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
         <v>0</v>
@@ -885,7 +885,7 @@
         <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -895,10 +895,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>75.45713216103611</v>
       </c>
       <c r="C5" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
         <v>0</v>
@@ -961,7 +961,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>79.91534106849849</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
         <v>386.2379386560536</v>
@@ -1056,7 +1056,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
         <v>148.6154730182124</v>
@@ -1074,7 +1074,7 @@
         <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>46.32785013185509</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -1101,19 +1101,19 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>88.93215267004734</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
         <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>0</v>
+        <v>124.2292170629834</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
         <v>286.522998336591</v>
@@ -1122,7 +1122,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -1135,22 +1135,22 @@
         <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>75.45713216103611</v>
       </c>
       <c r="F8" t="n">
-        <v>384.7372673685143</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G8" t="n">
         <v>410.9217256534534</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I8" t="n">
         <v>41.57692977292595</v>
@@ -1192,7 +1192,7 @@
         <v>250.995171958902</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
         <v>349.240968717413</v>
@@ -1290,28 +1290,28 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -1338,16 +1338,16 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>286.2118382056129</v>
+        <v>71.67037196991727</v>
       </c>
       <c r="V10" t="n">
         <v>252.137643323828</v>
@@ -1359,7 +1359,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
-        <v>30.96411613815231</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="11">
@@ -1384,7 +1384,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G11" t="n">
-        <v>409.8033385187887</v>
+        <v>409.8033385187866</v>
       </c>
       <c r="H11" t="n">
         <v>283.1540821444137</v>
@@ -1420,7 +1420,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>83.70251495695526</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T11" t="n">
         <v>199.0222304576161</v>
@@ -1429,7 +1429,7 @@
         <v>250.9057009881286</v>
       </c>
       <c r="V11" t="n">
-        <v>327.7522584701349</v>
+        <v>327.7522584701355</v>
       </c>
       <c r="W11" t="n">
         <v>349.240968717413</v>
@@ -1533,22 +1533,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H13" t="n">
-        <v>140.2947128462239</v>
+        <v>83.06560892428212</v>
       </c>
       <c r="I13" t="n">
-        <v>81.2658363185655</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1575,19 +1575,19 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>66.37524671012164</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S13" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U13" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V13" t="n">
-        <v>176.762144112141</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
         <v>286.522998336591</v>
@@ -1615,7 +1615,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E14" t="n">
-        <v>381.9303700722623</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F14" t="n">
         <v>406.8760457417114</v>
@@ -1663,7 +1663,7 @@
         <v>199.0222304576161</v>
       </c>
       <c r="U14" t="n">
-        <v>250.9057009881286</v>
+        <v>250.9057009881284</v>
       </c>
       <c r="V14" t="n">
         <v>327.7522584701349</v>
@@ -1770,13 +1770,13 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
         <v>165.5241382922688</v>
@@ -1785,7 +1785,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I16" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1818,19 +1818,19 @@
         <v>181.0262860016446</v>
       </c>
       <c r="T16" t="n">
-        <v>217.4054503272883</v>
+        <v>160.1763464053464</v>
       </c>
       <c r="U16" t="n">
         <v>286.1844743892441</v>
       </c>
       <c r="V16" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W16" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
-        <v>185.4048731212365</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y16" t="n">
         <v>218.5846533520948</v>
@@ -1894,13 +1894,13 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>83.70251495695528</v>
+        <v>83.70251495695619</v>
       </c>
       <c r="T17" t="n">
         <v>199.0222304576161</v>
       </c>
       <c r="U17" t="n">
-        <v>250.9057009881293</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V17" t="n">
         <v>327.7522584701349</v>
@@ -2007,22 +2007,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>83.06560892428212</v>
       </c>
       <c r="I19" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2061,13 +2061,13 @@
         <v>286.1844743892441</v>
       </c>
       <c r="V19" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W19" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
-        <v>39.17658763086913</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y19" t="n">
         <v>218.5846533520948</v>
@@ -2253,13 +2253,13 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>27.0291980517616</v>
+        <v>108.2950343703271</v>
       </c>
       <c r="H22" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I22" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2335,7 +2335,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H23" t="n">
-        <v>283.1540821444137</v>
+        <v>283.1540821444141</v>
       </c>
       <c r="I23" t="n">
         <v>0</v>
@@ -2368,7 +2368,7 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T23" t="n">
         <v>199.0222304576161</v>
@@ -2481,10 +2481,10 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
         <v>145.4210480229312</v>
@@ -2496,7 +2496,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I25" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2523,13 +2523,13 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>105.9893107373036</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>0</v>
+        <v>180.8909947756162</v>
       </c>
       <c r="U25" t="n">
         <v>286.1844743892441</v>
@@ -2538,7 +2538,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W25" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X25" t="n">
         <v>225.7096553890372</v>
@@ -2569,7 +2569,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G26" t="n">
-        <v>409.8033385187866</v>
+        <v>409.803338518787</v>
       </c>
       <c r="H26" t="n">
         <v>283.1540821444137</v>
@@ -2605,7 +2605,7 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T26" t="n">
         <v>199.0222304576161</v>
@@ -2617,7 +2617,7 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W26" t="n">
-        <v>349.2409687174118</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X26" t="n">
         <v>369.731100678469</v>
@@ -2718,22 +2718,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I28" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2760,7 +2760,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S28" t="n">
         <v>181.0262860016446</v>
@@ -2769,13 +2769,13 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U28" t="n">
-        <v>158.4589496224442</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V28" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W28" t="n">
-        <v>286.522998336591</v>
+        <v>229.2938944146491</v>
       </c>
       <c r="X28" t="n">
         <v>225.7096553890372</v>
@@ -2803,7 +2803,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F29" t="n">
-        <v>406.8760457417114</v>
+        <v>406.8760457417118</v>
       </c>
       <c r="G29" t="n">
         <v>409.8033385187866</v>
@@ -2842,7 +2842,7 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T29" t="n">
         <v>199.0222304576161</v>
@@ -2854,7 +2854,7 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W29" t="n">
-        <v>349.2409687174118</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X29" t="n">
         <v>369.731100678469</v>
@@ -2949,28 +2949,28 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C31" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>9.146142788179874</v>
       </c>
       <c r="G31" t="n">
-        <v>79.0585636675447</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H31" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I31" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2997,7 +2997,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
         <v>181.0262860016446</v>
@@ -3043,7 +3043,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G32" t="n">
-        <v>409.8033385187852</v>
+        <v>409.8033385187866</v>
       </c>
       <c r="H32" t="n">
         <v>283.1540821444137</v>
@@ -3079,7 +3079,7 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T32" t="n">
         <v>199.0222304576161</v>
@@ -3088,7 +3088,7 @@
         <v>250.9057009881286</v>
       </c>
       <c r="V32" t="n">
-        <v>327.7522584701349</v>
+        <v>327.7522584701355</v>
       </c>
       <c r="W32" t="n">
         <v>349.240968717413</v>
@@ -3189,25 +3189,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C34" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>148.6154730182124</v>
+        <v>28.75188085812055</v>
       </c>
       <c r="E34" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3234,7 +3234,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>19.91555826189153</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S34" t="n">
         <v>181.0262860016446</v>
@@ -3316,7 +3316,7 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>83.70251495695439</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T35" t="n">
         <v>199.0222304576161</v>
@@ -3429,19 +3429,19 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
         <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>83.06560892428213</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H37" t="n">
-        <v>99.97427419833816</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
         <v>0</v>
@@ -3471,7 +3471,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S37" t="n">
         <v>181.0262860016446</v>
@@ -3553,7 +3553,7 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T38" t="n">
         <v>199.0222304576161</v>
@@ -3571,7 +3571,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y38" t="n">
-        <v>386.237938656054</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="39">
@@ -3663,7 +3663,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C40" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D40" t="n">
         <v>148.6154730182124</v>
@@ -3681,7 +3681,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I40" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3708,13 +3708,13 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S40" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T40" t="n">
-        <v>177.6965697803346</v>
+        <v>178.8076944857619</v>
       </c>
       <c r="U40" t="n">
         <v>286.1844743892441</v>
@@ -3790,7 +3790,7 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T41" t="n">
         <v>199.0222304576161</v>
@@ -3897,19 +3897,19 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C43" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
-        <v>148.6154730182124</v>
+        <v>122.6028762599956</v>
       </c>
       <c r="E43" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
         <v>165.5241382922688</v>
@@ -3918,7 +3918,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I43" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3945,16 +3945,16 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>0</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S43" t="n">
-        <v>172.026033500079</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T43" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U43" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V43" t="n">
         <v>252.137643323828</v>
@@ -4027,7 +4027,7 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T44" t="n">
         <v>199.0222304576161</v>
@@ -4134,13 +4134,13 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C46" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>41.33703994143007</v>
       </c>
       <c r="E46" t="n">
         <v>0</v>
@@ -4152,10 +4152,10 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H46" t="n">
-        <v>83.06560892428168</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4182,7 +4182,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S46" t="n">
         <v>181.0262860016446</v>
@@ -4306,76 +4306,76 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1678.62132134232</v>
+        <v>1685.375546116516</v>
       </c>
       <c r="C2" t="n">
-        <v>1678.62132134232</v>
+        <v>1685.375546116516</v>
       </c>
       <c r="D2" t="n">
-        <v>1320.35562273557</v>
+        <v>1617.939223126803</v>
       </c>
       <c r="E2" t="n">
-        <v>934.5673701373257</v>
+        <v>1232.150970528558</v>
       </c>
       <c r="F2" t="n">
-        <v>523.5814653477182</v>
+        <v>821.1650657389509</v>
       </c>
       <c r="G2" t="n">
-        <v>108.5090151927147</v>
+        <v>406.0926155839475</v>
       </c>
       <c r="H2" t="n">
         <v>108.5090151927147</v>
       </c>
       <c r="I2" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="J2" t="n">
-        <v>255.3912473912096</v>
+        <v>255.3912473912089</v>
       </c>
       <c r="K2" t="n">
-        <v>589.2106210810562</v>
+        <v>589.2106210810555</v>
       </c>
       <c r="L2" t="n">
-        <v>1040.244834329465</v>
+        <v>1040.244834329464</v>
       </c>
       <c r="M2" t="n">
-        <v>1573.77673900139</v>
+        <v>1573.776739001388</v>
       </c>
       <c r="N2" t="n">
-        <v>2120.555556060172</v>
+        <v>2120.55555606017</v>
       </c>
       <c r="O2" t="n">
-        <v>2623.528026939509</v>
+        <v>2623.528026939507</v>
       </c>
       <c r="P2" t="n">
-        <v>3018.302393296687</v>
+        <v>3018.302393296684</v>
       </c>
       <c r="Q2" t="n">
-        <v>3266.588755052369</v>
+        <v>3266.588755052367</v>
       </c>
       <c r="R2" t="n">
-        <v>3325.605821609171</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="S2" t="n">
-        <v>3215.315153136266</v>
+        <v>3215.315153136265</v>
       </c>
       <c r="T2" t="n">
-        <v>3009.337405520489</v>
+        <v>3009.337405520487</v>
       </c>
       <c r="U2" t="n">
-        <v>2794.995066849327</v>
+        <v>2755.806928794323</v>
       </c>
       <c r="V2" t="n">
-        <v>2794.995066849327</v>
+        <v>2424.744041450752</v>
       </c>
       <c r="W2" t="n">
-        <v>2442.226411579212</v>
+        <v>2071.975386180638</v>
       </c>
       <c r="X2" t="n">
-        <v>2068.760653318132</v>
+        <v>2071.975386180638</v>
       </c>
       <c r="Y2" t="n">
-        <v>1678.62132134232</v>
+        <v>2071.975386180638</v>
       </c>
     </row>
     <row r="3">
@@ -4385,76 +4385,76 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1702.096133556939</v>
+        <v>941.5438544811087</v>
       </c>
       <c r="C3" t="n">
-        <v>1527.643104275812</v>
+        <v>767.0908251999817</v>
       </c>
       <c r="D3" t="n">
-        <v>1378.708694614561</v>
+        <v>618.1564155387305</v>
       </c>
       <c r="E3" t="n">
-        <v>1219.471239609105</v>
+        <v>458.9189605332749</v>
       </c>
       <c r="F3" t="n">
-        <v>1072.93668163599</v>
+        <v>312.3844025601599</v>
       </c>
       <c r="G3" t="n">
-        <v>936.5735814686084</v>
+        <v>176.021302392778</v>
       </c>
       <c r="H3" t="n">
-        <v>846.0716871064759</v>
+        <v>85.51940803064545</v>
       </c>
       <c r="I3" t="n">
-        <v>827.0643955080138</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="J3" t="n">
-        <v>920.7416649986312</v>
+        <v>160.1893859228007</v>
       </c>
       <c r="K3" t="n">
-        <v>1159.005863978978</v>
+        <v>398.4535849031478</v>
       </c>
       <c r="L3" t="n">
-        <v>1525.704024291643</v>
+        <v>765.151745215813</v>
       </c>
       <c r="M3" t="n">
-        <v>1972.980349513959</v>
+        <v>1212.428070438129</v>
       </c>
       <c r="N3" t="n">
-        <v>2446.503393068414</v>
+        <v>1685.951113992583</v>
       </c>
       <c r="O3" t="n">
-        <v>2857.464672486469</v>
+        <v>2096.912393410638</v>
       </c>
       <c r="P3" t="n">
-        <v>3167.964263962572</v>
+        <v>2407.41198488674</v>
       </c>
       <c r="Q3" t="n">
-        <v>3325.605821609171</v>
+        <v>2565.05354253334</v>
       </c>
       <c r="R3" t="n">
-        <v>3325.461468201687</v>
+        <v>2564.909189125856</v>
       </c>
       <c r="S3" t="n">
-        <v>3196.023581695167</v>
+        <v>2435.471302619336</v>
       </c>
       <c r="T3" t="n">
-        <v>3003.380581373022</v>
+        <v>2242.828302297192</v>
       </c>
       <c r="U3" t="n">
-        <v>2775.312734507438</v>
+        <v>2014.760455431608</v>
       </c>
       <c r="V3" t="n">
-        <v>2540.160626275695</v>
+        <v>1779.608347199865</v>
       </c>
       <c r="W3" t="n">
-        <v>2285.923269547494</v>
+        <v>1525.370990471663</v>
       </c>
       <c r="X3" t="n">
-        <v>2078.071769341961</v>
+        <v>1317.519490266131</v>
       </c>
       <c r="Y3" t="n">
-        <v>1870.311470577007</v>
+        <v>1109.759191501177</v>
       </c>
     </row>
     <row r="4">
@@ -4464,10 +4464,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>941.4970410294717</v>
+        <v>1091.613680441807</v>
       </c>
       <c r="C4" t="n">
-        <v>772.5608581015648</v>
+        <v>922.6774975139006</v>
       </c>
       <c r="D4" t="n">
         <v>772.5608581015648</v>
@@ -4485,19 +4485,19 @@
         <v>163.8377936138381</v>
       </c>
       <c r="I4" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="J4" t="n">
-        <v>111.634748879119</v>
+        <v>111.6347488791189</v>
       </c>
       <c r="K4" t="n">
-        <v>315.6219318279954</v>
+        <v>315.6219318279952</v>
       </c>
       <c r="L4" t="n">
         <v>632.1817302764914</v>
       </c>
       <c r="M4" t="n">
-        <v>976.3387758760405</v>
+        <v>976.3387758760404</v>
       </c>
       <c r="N4" t="n">
         <v>1317.747152581905</v>
@@ -4509,31 +4509,31 @@
         <v>1849.684251935978</v>
       </c>
       <c r="Q4" t="n">
-        <v>1927.294548088493</v>
+        <v>1927.294548088492</v>
       </c>
       <c r="R4" t="n">
-        <v>1837.464090846021</v>
+        <v>1927.294548088492</v>
       </c>
       <c r="S4" t="n">
-        <v>1645.778206672847</v>
+        <v>1927.294548088492</v>
       </c>
       <c r="T4" t="n">
-        <v>1424.011591242373</v>
+        <v>1705.527932658018</v>
       </c>
       <c r="U4" t="n">
-        <v>1343.938085003241</v>
+        <v>1416.425065783662</v>
       </c>
       <c r="V4" t="n">
-        <v>1343.938085003241</v>
+        <v>1161.740577577775</v>
       </c>
       <c r="W4" t="n">
-        <v>1343.938085003241</v>
+        <v>1161.740577577775</v>
       </c>
       <c r="X4" t="n">
-        <v>1343.938085003241</v>
+        <v>1161.740577577775</v>
       </c>
       <c r="Y4" t="n">
-        <v>1123.145505859711</v>
+        <v>1161.740577577775</v>
       </c>
     </row>
     <row r="5">
@@ -4543,7 +4543,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1601.11348746897</v>
+        <v>1232.150970528558</v>
       </c>
       <c r="C5" t="n">
         <v>1232.150970528558</v>
@@ -4564,13 +4564,13 @@
         <v>108.5090151927147</v>
       </c>
       <c r="I5" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="J5" t="n">
-        <v>255.3912473912096</v>
+        <v>255.3912473912087</v>
       </c>
       <c r="K5" t="n">
-        <v>589.2106210810559</v>
+        <v>589.210621081055</v>
       </c>
       <c r="L5" t="n">
         <v>1040.244834329464</v>
@@ -4579,40 +4579,40 @@
         <v>1573.776739001388</v>
       </c>
       <c r="N5" t="n">
-        <v>2120.555556060171</v>
+        <v>2120.55555606017</v>
       </c>
       <c r="O5" t="n">
-        <v>2623.528026939508</v>
+        <v>2623.528026939507</v>
       </c>
       <c r="P5" t="n">
-        <v>3018.302393296686</v>
+        <v>3018.302393296685</v>
       </c>
       <c r="Q5" t="n">
-        <v>3266.588755052368</v>
+        <v>3266.588755052367</v>
       </c>
       <c r="R5" t="n">
-        <v>3325.605821609171</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="S5" t="n">
-        <v>3215.315153136266</v>
+        <v>3215.315153136265</v>
       </c>
       <c r="T5" t="n">
-        <v>3009.337405520488</v>
+        <v>3009.337405520487</v>
       </c>
       <c r="U5" t="n">
-        <v>2755.806928794324</v>
+        <v>2755.806928794323</v>
       </c>
       <c r="V5" t="n">
-        <v>2424.744041450753</v>
+        <v>2424.744041450752</v>
       </c>
       <c r="W5" t="n">
-        <v>2071.975386180639</v>
+        <v>2071.975386180638</v>
       </c>
       <c r="X5" t="n">
-        <v>1991.252819444782</v>
+        <v>1698.509627919558</v>
       </c>
       <c r="Y5" t="n">
-        <v>1601.11348746897</v>
+        <v>1308.370295943746</v>
       </c>
     </row>
     <row r="6">
@@ -4637,13 +4637,13 @@
         <v>312.3844025601595</v>
       </c>
       <c r="G6" t="n">
-        <v>176.021302392778</v>
+        <v>176.0213023927781</v>
       </c>
       <c r="H6" t="n">
-        <v>85.51940803064547</v>
+        <v>85.51940803064545</v>
       </c>
       <c r="I6" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="J6" t="n">
         <v>160.1893859228005</v>
@@ -4701,28 +4701,28 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>725.9304417640988</v>
+        <v>848.0708164780106</v>
       </c>
       <c r="C7" t="n">
-        <v>725.9304417640988</v>
+        <v>679.1346335501037</v>
       </c>
       <c r="D7" t="n">
-        <v>575.813802351763</v>
+        <v>529.0179941377679</v>
       </c>
       <c r="E7" t="n">
-        <v>427.9007087693699</v>
+        <v>381.1049005553748</v>
       </c>
       <c r="F7" t="n">
-        <v>281.0107612714595</v>
+        <v>234.2149530574644</v>
       </c>
       <c r="G7" t="n">
-        <v>113.3079246461785</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="H7" t="n">
-        <v>113.3079246461785</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="I7" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="J7" t="n">
         <v>111.6347488791189</v>
@@ -4749,28 +4749,28 @@
         <v>1927.294548088492</v>
       </c>
       <c r="R7" t="n">
-        <v>1837.46409084602</v>
+        <v>1927.294548088492</v>
       </c>
       <c r="S7" t="n">
-        <v>1645.778206672847</v>
+        <v>1927.294548088492</v>
       </c>
       <c r="T7" t="n">
-        <v>1645.778206672847</v>
+        <v>1927.294548088492</v>
       </c>
       <c r="U7" t="n">
-        <v>1645.778206672847</v>
+        <v>1801.810490449115</v>
       </c>
       <c r="V7" t="n">
-        <v>1645.778206672847</v>
+        <v>1547.126002243228</v>
       </c>
       <c r="W7" t="n">
-        <v>1356.361036635886</v>
+        <v>1257.708832206268</v>
       </c>
       <c r="X7" t="n">
-        <v>1128.371485737869</v>
+        <v>1029.71928130825</v>
       </c>
       <c r="Y7" t="n">
-        <v>907.5789065943385</v>
+        <v>1029.71928130825</v>
       </c>
     </row>
     <row r="8">
@@ -4780,34 +4780,34 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1639.433183287319</v>
+        <v>1308.370295943746</v>
       </c>
       <c r="C8" t="n">
-        <v>1270.470666346907</v>
+        <v>1308.370295943746</v>
       </c>
       <c r="D8" t="n">
-        <v>912.2049677401569</v>
+        <v>1308.370295943746</v>
       </c>
       <c r="E8" t="n">
-        <v>912.2049677401569</v>
+        <v>1232.150970528558</v>
       </c>
       <c r="F8" t="n">
-        <v>523.5814653477182</v>
+        <v>821.1650657389509</v>
       </c>
       <c r="G8" t="n">
-        <v>108.5090151927147</v>
+        <v>406.0926155839475</v>
       </c>
       <c r="H8" t="n">
         <v>108.5090151927147</v>
       </c>
       <c r="I8" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="J8" t="n">
-        <v>255.3912473912089</v>
+        <v>255.3912473912088</v>
       </c>
       <c r="K8" t="n">
-        <v>589.2106210810554</v>
+        <v>589.2106210810553</v>
       </c>
       <c r="L8" t="n">
         <v>1040.244834329464</v>
@@ -4816,40 +4816,40 @@
         <v>1573.776739001388</v>
       </c>
       <c r="N8" t="n">
-        <v>2120.555556060171</v>
+        <v>2120.55555606017</v>
       </c>
       <c r="O8" t="n">
-        <v>2623.528026939508</v>
+        <v>2623.528026939507</v>
       </c>
       <c r="P8" t="n">
-        <v>3018.302393296686</v>
+        <v>3018.302393296685</v>
       </c>
       <c r="Q8" t="n">
-        <v>3266.588755052369</v>
+        <v>3266.588755052367</v>
       </c>
       <c r="R8" t="n">
-        <v>3325.605821609171</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="S8" t="n">
-        <v>3215.315153136266</v>
+        <v>3215.315153136265</v>
       </c>
       <c r="T8" t="n">
-        <v>3009.337405520489</v>
+        <v>3009.337405520487</v>
       </c>
       <c r="U8" t="n">
-        <v>2755.806928794325</v>
+        <v>2755.806928794323</v>
       </c>
       <c r="V8" t="n">
-        <v>2755.806928794325</v>
+        <v>2424.744041450752</v>
       </c>
       <c r="W8" t="n">
-        <v>2403.038273524211</v>
+        <v>2071.975386180638</v>
       </c>
       <c r="X8" t="n">
-        <v>2029.572515263131</v>
+        <v>1698.509627919558</v>
       </c>
       <c r="Y8" t="n">
-        <v>1639.433183287319</v>
+        <v>1308.370295943746</v>
       </c>
     </row>
     <row r="9">
@@ -4874,31 +4874,31 @@
         <v>312.3844025601595</v>
       </c>
       <c r="G9" t="n">
-        <v>176.021302392778</v>
+        <v>176.0213023927781</v>
       </c>
       <c r="H9" t="n">
-        <v>85.51940803064547</v>
+        <v>85.51940803064544</v>
       </c>
       <c r="I9" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="J9" t="n">
-        <v>160.1893859228007</v>
+        <v>160.189385922801</v>
       </c>
       <c r="K9" t="n">
-        <v>398.4535849031479</v>
+        <v>398.4535849031481</v>
       </c>
       <c r="L9" t="n">
-        <v>765.151745215813</v>
+        <v>765.1517452158135</v>
       </c>
       <c r="M9" t="n">
         <v>1212.428070438129</v>
       </c>
       <c r="N9" t="n">
-        <v>1685.951113992583</v>
+        <v>1685.951113992584</v>
       </c>
       <c r="O9" t="n">
-        <v>2096.912393410638</v>
+        <v>2096.912393410639</v>
       </c>
       <c r="P9" t="n">
         <v>2407.411984886741</v>
@@ -4938,31 +4938,31 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>331.5406302391191</v>
+        <v>680.3679798527295</v>
       </c>
       <c r="C10" t="n">
-        <v>331.5406302391191</v>
+        <v>511.4317969248226</v>
       </c>
       <c r="D10" t="n">
-        <v>331.5406302391191</v>
+        <v>361.3151575124868</v>
       </c>
       <c r="E10" t="n">
-        <v>331.5406302391191</v>
+        <v>213.4020639300937</v>
       </c>
       <c r="F10" t="n">
-        <v>331.5406302391191</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="G10" t="n">
-        <v>163.8377936138381</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="H10" t="n">
-        <v>163.8377936138381</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="I10" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="J10" t="n">
-        <v>111.634748879119</v>
+        <v>111.6347488791189</v>
       </c>
       <c r="K10" t="n">
         <v>315.6219318279954</v>
@@ -4986,28 +4986,28 @@
         <v>1927.294548088493</v>
       </c>
       <c r="R10" t="n">
-        <v>1837.464090846021</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="S10" t="n">
-        <v>1645.778206672847</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="T10" t="n">
-        <v>1424.011591242373</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="U10" t="n">
-        <v>1134.908724368016</v>
+        <v>1854.900232967364</v>
       </c>
       <c r="V10" t="n">
-        <v>880.2242361621296</v>
+        <v>1600.215744761477</v>
       </c>
       <c r="W10" t="n">
-        <v>590.8070661251691</v>
+        <v>1310.798574724517</v>
       </c>
       <c r="X10" t="n">
-        <v>362.8175152271517</v>
+        <v>1082.809023826499</v>
       </c>
       <c r="Y10" t="n">
-        <v>331.5406302391191</v>
+        <v>862.0164446829692</v>
       </c>
     </row>
     <row r="11">
@@ -5017,76 +5017,76 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2317.776026551877</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C11" t="n">
-        <v>1948.813509611466</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D11" t="n">
-        <v>1590.547811004715</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E11" t="n">
-        <v>1204.759558406471</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F11" t="n">
-        <v>793.7736536168634</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G11" t="n">
-        <v>379.8308874362687</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H11" t="n">
-        <v>93.81666304797193</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I11" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192571</v>
       </c>
       <c r="J11" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111714</v>
       </c>
       <c r="K11" t="n">
-        <v>852.8523611075811</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L11" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M11" t="n">
-        <v>2206.558663014781</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N11" t="n">
-        <v>2950.898526355939</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O11" t="n">
-        <v>3640.422291068013</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P11" t="n">
-        <v>4194.413870694711</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q11" t="n">
-        <v>4562.265728852258</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R11" t="n">
-        <v>4690.833152398596</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S11" t="n">
-        <v>4606.285157492581</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T11" t="n">
-        <v>4405.252601474786</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U11" t="n">
-        <v>4151.812499466576</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V11" t="n">
-        <v>3820.749612123005</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W11" t="n">
-        <v>3467.980956852891</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X11" t="n">
-        <v>3094.515198591811</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y11" t="n">
-        <v>2704.375866615999</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="12">
@@ -5114,28 +5114,28 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H12" t="n">
-        <v>93.81666304797193</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I12" t="n">
-        <v>93.81666304797193</v>
+        <v>95.58405025273906</v>
       </c>
       <c r="J12" t="n">
-        <v>243.4633055756267</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K12" t="n">
-        <v>577.3880777468473</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L12" t="n">
-        <v>1072.713683962606</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M12" t="n">
-        <v>1577.528408326419</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N12" t="n">
-        <v>1577.528408326419</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O12" t="n">
-        <v>2129.438138565707</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P12" t="n">
         <v>2553.061288060775</v>
@@ -5175,28 +5175,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>1098.667160263527</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="C13" t="n">
-        <v>929.7309773356195</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="D13" t="n">
-        <v>779.6143379232838</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="E13" t="n">
-        <v>631.7012443408906</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="F13" t="n">
-        <v>484.8112968429803</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="G13" t="n">
-        <v>317.6151975578602</v>
+        <v>177.7213185270447</v>
       </c>
       <c r="H13" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I13" t="n">
-        <v>93.81666304797193</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J13" t="n">
         <v>174.0526814782958</v>
@@ -5208,7 +5208,7 @@
         <v>826.1405381797747</v>
       </c>
       <c r="M13" t="n">
-        <v>1248.15024091081</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N13" t="n">
         <v>1665.560112570818</v>
@@ -5217,34 +5217,34 @@
         <v>2035.089393279803</v>
       </c>
       <c r="P13" t="n">
-        <v>2327.764848853362</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q13" t="n">
         <v>2446.963083580261</v>
       </c>
       <c r="R13" t="n">
-        <v>2379.917379832664</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S13" t="n">
         <v>2197.062545487568</v>
       </c>
       <c r="T13" t="n">
-        <v>2197.062545487568</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U13" t="n">
-        <v>2197.062545487568</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V13" t="n">
-        <v>2018.514925172274</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W13" t="n">
-        <v>1729.097755135313</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X13" t="n">
-        <v>1501.108204237296</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y13" t="n">
-        <v>1280.315625093766</v>
+        <v>695.5020655703114</v>
       </c>
     </row>
     <row r="14">
@@ -5257,7 +5257,7 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C14" t="n">
-        <v>1948.813509611464</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D14" t="n">
         <v>1590.547811004713</v>
@@ -5272,46 +5272,46 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H14" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I14" t="n">
-        <v>95.34095638192616</v>
+        <v>95.34095638192548</v>
       </c>
       <c r="J14" t="n">
-        <v>378.1925803111718</v>
+        <v>378.1925803111708</v>
       </c>
       <c r="K14" t="n">
-        <v>852.8523611075811</v>
+        <v>852.8523611075802</v>
       </c>
       <c r="L14" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M14" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N14" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O14" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P14" t="n">
-        <v>4194.413870694709</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q14" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R14" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S14" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T14" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U14" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V14" t="n">
         <v>3820.749612123003</v>
@@ -5342,7 +5342,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E15" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F15" t="n">
         <v>314.2396613568978</v>
@@ -5351,34 +5351,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H15" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I15" t="n">
-        <v>93.81666304797189</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="J15" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K15" t="n">
-        <v>243.4633055756266</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L15" t="n">
-        <v>243.4633055756266</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M15" t="n">
-        <v>680.0291294438171</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N15" t="n">
-        <v>1307.627092998424</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O15" t="n">
-        <v>1859.536823237711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P15" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q15" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R15" t="n">
         <v>2553.061288060775</v>
@@ -5412,28 +5412,28 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>1098.667160263526</v>
+        <v>571.6607764188008</v>
       </c>
       <c r="C16" t="n">
-        <v>929.7309773356194</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="D16" t="n">
-        <v>779.6143379232836</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="E16" t="n">
-        <v>631.7012443408905</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="F16" t="n">
-        <v>484.8112968429802</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="G16" t="n">
-        <v>317.6151975578601</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H16" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I16" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J16" t="n">
         <v>174.0526814782958</v>
@@ -5466,22 +5466,22 @@
         <v>2197.062545487568</v>
       </c>
       <c r="T16" t="n">
-        <v>1977.461080510509</v>
+        <v>2035.268256189238</v>
       </c>
       <c r="U16" t="n">
-        <v>1688.385853854707</v>
+        <v>1746.193029533436</v>
       </c>
       <c r="V16" t="n">
-        <v>1688.385853854707</v>
+        <v>1491.508541327549</v>
       </c>
       <c r="W16" t="n">
-        <v>1688.385853854707</v>
+        <v>1202.091371290588</v>
       </c>
       <c r="X16" t="n">
-        <v>1501.108204237296</v>
+        <v>974.1018203925706</v>
       </c>
       <c r="Y16" t="n">
-        <v>1280.315625093766</v>
+        <v>753.3092412490405</v>
       </c>
     </row>
     <row r="17">
@@ -5512,19 +5512,19 @@
         <v>93.81666304797189</v>
       </c>
       <c r="I17" t="n">
-        <v>95.34095638192596</v>
+        <v>95.34095638192605</v>
       </c>
       <c r="J17" t="n">
         <v>378.1925803111717</v>
       </c>
       <c r="K17" t="n">
-        <v>852.8523611075811</v>
+        <v>852.852361107581</v>
       </c>
       <c r="L17" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M17" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N17" t="n">
         <v>2950.898526355938</v>
@@ -5533,7 +5533,7 @@
         <v>3640.422291068011</v>
       </c>
       <c r="P17" t="n">
-        <v>4194.413870694709</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q17" t="n">
         <v>4562.265728852256</v>
@@ -5542,10 +5542,10 @@
         <v>4690.833152398594</v>
       </c>
       <c r="S17" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T17" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U17" t="n">
         <v>4151.812499466573</v>
@@ -5591,22 +5591,22 @@
         <v>93.81666304797189</v>
       </c>
       <c r="I18" t="n">
-        <v>93.81666304797189</v>
+        <v>95.58405025273906</v>
       </c>
       <c r="J18" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K18" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L18" t="n">
-        <v>1072.713683962606</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M18" t="n">
-        <v>1670.092171589158</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N18" t="n">
-        <v>2001.151557821488</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O18" t="n">
         <v>2553.061288060775</v>
@@ -5649,25 +5649,25 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>956.9553291057244</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="C19" t="n">
-        <v>788.0191461778176</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="D19" t="n">
-        <v>637.9025067654818</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="E19" t="n">
-        <v>489.9894131830887</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="F19" t="n">
-        <v>343.0994656851783</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="G19" t="n">
-        <v>175.9033664000583</v>
+        <v>177.7213185270447</v>
       </c>
       <c r="H19" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I19" t="n">
         <v>93.81666304797189</v>
@@ -5709,16 +5709,16 @@
         <v>1688.385853854707</v>
       </c>
       <c r="V19" t="n">
-        <v>1688.385853854707</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W19" t="n">
-        <v>1398.968683817746</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X19" t="n">
-        <v>1359.396373079494</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y19" t="n">
-        <v>1138.603793935964</v>
+        <v>695.5020655703114</v>
       </c>
     </row>
     <row r="20">
@@ -5743,19 +5743,19 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G20" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H20" t="n">
-        <v>93.81666304797187</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I20" t="n">
-        <v>95.34095638192548</v>
+        <v>95.34095638192571</v>
       </c>
       <c r="J20" t="n">
-        <v>378.1925803111708</v>
+        <v>378.1925803111714</v>
       </c>
       <c r="K20" t="n">
-        <v>852.8523611075802</v>
+        <v>852.8523611075798</v>
       </c>
       <c r="L20" t="n">
         <v>1478.611553332387</v>
@@ -5764,16 +5764,16 @@
         <v>2206.558663014778</v>
       </c>
       <c r="N20" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O20" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P20" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q20" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R20" t="n">
         <v>4690.833152398593</v>
@@ -5828,22 +5828,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I21" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="J21" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K21" t="n">
-        <v>280.8495004245705</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L21" t="n">
-        <v>776.1751066403293</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M21" t="n">
-        <v>1373.553594266881</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N21" t="n">
-        <v>2001.151557821488</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O21" t="n">
         <v>2553.061288060775</v>
@@ -5901,10 +5901,10 @@
         <v>344.9174178121648</v>
       </c>
       <c r="G22" t="n">
-        <v>317.6151975578601</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H22" t="n">
-        <v>175.9033664000582</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I22" t="n">
         <v>93.81666304797187</v>
@@ -5968,7 +5968,7 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C23" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611464</v>
       </c>
       <c r="D23" t="n">
         <v>1590.547811004713</v>
@@ -5977,19 +5977,19 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F23" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168616</v>
       </c>
       <c r="G23" t="n">
-        <v>379.8308874362683</v>
+        <v>379.830887436269</v>
       </c>
       <c r="H23" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I23" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192571</v>
       </c>
       <c r="J23" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111714</v>
       </c>
       <c r="K23" t="n">
         <v>852.8523611075807</v>
@@ -5998,40 +5998,40 @@
         <v>1478.611553332387</v>
       </c>
       <c r="M23" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N23" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O23" t="n">
         <v>3640.42229106801</v>
       </c>
       <c r="P23" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q23" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R23" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S23" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T23" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U23" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V23" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W23" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X23" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y23" t="n">
         <v>2704.375866615997</v>
@@ -6044,76 +6044,76 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>3081.170977615666</v>
+        <v>943.3991132778466</v>
       </c>
       <c r="C24" t="n">
-        <v>2906.717948334539</v>
+        <v>768.9460839967196</v>
       </c>
       <c r="D24" t="n">
-        <v>2757.783538673288</v>
+        <v>620.0116743354683</v>
       </c>
       <c r="E24" t="n">
-        <v>2598.546083667832</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F24" t="n">
-        <v>2452.011525694717</v>
+        <v>314.2396613568978</v>
       </c>
       <c r="G24" t="n">
-        <v>2316.252859740625</v>
+        <v>178.4809954028057</v>
       </c>
       <c r="H24" t="n">
-        <v>2231.588527385791</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I24" t="n">
-        <v>2231.588527385791</v>
+        <v>95.58405025273906</v>
       </c>
       <c r="J24" t="n">
-        <v>2381.235169913446</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K24" t="n">
-        <v>2381.235169913446</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L24" t="n">
-        <v>2808.971891347485</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M24" t="n">
-        <v>3406.350378974037</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N24" t="n">
-        <v>4033.948342528643</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O24" t="n">
-        <v>4033.948342528643</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P24" t="n">
-        <v>4457.571492023711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q24" t="n">
-        <v>4690.833152398593</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R24" t="n">
-        <v>4690.833152398593</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="S24" t="n">
-        <v>4572.622366301206</v>
+        <v>2434.850501963388</v>
       </c>
       <c r="T24" t="n">
-        <v>4382.41566002298</v>
+        <v>2244.643795685161</v>
       </c>
       <c r="U24" t="n">
-        <v>4154.387578566165</v>
+        <v>2016.615714228345</v>
       </c>
       <c r="V24" t="n">
-        <v>3919.235470334422</v>
+        <v>1781.463605996603</v>
       </c>
       <c r="W24" t="n">
-        <v>3664.998113606221</v>
+        <v>1527.226249268401</v>
       </c>
       <c r="X24" t="n">
-        <v>3457.146613400688</v>
+        <v>1319.374749062868</v>
       </c>
       <c r="Y24" t="n">
-        <v>3249.386314635734</v>
+        <v>1111.614450297915</v>
       </c>
     </row>
     <row r="25">
@@ -6123,76 +6123,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>1098.667160263527</v>
+        <v>800.6374272687974</v>
       </c>
       <c r="C25" t="n">
-        <v>929.7309773356195</v>
+        <v>631.7012443408905</v>
       </c>
       <c r="D25" t="n">
-        <v>779.6143379232838</v>
+        <v>631.7012443408905</v>
       </c>
       <c r="E25" t="n">
-        <v>631.7012443408906</v>
+        <v>631.7012443408905</v>
       </c>
       <c r="F25" t="n">
-        <v>484.8112968429803</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="G25" t="n">
-        <v>317.6151975578602</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="H25" t="n">
         <v>175.9033664000583</v>
       </c>
       <c r="I25" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J25" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K25" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L25" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M25" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N25" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O25" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P25" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q25" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R25" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="S25" t="n">
-        <v>2272.857469997003</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="T25" t="n">
-        <v>2272.857469997003</v>
+        <v>2264.244907039234</v>
       </c>
       <c r="U25" t="n">
-        <v>1983.7822433412</v>
+        <v>1975.169680383432</v>
       </c>
       <c r="V25" t="n">
-        <v>1729.097755135313</v>
+        <v>1720.485192177545</v>
       </c>
       <c r="W25" t="n">
-        <v>1729.097755135313</v>
+        <v>1431.068022140585</v>
       </c>
       <c r="X25" t="n">
-        <v>1501.108204237296</v>
+        <v>1203.078471242567</v>
       </c>
       <c r="Y25" t="n">
-        <v>1280.315625093766</v>
+        <v>982.2858920990371</v>
       </c>
     </row>
     <row r="26">
@@ -6205,7 +6205,7 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C26" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611464</v>
       </c>
       <c r="D26" t="n">
         <v>1590.547811004713</v>
@@ -6214,55 +6214,55 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F26" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168616</v>
       </c>
       <c r="G26" t="n">
         <v>379.8308874362686</v>
       </c>
       <c r="H26" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I26" t="n">
-        <v>95.34095638192548</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J26" t="n">
-        <v>378.1925803111708</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K26" t="n">
-        <v>852.85236110758</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L26" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M26" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N26" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O26" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P26" t="n">
-        <v>4194.413870694706</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q26" t="n">
-        <v>4562.265728852254</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R26" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S26" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T26" t="n">
-        <v>4405.252601474783</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U26" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V26" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W26" t="n">
         <v>3467.980956852889</v>
@@ -6290,7 +6290,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E27" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F27" t="n">
         <v>314.2396613568978</v>
@@ -6299,34 +6299,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H27" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I27" t="n">
-        <v>93.81666304797186</v>
+        <v>95.58405025273906</v>
       </c>
       <c r="J27" t="n">
-        <v>93.81666304797186</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K27" t="n">
-        <v>93.81666304797186</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L27" t="n">
-        <v>93.81666304797186</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M27" t="n">
-        <v>680.0291294438176</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N27" t="n">
-        <v>1307.627092998424</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O27" t="n">
-        <v>1859.536823237711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P27" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q27" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R27" t="n">
         <v>2553.061288060775</v>
@@ -6360,76 +6360,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>642.8692823226939</v>
+        <v>571.6607764188008</v>
       </c>
       <c r="C28" t="n">
-        <v>473.9330993947871</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="D28" t="n">
-        <v>323.8164599824514</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="E28" t="n">
-        <v>175.9033664000582</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="F28" t="n">
-        <v>175.9033664000582</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="G28" t="n">
-        <v>175.9033664000582</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H28" t="n">
-        <v>175.9033664000582</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I28" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J28" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K28" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L28" t="n">
-        <v>826.1405381797705</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M28" t="n">
-        <v>1248.150240910805</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N28" t="n">
-        <v>1665.560112570814</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O28" t="n">
-        <v>2035.089393279799</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P28" t="n">
-        <v>2327.764848853357</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q28" t="n">
-        <v>2446.963083580257</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R28" t="n">
-        <v>2379.917379832659</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S28" t="n">
-        <v>2197.062545487564</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T28" t="n">
-        <v>1977.461080510505</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U28" t="n">
-        <v>1817.401535437329</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V28" t="n">
-        <v>1562.717047231442</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W28" t="n">
-        <v>1273.299877194481</v>
+        <v>1202.091371290588</v>
       </c>
       <c r="X28" t="n">
-        <v>1045.310326296464</v>
+        <v>974.1018203925706</v>
       </c>
       <c r="Y28" t="n">
-        <v>824.5177471529337</v>
+        <v>753.3092412490405</v>
       </c>
     </row>
     <row r="29">
@@ -6442,7 +6442,7 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C29" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611464</v>
       </c>
       <c r="D29" t="n">
         <v>1590.547811004713</v>
@@ -6457,49 +6457,49 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H29" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I29" t="n">
-        <v>95.34095638192548</v>
+        <v>95.34095638192602</v>
       </c>
       <c r="J29" t="n">
-        <v>378.1925803111708</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K29" t="n">
-        <v>852.85236110758</v>
+        <v>852.852361107581</v>
       </c>
       <c r="L29" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M29" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N29" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O29" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P29" t="n">
-        <v>4194.413870694706</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q29" t="n">
-        <v>4562.265728852254</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R29" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S29" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T29" t="n">
-        <v>4405.252601474783</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U29" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V29" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W29" t="n">
         <v>3467.980956852889</v>
@@ -6527,7 +6527,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E30" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F30" t="n">
         <v>314.2396613568978</v>
@@ -6536,34 +6536,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H30" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I30" t="n">
-        <v>95.58405025273902</v>
+        <v>95.58405025273906</v>
       </c>
       <c r="J30" t="n">
-        <v>245.2306927803937</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K30" t="n">
-        <v>245.2306927803937</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L30" t="n">
-        <v>245.2306927803937</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M30" t="n">
-        <v>680.0291294438176</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N30" t="n">
-        <v>1307.627092998424</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O30" t="n">
-        <v>1859.536823237711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P30" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q30" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R30" t="n">
         <v>2553.061288060775</v>
@@ -6597,76 +6597,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>695.5020655703109</v>
+        <v>580.8993044876693</v>
       </c>
       <c r="C31" t="n">
-        <v>695.5020655703109</v>
+        <v>411.9631215597624</v>
       </c>
       <c r="D31" t="n">
-        <v>545.3854261579752</v>
+        <v>411.9631215597624</v>
       </c>
       <c r="E31" t="n">
-        <v>397.4723325755821</v>
+        <v>411.9631215597624</v>
       </c>
       <c r="F31" t="n">
-        <v>397.4723325755821</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="G31" t="n">
-        <v>317.6151975578601</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H31" t="n">
-        <v>175.9033664000582</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I31" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J31" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K31" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L31" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M31" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N31" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O31" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P31" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q31" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R31" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="S31" t="n">
-        <v>2197.062545487567</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T31" t="n">
-        <v>1977.461080510508</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="U31" t="n">
-        <v>1688.385853854706</v>
+        <v>1755.431557602304</v>
       </c>
       <c r="V31" t="n">
-        <v>1433.701365648819</v>
+        <v>1500.747069396417</v>
       </c>
       <c r="W31" t="n">
-        <v>1144.284195611858</v>
+        <v>1211.329899359456</v>
       </c>
       <c r="X31" t="n">
-        <v>916.2946447138411</v>
+        <v>983.3403484614391</v>
       </c>
       <c r="Y31" t="n">
-        <v>695.5020655703109</v>
+        <v>762.547769317909</v>
       </c>
     </row>
     <row r="32">
@@ -6676,76 +6676,76 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C32" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D32" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E32" t="n">
-        <v>1204.759558406467</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F32" t="n">
-        <v>793.7736536168597</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G32" t="n">
         <v>379.8308874362686</v>
       </c>
       <c r="H32" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I32" t="n">
-        <v>95.34095638192548</v>
+        <v>95.34095638192605</v>
       </c>
       <c r="J32" t="n">
-        <v>378.1925803111708</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K32" t="n">
-        <v>852.85236110758</v>
+        <v>852.852361107581</v>
       </c>
       <c r="L32" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M32" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N32" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O32" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P32" t="n">
-        <v>4194.413870694706</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q32" t="n">
-        <v>4562.265728852254</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R32" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S32" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T32" t="n">
-        <v>4405.252601474783</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U32" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V32" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W32" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X32" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y32" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="33">
@@ -6764,7 +6764,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E33" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F33" t="n">
         <v>314.2396613568978</v>
@@ -6773,16 +6773,16 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H33" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I33" t="n">
-        <v>95.58405025273902</v>
+        <v>95.58405025273906</v>
       </c>
       <c r="J33" t="n">
-        <v>245.2306927803937</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K33" t="n">
-        <v>579.1554649516142</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L33" t="n">
         <v>1074.481071167373</v>
@@ -6791,16 +6791,16 @@
         <v>1671.859558793925</v>
       </c>
       <c r="N33" t="n">
-        <v>1859.536823237711</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O33" t="n">
-        <v>1859.536823237711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P33" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q33" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R33" t="n">
         <v>2553.061288060775</v>
@@ -6834,76 +6834,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>2804.652647788939</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="C34" t="n">
-        <v>2635.716464861032</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="D34" t="n">
-        <v>2485.599825448697</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="E34" t="n">
-        <v>2337.686731866303</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="F34" t="n">
-        <v>2337.686731866303</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="G34" t="n">
-        <v>2337.686731866303</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="H34" t="n">
-        <v>2337.686731866303</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I34" t="n">
-        <v>2337.686731866303</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J34" t="n">
-        <v>2417.922750296627</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K34" t="n">
-        <v>2679.612012822166</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L34" t="n">
-        <v>3070.010606998106</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M34" t="n">
-        <v>3492.020309729141</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N34" t="n">
-        <v>3909.430181389149</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O34" t="n">
-        <v>4278.959462098134</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P34" t="n">
-        <v>4571.634917671693</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q34" t="n">
-        <v>4690.833152398593</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R34" t="n">
-        <v>4670.71642688153</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S34" t="n">
-        <v>4487.861592536435</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T34" t="n">
-        <v>4268.260127559376</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U34" t="n">
-        <v>3979.184900903574</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V34" t="n">
-        <v>3724.500412697687</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W34" t="n">
-        <v>3435.083242660727</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X34" t="n">
-        <v>3207.093691762709</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y34" t="n">
-        <v>2986.301112619179</v>
+        <v>695.5020655703114</v>
       </c>
     </row>
     <row r="35">
@@ -6925,19 +6925,19 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F35" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G35" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H35" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I35" t="n">
-        <v>95.34095638192616</v>
+        <v>95.34095638192598</v>
       </c>
       <c r="J35" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K35" t="n">
         <v>852.8523611075809</v>
@@ -6949,16 +6949,16 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N35" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O35" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P35" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q35" t="n">
-        <v>4562.265728852254</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R35" t="n">
         <v>4690.833152398593</v>
@@ -6973,13 +6973,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V35" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W35" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X35" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y35" t="n">
         <v>2704.375866615997</v>
@@ -7010,34 +7010,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H36" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I36" t="n">
-        <v>93.81666304797186</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="J36" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K36" t="n">
-        <v>243.4633055756266</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L36" t="n">
-        <v>738.7889117913853</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M36" t="n">
-        <v>1336.167399417937</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N36" t="n">
-        <v>1963.765362972544</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O36" t="n">
-        <v>2515.675093211831</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P36" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q36" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R36" t="n">
         <v>2553.061288060775</v>
@@ -7071,76 +7071,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>513.8536007400712</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="C37" t="n">
-        <v>344.9174178121643</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="D37" t="n">
-        <v>194.8007783998286</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="E37" t="n">
-        <v>194.8007783998286</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="F37" t="n">
-        <v>194.8007783998286</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G37" t="n">
-        <v>194.8007783998286</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H37" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I37" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J37" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K37" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L37" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M37" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N37" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O37" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P37" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q37" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R37" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S37" t="n">
-        <v>2197.062545487567</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T37" t="n">
-        <v>1977.461080510508</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U37" t="n">
-        <v>1688.385853854706</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V37" t="n">
-        <v>1433.701365648819</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W37" t="n">
-        <v>1144.284195611858</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X37" t="n">
-        <v>916.2946447138411</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y37" t="n">
-        <v>695.5020655703109</v>
+        <v>695.5020655703114</v>
       </c>
     </row>
     <row r="38">
@@ -7162,19 +7162,19 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F38" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168612</v>
       </c>
       <c r="G38" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362687</v>
       </c>
       <c r="H38" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I38" t="n">
-        <v>95.34095638192616</v>
+        <v>95.34095638192598</v>
       </c>
       <c r="J38" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K38" t="n">
         <v>852.8523611075809</v>
@@ -7183,7 +7183,7 @@
         <v>1478.611553332387</v>
       </c>
       <c r="M38" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N38" t="n">
         <v>2950.898526355938</v>
@@ -7192,31 +7192,31 @@
         <v>3640.422291068011</v>
       </c>
       <c r="P38" t="n">
-        <v>4194.413870694709</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q38" t="n">
         <v>4562.265728852256</v>
       </c>
       <c r="R38" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S38" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T38" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U38" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V38" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W38" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X38" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y38" t="n">
         <v>2704.375866615997</v>
@@ -7238,7 +7238,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E39" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F39" t="n">
         <v>314.2396613568978</v>
@@ -7247,7 +7247,7 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H39" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I39" t="n">
         <v>95.58405025273905</v>
@@ -7256,25 +7256,25 @@
         <v>245.2306927803938</v>
       </c>
       <c r="K39" t="n">
-        <v>245.2306927803938</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L39" t="n">
-        <v>245.2306927803938</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M39" t="n">
-        <v>680.0291294438176</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N39" t="n">
-        <v>1307.627092998424</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O39" t="n">
-        <v>1859.536823237711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P39" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q39" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R39" t="n">
         <v>2553.061288060775</v>
@@ -7308,76 +7308,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>803.8641191832229</v>
+        <v>552.8412329032295</v>
       </c>
       <c r="C40" t="n">
-        <v>634.927936255316</v>
+        <v>552.8412329032295</v>
       </c>
       <c r="D40" t="n">
-        <v>484.8112968429803</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="E40" t="n">
-        <v>484.8112968429803</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="F40" t="n">
-        <v>484.8112968429803</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="G40" t="n">
-        <v>317.6151975578603</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H40" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I40" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J40" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K40" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L40" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M40" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N40" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O40" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P40" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q40" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R40" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S40" t="n">
-        <v>2446.96308358026</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T40" t="n">
-        <v>2267.47159895366</v>
+        <v>2016.448712673667</v>
       </c>
       <c r="U40" t="n">
-        <v>1978.396372297858</v>
+        <v>1727.373486017864</v>
       </c>
       <c r="V40" t="n">
-        <v>1723.711884091971</v>
+        <v>1472.688997811978</v>
       </c>
       <c r="W40" t="n">
-        <v>1434.29471405501</v>
+        <v>1183.271827775017</v>
       </c>
       <c r="X40" t="n">
-        <v>1206.305163156993</v>
+        <v>955.2822768769994</v>
       </c>
       <c r="Y40" t="n">
-        <v>985.5125840134626</v>
+        <v>734.4896977334693</v>
       </c>
     </row>
     <row r="41">
@@ -7399,22 +7399,22 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F41" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G41" t="n">
         <v>379.8308874362683</v>
       </c>
       <c r="H41" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I41" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192598</v>
       </c>
       <c r="J41" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K41" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L41" t="n">
         <v>1478.611553332387</v>
@@ -7423,16 +7423,16 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N41" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O41" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P41" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q41" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R41" t="n">
         <v>4690.833152398593</v>
@@ -7487,22 +7487,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I42" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="J42" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K42" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L42" t="n">
-        <v>1072.713683962606</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M42" t="n">
-        <v>1373.553594266881</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N42" t="n">
-        <v>2001.151557821488</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O42" t="n">
         <v>2553.061288060775</v>
@@ -7545,76 +7545,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>3342.537229081859</v>
+        <v>695.5020655703114</v>
       </c>
       <c r="C43" t="n">
-        <v>3173.601046153952</v>
+        <v>526.5658826424045</v>
       </c>
       <c r="D43" t="n">
-        <v>3023.484406741616</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="E43" t="n">
-        <v>2875.571313159223</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="F43" t="n">
-        <v>2728.681365661313</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="G43" t="n">
-        <v>2561.485266376193</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H43" t="n">
-        <v>2419.773435218391</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I43" t="n">
-        <v>2337.686731866304</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J43" t="n">
-        <v>2417.922750296628</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K43" t="n">
-        <v>2679.612012822167</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L43" t="n">
-        <v>3070.010606998107</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M43" t="n">
-        <v>3492.020309729142</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N43" t="n">
-        <v>3909.43018138915</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O43" t="n">
-        <v>4278.959462098135</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P43" t="n">
-        <v>4571.634917671694</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q43" t="n">
-        <v>4690.833152398593</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R43" t="n">
-        <v>4690.833152398593</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S43" t="n">
-        <v>4517.069482196493</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T43" t="n">
-        <v>4517.069482196493</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U43" t="n">
-        <v>4517.069482196493</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V43" t="n">
-        <v>4262.384993990607</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W43" t="n">
-        <v>3972.967823953646</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X43" t="n">
-        <v>3744.978273055629</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y43" t="n">
-        <v>3524.185693912098</v>
+        <v>695.5020655703114</v>
       </c>
     </row>
     <row r="44">
@@ -7624,19 +7624,19 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C44" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D44" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E44" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F44" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168609</v>
       </c>
       <c r="G44" t="n">
         <v>379.8308874362683</v>
@@ -7645,13 +7645,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I44" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192598</v>
       </c>
       <c r="J44" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K44" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L44" t="n">
         <v>1478.611553332387</v>
@@ -7660,16 +7660,16 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N44" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O44" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P44" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q44" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R44" t="n">
         <v>4690.833152398593</v>
@@ -7681,19 +7681,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U44" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V44" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W44" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X44" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y44" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="45">
@@ -7724,31 +7724,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I45" t="n">
-        <v>95.58405025273903</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="J45" t="n">
-        <v>245.2306927803937</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K45" t="n">
-        <v>579.1554649516142</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L45" t="n">
-        <v>739.5354516872161</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M45" t="n">
-        <v>1336.913939313768</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N45" t="n">
-        <v>1964.511902868375</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O45" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P45" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q45" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R45" t="n">
         <v>2553.061288060775</v>
@@ -7782,76 +7782,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>513.8536007400712</v>
+        <v>695.5020655703114</v>
       </c>
       <c r="C46" t="n">
-        <v>344.9174178121643</v>
+        <v>526.5658826424045</v>
       </c>
       <c r="D46" t="n">
-        <v>344.9174178121643</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="E46" t="n">
-        <v>344.9174178121643</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="F46" t="n">
-        <v>344.9174178121643</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="G46" t="n">
-        <v>177.7213185270443</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="H46" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="I46" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J46" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K46" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L46" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M46" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N46" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O46" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P46" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q46" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R46" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S46" t="n">
-        <v>2197.062545487567</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T46" t="n">
-        <v>1977.461080510508</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U46" t="n">
-        <v>1688.385853854706</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V46" t="n">
-        <v>1433.701365648819</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W46" t="n">
-        <v>1144.284195611858</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X46" t="n">
-        <v>916.2946447138411</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y46" t="n">
-        <v>695.5020655703109</v>
+        <v>695.5020655703114</v>
       </c>
     </row>
   </sheetData>
@@ -8081,7 +8081,7 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>0</v>
+        <v>9.094947017729282e-13</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -23421,22 +23421,22 @@
         <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
         <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>57.22910392194174</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23469,13 +23469,13 @@
         <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>286.1844743892441</v>
+        <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>75.37549921168704</v>
+        <v>0</v>
       </c>
       <c r="W13" t="n">
         <v>0</v>
@@ -23658,13 +23658,13 @@
         <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
         <v>0</v>
@@ -23673,7 +23673,7 @@
         <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23706,19 +23706,19 @@
         <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>57.22910392194191</v>
       </c>
       <c r="U16" t="n">
         <v>0</v>
       </c>
       <c r="V16" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X16" t="n">
-        <v>40.30478226780068</v>
+        <v>0</v>
       </c>
       <c r="Y16" t="n">
         <v>0</v>
@@ -23895,22 +23895,22 @@
         <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
         <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>140.2947128462239</v>
+        <v>57.22910392194174</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23949,13 +23949,13 @@
         <v>0</v>
       </c>
       <c r="V19" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W19" t="n">
         <v>0</v>
       </c>
       <c r="X19" t="n">
-        <v>186.533067758168</v>
+        <v>0</v>
       </c>
       <c r="Y19" t="n">
         <v>0</v>
@@ -24141,13 +24141,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>138.4949402405072</v>
+        <v>57.22910392194174</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24369,10 +24369,10 @@
         <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
         <v>0</v>
@@ -24411,13 +24411,13 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S25" t="n">
-        <v>75.03697526434104</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T25" t="n">
-        <v>217.4054503272883</v>
+        <v>36.51445555167211</v>
       </c>
       <c r="U25" t="n">
         <v>0</v>
@@ -24426,7 +24426,7 @@
         <v>0</v>
       </c>
       <c r="W25" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X25" t="n">
         <v>0</v>
@@ -24606,22 +24606,22 @@
         <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24657,13 +24657,13 @@
         <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>127.7255247667999</v>
+        <v>0</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
       </c>
       <c r="W28" t="n">
-        <v>0</v>
+        <v>57.22910392194186</v>
       </c>
       <c r="X28" t="n">
         <v>0</v>
@@ -24742,7 +24742,7 @@
         <v>0</v>
       </c>
       <c r="W29" t="n">
-        <v>1.193711796076968e-12</v>
+        <v>0</v>
       </c>
       <c r="X29" t="n">
         <v>0</v>
@@ -24837,28 +24837,28 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
-        <v>145.4210480229312</v>
+        <v>136.2749052347514</v>
       </c>
       <c r="G31" t="n">
-        <v>86.46557462472414</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
         <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24885,7 +24885,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S31" t="n">
         <v>0</v>
@@ -24931,7 +24931,7 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>1.4210854715202e-12</v>
+        <v>0</v>
       </c>
       <c r="H32" t="n">
         <v>0</v>
@@ -25077,25 +25077,25 @@
         <v>0</v>
       </c>
       <c r="C34" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>119.8635921600918</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25122,7 +25122,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>46.45968844823016</v>
+        <v>0</v>
       </c>
       <c r="S34" t="n">
         <v>0</v>
@@ -25317,22 +25317,22 @@
         <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
-        <v>145.4210480229312</v>
+        <v>62.35543909864911</v>
       </c>
       <c r="G37" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>40.32043864788572</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I37" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25551,7 +25551,7 @@
         <v>0</v>
       </c>
       <c r="C40" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
         <v>0</v>
@@ -25569,7 +25569,7 @@
         <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25596,13 +25596,13 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T40" t="n">
-        <v>39.70888054695368</v>
+        <v>38.59775584152638</v>
       </c>
       <c r="U40" t="n">
         <v>0</v>
@@ -25785,19 +25785,19 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C43" t="n">
         <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>26.01259675821677</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
         <v>0</v>
@@ -25806,7 +25806,7 @@
         <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25833,16 +25833,16 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>9.000252501565598</v>
+        <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U43" t="n">
-        <v>286.1844743892441</v>
+        <v>0</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -26022,13 +26022,13 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C46" t="n">
         <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>148.6154730182124</v>
+        <v>107.2784330767823</v>
       </c>
       <c r="E46" t="n">
         <v>146.4339626465692</v>
@@ -26040,10 +26040,10 @@
         <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>57.22910392194221</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26149,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>917799.0280914543</v>
+        <v>917799.0280914541</v>
       </c>
     </row>
     <row r="6">
@@ -26157,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>917799.0280914543</v>
+        <v>917799.0280914541</v>
       </c>
     </row>
     <row r="7">
@@ -26165,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>917799.0280914542</v>
+        <v>917799.0280914541</v>
       </c>
     </row>
     <row r="8">
@@ -26173,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>917799.0280914542</v>
+        <v>917799.0280914541</v>
       </c>
     </row>
     <row r="9">
@@ -26181,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>917799.0280914543</v>
+        <v>917799.0280914542</v>
       </c>
     </row>
     <row r="10">
@@ -26189,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>917799.0280914539</v>
+        <v>917799.0280914541</v>
       </c>
     </row>
     <row r="11">
@@ -26205,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>917799.0280914541</v>
+        <v>917799.0280914542</v>
       </c>
     </row>
     <row r="13">
@@ -26221,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>917799.0280914543</v>
+        <v>917799.0280914542</v>
       </c>
     </row>
     <row r="15">
@@ -26229,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>917799.0280914543</v>
+        <v>917799.0280914542</v>
       </c>
     </row>
     <row r="16">
@@ -26237,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>917799.0280914541</v>
+        <v>917799.0280914543</v>
       </c>
     </row>
   </sheetData>
@@ -26313,10 +26313,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>513151.106165177</v>
+        <v>513151.1061651771</v>
       </c>
       <c r="C2" t="n">
-        <v>513151.106165177</v>
+        <v>513151.1061651772</v>
       </c>
       <c r="D2" t="n">
         <v>513151.106165177</v>
@@ -26325,10 +26325,10 @@
         <v>504466.6248062539</v>
       </c>
       <c r="F2" t="n">
-        <v>504466.6248062538</v>
+        <v>504466.6248062536</v>
       </c>
       <c r="G2" t="n">
-        <v>504466.6248062538</v>
+        <v>504466.6248062536</v>
       </c>
       <c r="H2" t="n">
         <v>504466.6248062536</v>
@@ -26337,25 +26337,25 @@
         <v>504466.6248062538</v>
       </c>
       <c r="J2" t="n">
-        <v>504466.6248062538</v>
+        <v>504466.6248062537</v>
       </c>
       <c r="K2" t="n">
+        <v>504466.6248062539</v>
+      </c>
+      <c r="L2" t="n">
+        <v>504466.6248062539</v>
+      </c>
+      <c r="M2" t="n">
         <v>504466.6248062536</v>
       </c>
-      <c r="L2" t="n">
+      <c r="N2" t="n">
         <v>504466.6248062536</v>
       </c>
-      <c r="M2" t="n">
-        <v>504466.6248062537</v>
-      </c>
-      <c r="N2" t="n">
-        <v>504466.624806254</v>
-      </c>
       <c r="O2" t="n">
-        <v>504466.6248062538</v>
+        <v>504466.6248062536</v>
       </c>
       <c r="P2" t="n">
-        <v>504466.6248062537</v>
+        <v>504466.6248062536</v>
       </c>
     </row>
     <row r="3">
@@ -26365,7 +26365,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1328744.745727593</v>
+        <v>1328744.745727592</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26374,7 +26374,7 @@
         <v>1.947259988810401e-10</v>
       </c>
       <c r="E3" t="n">
-        <v>325412.4618073557</v>
+        <v>325412.4618073555</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26389,7 +26389,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>217531.2023972775</v>
+        <v>217531.2023972774</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -26398,7 +26398,7 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>85055.02793551196</v>
+        <v>85055.0279355119</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26417,13 +26417,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>89744.12305813248</v>
+        <v>89744.12305813257</v>
       </c>
       <c r="C4" t="n">
-        <v>89744.12305813251</v>
+        <v>89744.12305813255</v>
       </c>
       <c r="D4" t="n">
-        <v>89744.12305813246</v>
+        <v>89744.12305813255</v>
       </c>
       <c r="E4" t="n">
         <v>10557.08828678121</v>
@@ -26450,7 +26450,7 @@
         <v>10557.08828678121</v>
       </c>
       <c r="M4" t="n">
-        <v>10557.08828678125</v>
+        <v>10557.08828678121</v>
       </c>
       <c r="N4" t="n">
         <v>10557.08828678121</v>
@@ -26478,7 +26478,7 @@
         <v>107933.9405613933</v>
       </c>
       <c r="E5" t="n">
-        <v>101122.5298239072</v>
+        <v>101122.5298239071</v>
       </c>
       <c r="F5" t="n">
         <v>101122.5298239071</v>
@@ -26527,43 +26527,43 @@
         <v>315473.0425456514</v>
       </c>
       <c r="D6" t="n">
-        <v>315473.0425456511</v>
+        <v>315473.042545651</v>
       </c>
       <c r="E6" t="n">
-        <v>67374.54488820987</v>
+        <v>67027.16563385309</v>
       </c>
       <c r="F6" t="n">
-        <v>392787.0066955658</v>
+        <v>392439.6274412083</v>
       </c>
       <c r="G6" t="n">
-        <v>392787.0066955654</v>
+        <v>392439.6274412083</v>
       </c>
       <c r="H6" t="n">
-        <v>392787.0066955652</v>
+        <v>392439.6274412083</v>
       </c>
       <c r="I6" t="n">
-        <v>392787.0066955657</v>
+        <v>392439.6274412085</v>
       </c>
       <c r="J6" t="n">
-        <v>175255.804298288</v>
+        <v>174908.425043931</v>
       </c>
       <c r="K6" t="n">
-        <v>392787.0066955653</v>
+        <v>392439.6274412086</v>
       </c>
       <c r="L6" t="n">
-        <v>392787.0066955653</v>
+        <v>392439.6274412086</v>
       </c>
       <c r="M6" t="n">
-        <v>307731.9787600534</v>
+        <v>307384.5995056964</v>
       </c>
       <c r="N6" t="n">
-        <v>392787.0066955657</v>
+        <v>392439.6274412083</v>
       </c>
       <c r="O6" t="n">
-        <v>392787.0066955654</v>
+        <v>392439.6274412083</v>
       </c>
       <c r="P6" t="n">
-        <v>392787.0066955654</v>
+        <v>392439.6274412083</v>
       </c>
     </row>
   </sheetData>
@@ -26789,19 +26789,19 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>831.4014554022929</v>
+        <v>831.4014554022924</v>
       </c>
       <c r="C4" t="n">
-        <v>831.4014554022926</v>
+        <v>831.4014554022924</v>
       </c>
       <c r="D4" t="n">
-        <v>831.4014554022929</v>
+        <v>831.4014554022924</v>
       </c>
       <c r="E4" t="n">
         <v>1172.708288099649</v>
       </c>
       <c r="F4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="G4" t="n">
         <v>1172.708288099649</v>
@@ -26810,22 +26810,22 @@
         <v>1172.708288099648</v>
       </c>
       <c r="I4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="J4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="K4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="L4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="M4" t="n">
         <v>1172.708288099648</v>
       </c>
       <c r="N4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="O4" t="n">
         <v>1172.708288099648</v>
@@ -26968,7 +26968,7 @@
         <v>2.273736754432321e-13</v>
       </c>
       <c r="E3" t="n">
-        <v>278.1987997483759</v>
+        <v>278.1987997483757</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -27011,7 +27011,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>831.4014554022929</v>
+        <v>831.4014554022924</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -27035,7 +27035,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>831.4014554022926</v>
+        <v>831.4014554022924</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27044,7 +27044,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>341.3068326973562</v>
+        <v>341.306832697356</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27257,7 +27257,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>831.4014554022929</v>
+        <v>831.4014554022924</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27378,13 +27378,13 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>287.9210818608666</v>
       </c>
       <c r="E2" t="n">
         <v>0</v>
@@ -27396,7 +27396,7 @@
         <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -27435,19 +27435,19 @@
         <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>38.79625667445163</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
         <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="3">
@@ -27536,13 +27536,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>110.4063520173295</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
         <v>0</v>
@@ -27584,19 +27584,19 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>88.93215267004734</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T4" t="n">
         <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>206.9390670288726</v>
+        <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W4" t="n">
         <v>286.522998336591</v>
@@ -27605,7 +27605,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="5">
@@ -27615,10 +27615,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>382.7338416634806</v>
+        <v>307.2767095024445</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
         <v>354.683041620683</v>
@@ -27681,7 +27681,7 @@
         <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>289.8157596099705</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
         <v>0</v>
@@ -27776,7 +27776,7 @@
         <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
         <v>0</v>
@@ -27794,7 +27794,7 @@
         <v>144.7550149143208</v>
       </c>
       <c r="I7" t="n">
-        <v>50.02457027798302</v>
+        <v>96.35242040983812</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -27821,19 +27821,19 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>88.93215267004734</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T7" t="n">
         <v>219.5489492761692</v>
       </c>
       <c r="U7" t="n">
-        <v>286.2118382056129</v>
+        <v>161.9826211426295</v>
       </c>
       <c r="V7" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
         <v>0</v>
@@ -27842,7 +27842,7 @@
         <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="8">
@@ -27855,22 +27855,22 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
-        <v>381.9303700722618</v>
+        <v>306.4732379112257</v>
       </c>
       <c r="F8" t="n">
-        <v>22.13877837319717</v>
+        <v>0</v>
       </c>
       <c r="G8" t="n">
         <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
@@ -27912,7 +27912,7 @@
         <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
         <v>0</v>
@@ -28010,28 +28010,28 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H10" t="n">
         <v>144.7550149143208</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -28058,16 +28058,16 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>214.5414662356956</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -28079,7 +28079,7 @@
         <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>187.6205372139425</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -29337,7 +29337,7 @@
         <v>0</v>
       </c>
       <c r="W26" t="n">
-        <v>1.193711796076968e-12</v>
+        <v>0</v>
       </c>
       <c r="X26" t="n">
         <v>0</v>
@@ -29462,7 +29462,7 @@
         <v>0</v>
       </c>
       <c r="L28" t="n">
-        <v>-3.959144123655279e-12</v>
+        <v>0</v>
       </c>
       <c r="M28" t="n">
         <v>0</v>
@@ -30036,7 +30036,7 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>9.094947017729282e-13</v>
+        <v>0</v>
       </c>
       <c r="T35" t="n">
         <v>0</v>
@@ -31041,43 +31041,43 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>4.381011861681598</v>
+        <v>4.381011861681597</v>
       </c>
       <c r="H2" t="n">
-        <v>44.86703772844668</v>
+        <v>44.86703772844667</v>
       </c>
       <c r="I2" t="n">
-        <v>168.89895979748</v>
+        <v>168.8989597974799</v>
       </c>
       <c r="J2" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K2" t="n">
-        <v>557.281137600381</v>
+        <v>557.2811376003809</v>
       </c>
       <c r="L2" t="n">
-        <v>691.3565293623194</v>
+        <v>691.3565293623192</v>
       </c>
       <c r="M2" t="n">
-        <v>769.2673490574995</v>
+        <v>769.2673490574992</v>
       </c>
       <c r="N2" t="n">
-        <v>781.7148990095023</v>
+        <v>781.7148990095022</v>
       </c>
       <c r="O2" t="n">
-        <v>738.1512123099059</v>
+        <v>738.1512123099058</v>
       </c>
       <c r="P2" t="n">
-        <v>629.9949819746414</v>
+        <v>629.9949819746412</v>
       </c>
       <c r="Q2" t="n">
-        <v>473.099994678169</v>
+        <v>473.0999946781689</v>
       </c>
       <c r="R2" t="n">
-        <v>275.1987363563569</v>
+        <v>275.1987363563568</v>
       </c>
       <c r="S2" t="n">
-        <v>99.83230779806951</v>
+        <v>99.83230779806949</v>
       </c>
       <c r="T2" t="n">
         <v>19.1778794245112</v>
@@ -31126,40 +31126,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I3" t="n">
-        <v>80.70516131752258</v>
+        <v>80.70516131752255</v>
       </c>
       <c r="J3" t="n">
-        <v>221.4611312026438</v>
+        <v>221.4611312026437</v>
       </c>
       <c r="K3" t="n">
         <v>378.5123470353157</v>
       </c>
       <c r="L3" t="n">
-        <v>508.9565619138796</v>
+        <v>508.9565619138795</v>
       </c>
       <c r="M3" t="n">
-        <v>593.9283018233475</v>
+        <v>593.9283018233474</v>
       </c>
       <c r="N3" t="n">
-        <v>609.6478166837925</v>
+        <v>609.6478166837924</v>
       </c>
       <c r="O3" t="n">
-        <v>557.708647897025</v>
+        <v>557.7086478970249</v>
       </c>
       <c r="P3" t="n">
-        <v>447.6103584002927</v>
+        <v>447.6103584002926</v>
       </c>
       <c r="Q3" t="n">
-        <v>299.2156706987487</v>
+        <v>299.2156706987486</v>
       </c>
       <c r="R3" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S3" t="n">
-        <v>43.53966346238316</v>
+        <v>43.53966346238315</v>
       </c>
       <c r="T3" t="n">
-        <v>9.448158375898497</v>
+        <v>9.448158375898496</v>
       </c>
       <c r="U3" t="n">
         <v>0.1542136840462215</v>
@@ -31199,13 +31199,13 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>1.965171099430538</v>
+        <v>1.965171099430537</v>
       </c>
       <c r="H4" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I4" t="n">
-        <v>59.09805451742019</v>
+        <v>59.09805451742017</v>
       </c>
       <c r="J4" t="n">
         <v>138.937596729739</v>
@@ -31214,16 +31214,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L4" t="n">
-        <v>292.167346909882</v>
+        <v>292.1673469098819</v>
       </c>
       <c r="M4" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N4" t="n">
-        <v>300.7247737883115</v>
+        <v>300.7247737883114</v>
       </c>
       <c r="O4" t="n">
-        <v>277.7680023086001</v>
+        <v>277.7680023086</v>
       </c>
       <c r="P4" t="n">
         <v>237.6785118802169</v>
@@ -31232,16 +31232,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R4" t="n">
-        <v>88.36123870712215</v>
+        <v>88.36123870712214</v>
       </c>
       <c r="S4" t="n">
-        <v>34.24757270553036</v>
+        <v>34.24757270553035</v>
       </c>
       <c r="T4" t="n">
-        <v>8.396640152112296</v>
+        <v>8.396640152112294</v>
       </c>
       <c r="U4" t="n">
-        <v>0.1071911508780295</v>
+        <v>0.1071911508780294</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -31752,40 +31752,40 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>5.499398996348435</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H11" t="n">
-        <v>56.32071997135342</v>
+        <v>56.32071997135341</v>
       </c>
       <c r="I11" t="n">
-        <v>212.0155798067233</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J11" t="n">
-        <v>466.7546155663284</v>
+        <v>466.7546155663283</v>
       </c>
       <c r="K11" t="n">
-        <v>699.5441750817578</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L11" t="n">
-        <v>867.8464071162564</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M11" t="n">
-        <v>965.6463440175678</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N11" t="n">
-        <v>981.2715114159429</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O11" t="n">
-        <v>926.5868626460031</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P11" t="n">
-        <v>790.8204499236509</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q11" t="n">
-        <v>593.8732233669225</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R11" t="n">
-        <v>345.4516222043727</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S11" t="n">
         <v>125.3175546292901</v>
@@ -31794,7 +31794,7 @@
         <v>24.07361910651528</v>
       </c>
       <c r="U11" t="n">
-        <v>0.4399519197078747</v>
+        <v>0.4399519197078746</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31837,28 +31837,28 @@
         <v>28.41775520521101</v>
       </c>
       <c r="I12" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J12" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K12" t="n">
-        <v>475.1391886422587</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L12" t="n">
-        <v>638.8832749473074</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M12" t="n">
-        <v>652.047896915769</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N12" t="n">
-        <v>131.3417120833333</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O12" t="n">
-        <v>700.0808204437245</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P12" t="n">
-        <v>561.87657862147</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q12" t="n">
         <v>139.9817740860215</v>
@@ -31867,7 +31867,7 @@
         <v>145.679503963964</v>
       </c>
       <c r="S12" t="n">
-        <v>54.6544928674244</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T12" t="n">
         <v>11.86008947937734</v>
@@ -31910,13 +31910,13 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>2.466841066189904</v>
+        <v>2.466841066189903</v>
       </c>
       <c r="H13" t="n">
         <v>21.93245966121571</v>
       </c>
       <c r="I13" t="n">
-        <v>74.18463860869278</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J13" t="n">
         <v>174.4056633796262</v>
@@ -31934,7 +31934,7 @@
         <v>377.4939606106789</v>
       </c>
       <c r="O13" t="n">
-        <v>348.6767717920059</v>
+        <v>348.6767717920058</v>
       </c>
       <c r="P13" t="n">
         <v>298.3532140417315</v>
@@ -31946,7 +31946,7 @@
         <v>110.9181446670478</v>
       </c>
       <c r="S13" t="n">
-        <v>42.99031203532768</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T13" t="n">
         <v>10.54013910099322</v>
@@ -32074,34 +32074,34 @@
         <v>28.41775520521101</v>
       </c>
       <c r="I15" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J15" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K15" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L15" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M15" t="n">
-        <v>583.1096135868572</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N15" t="n">
         <v>765.2790490071786</v>
       </c>
       <c r="O15" t="n">
-        <v>700.0808204437244</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P15" t="n">
-        <v>561.8765786214699</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q15" t="n">
-        <v>375.5996128485291</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R15" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S15" t="n">
         <v>54.65449286742439</v>
@@ -32311,7 +32311,7 @@
         <v>28.41775520521101</v>
       </c>
       <c r="I18" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J18" t="n">
         <v>277.9958514420755</v>
@@ -32326,10 +32326,10 @@
         <v>745.5466476862122</v>
       </c>
       <c r="N18" t="n">
-        <v>465.7451325200306</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O18" t="n">
-        <v>700.0808204437244</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P18" t="n">
         <v>133.9744074143302</v>
@@ -32548,13 +32548,13 @@
         <v>28.41775520521101</v>
       </c>
       <c r="I21" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J21" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K21" t="n">
-        <v>175.6052721551105</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L21" t="n">
         <v>638.8832749473073</v>
@@ -32566,7 +32566,7 @@
         <v>765.2790490071786</v>
       </c>
       <c r="O21" t="n">
-        <v>700.0808204437244</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P21" t="n">
         <v>133.9744074143302</v>
@@ -32700,7 +32700,7 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H23" t="n">
         <v>56.32071997135341</v>
@@ -32712,31 +32712,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K23" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L23" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M23" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N23" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O23" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P23" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q23" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R23" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S23" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T23" t="n">
         <v>24.07361910651528</v>
@@ -32779,49 +32779,49 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H24" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I24" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J24" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K24" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L24" t="n">
-        <v>570.6116741576911</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M24" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N24" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O24" t="n">
-        <v>142.5962444444444</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P24" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q24" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R24" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S24" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T24" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U24" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V24" t="n">
         <v>0</v>
@@ -32861,25 +32861,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H25" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I25" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J25" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K25" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L25" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M25" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N25" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O25" t="n">
         <v>348.6767717920058</v>
@@ -32888,19 +32888,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q25" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R25" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S25" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T25" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U25" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -32937,7 +32937,7 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H26" t="n">
         <v>56.32071997135341</v>
@@ -32949,31 +32949,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K26" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L26" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M26" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N26" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O26" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P26" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q26" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R26" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S26" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T26" t="n">
         <v>24.07361910651528</v>
@@ -33016,49 +33016,49 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H27" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I27" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J27" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K27" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L27" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M27" t="n">
-        <v>734.2678383622665</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N27" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O27" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P27" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q27" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R27" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S27" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T27" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U27" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V27" t="n">
         <v>0</v>
@@ -33098,25 +33098,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H28" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I28" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J28" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K28" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L28" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M28" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N28" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O28" t="n">
         <v>348.6767717920058</v>
@@ -33125,19 +33125,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q28" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R28" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S28" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T28" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U28" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33174,7 +33174,7 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H29" t="n">
         <v>56.32071997135341</v>
@@ -33186,31 +33186,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K29" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L29" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M29" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N29" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O29" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P29" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q29" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R29" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S29" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T29" t="n">
         <v>24.07361910651528</v>
@@ -33253,10 +33253,10 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H30" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I30" t="n">
         <v>101.3076196007749</v>
@@ -33265,37 +33265,37 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K30" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L30" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M30" t="n">
-        <v>581.3243739860829</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N30" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O30" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P30" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q30" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R30" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S30" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T30" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U30" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V30" t="n">
         <v>0</v>
@@ -33335,25 +33335,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H31" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I31" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J31" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K31" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L31" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M31" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N31" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O31" t="n">
         <v>348.6767717920058</v>
@@ -33362,19 +33362,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q31" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R31" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S31" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T31" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U31" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -33411,7 +33411,7 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H32" t="n">
         <v>56.32071997135341</v>
@@ -33423,31 +33423,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K32" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L32" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M32" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N32" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O32" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P32" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q32" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R32" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S32" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T32" t="n">
         <v>24.07361910651528</v>
@@ -33490,10 +33490,10 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H33" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I33" t="n">
         <v>101.3076196007749</v>
@@ -33502,37 +33502,37 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K33" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L33" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M33" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N33" t="n">
-        <v>320.9147064709964</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O33" t="n">
-        <v>142.5962444444444</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P33" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q33" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R33" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S33" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T33" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U33" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V33" t="n">
         <v>0</v>
@@ -33572,25 +33572,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H34" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I34" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J34" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K34" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L34" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M34" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N34" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O34" t="n">
         <v>348.6767717920058</v>
@@ -33599,19 +33599,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q34" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R34" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S34" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T34" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U34" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -33648,7 +33648,7 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H35" t="n">
         <v>56.32071997135341</v>
@@ -33660,31 +33660,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K35" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L35" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M35" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N35" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O35" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P35" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q35" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R35" t="n">
-        <v>345.4516222043725</v>
+        <v>345.451622204372</v>
       </c>
       <c r="S35" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T35" t="n">
         <v>24.07361910651528</v>
@@ -33727,49 +33727,49 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H36" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I36" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J36" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K36" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L36" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M36" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N36" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O36" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P36" t="n">
-        <v>134.7284881171895</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q36" t="n">
         <v>139.9817740860215</v>
       </c>
       <c r="R36" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S36" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T36" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U36" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V36" t="n">
         <v>0</v>
@@ -33809,25 +33809,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H37" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I37" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J37" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K37" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L37" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M37" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N37" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O37" t="n">
         <v>348.6767717920058</v>
@@ -33836,19 +33836,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q37" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R37" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S37" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T37" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U37" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -33885,7 +33885,7 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H38" t="n">
         <v>56.32071997135341</v>
@@ -33897,31 +33897,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K38" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L38" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M38" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N38" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O38" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P38" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q38" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R38" t="n">
-        <v>345.4516222043725</v>
+        <v>345.451622204372</v>
       </c>
       <c r="S38" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T38" t="n">
         <v>24.07361910651528</v>
@@ -33964,10 +33964,10 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H39" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I39" t="n">
         <v>101.3076196007749</v>
@@ -33976,37 +33976,37 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K39" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L39" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M39" t="n">
-        <v>581.3243739860829</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N39" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O39" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P39" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q39" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R39" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S39" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T39" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U39" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V39" t="n">
         <v>0</v>
@@ -34046,25 +34046,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H40" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I40" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J40" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K40" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L40" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M40" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N40" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O40" t="n">
         <v>348.6767717920058</v>
@@ -34073,19 +34073,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q40" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R40" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S40" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T40" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U40" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34122,7 +34122,7 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H41" t="n">
         <v>56.32071997135341</v>
@@ -34134,31 +34134,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K41" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L41" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M41" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N41" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O41" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P41" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q41" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R41" t="n">
-        <v>345.4516222043725</v>
+        <v>345.451622204372</v>
       </c>
       <c r="S41" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T41" t="n">
         <v>24.07361910651528</v>
@@ -34201,31 +34201,31 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H42" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I42" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J42" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K42" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L42" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M42" t="n">
-        <v>446.0127311990643</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N42" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O42" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P42" t="n">
         <v>133.9744074143302</v>
@@ -34237,13 +34237,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S42" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T42" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U42" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V42" t="n">
         <v>0</v>
@@ -34283,25 +34283,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H43" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I43" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J43" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K43" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L43" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M43" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N43" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O43" t="n">
         <v>348.6767717920058</v>
@@ -34310,19 +34310,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q43" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R43" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S43" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T43" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U43" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34359,7 +34359,7 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H44" t="n">
         <v>56.32071997135341</v>
@@ -34371,31 +34371,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K44" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L44" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M44" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N44" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O44" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P44" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q44" t="n">
         <v>593.8732233669224</v>
       </c>
       <c r="R44" t="n">
-        <v>345.4516222043725</v>
+        <v>345.451622204372</v>
       </c>
       <c r="S44" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T44" t="n">
         <v>24.07361910651528</v>
@@ -34438,10 +34438,10 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H45" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I45" t="n">
         <v>101.3076196007749</v>
@@ -34450,19 +34450,19 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K45" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L45" t="n">
-        <v>300.5543663814922</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M45" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N45" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O45" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P45" t="n">
         <v>133.9744074143302</v>
@@ -34471,16 +34471,16 @@
         <v>139.9817740860215</v>
       </c>
       <c r="R45" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S45" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T45" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U45" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V45" t="n">
         <v>0</v>
@@ -34520,25 +34520,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H46" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I46" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J46" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K46" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L46" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M46" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N46" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O46" t="n">
         <v>348.6767717920058</v>
@@ -34547,19 +34547,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q46" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R46" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S46" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T46" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U46" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -34698,31 +34698,31 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>190.7870009687126</v>
+        <v>190.7870009687125</v>
       </c>
       <c r="K2" t="n">
-        <v>337.1912865554005</v>
+        <v>337.1912865554004</v>
       </c>
       <c r="L2" t="n">
-        <v>455.5901143923322</v>
+        <v>455.5901143923319</v>
       </c>
       <c r="M2" t="n">
-        <v>538.9211158302268</v>
+        <v>538.9211158302265</v>
       </c>
       <c r="N2" t="n">
-        <v>552.3018354129115</v>
+        <v>552.3018354129113</v>
       </c>
       <c r="O2" t="n">
-        <v>508.0530008882191</v>
+        <v>508.053000888219</v>
       </c>
       <c r="P2" t="n">
-        <v>398.7619862193719</v>
+        <v>398.7619862193716</v>
       </c>
       <c r="Q2" t="n">
-        <v>250.7943048037195</v>
+        <v>250.7943048037194</v>
       </c>
       <c r="R2" t="n">
-        <v>59.61319854222478</v>
+        <v>59.61319854222472</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -34777,28 +34777,28 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>94.6235045359771</v>
+        <v>94.62350453597705</v>
       </c>
       <c r="K3" t="n">
         <v>240.6709080609567</v>
       </c>
       <c r="L3" t="n">
-        <v>370.4021821340054</v>
+        <v>370.4021821340053</v>
       </c>
       <c r="M3" t="n">
-        <v>451.7942679013292</v>
+        <v>451.7942679013291</v>
       </c>
       <c r="N3" t="n">
-        <v>478.3061046004592</v>
+        <v>478.3061046004591</v>
       </c>
       <c r="O3" t="n">
-        <v>415.1124034525806</v>
+        <v>415.1124034525805</v>
       </c>
       <c r="P3" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q3" t="n">
-        <v>159.2338966127272</v>
+        <v>159.2338966127271</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34856,10 +34856,10 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>45.57841661306622</v>
+        <v>45.5784166130662</v>
       </c>
       <c r="K4" t="n">
-        <v>206.0476595443196</v>
+        <v>206.0476595443195</v>
       </c>
       <c r="L4" t="n">
         <v>319.7573721701981</v>
@@ -34871,13 +34871,13 @@
         <v>344.8569461675401</v>
       </c>
       <c r="O4" t="n">
-        <v>302.3531302226398</v>
+        <v>302.3531302226397</v>
       </c>
       <c r="P4" t="n">
         <v>234.9570711451104</v>
       </c>
       <c r="Q4" t="n">
-        <v>78.39423853789366</v>
+        <v>78.39423853789363</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -35406,31 +35406,31 @@
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>1.539690236317341</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J11" t="n">
-        <v>285.7087110396421</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K11" t="n">
-        <v>479.4543240367772</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L11" t="n">
-        <v>632.0799921462692</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M11" t="n">
-        <v>735.3001107902951</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N11" t="n">
-        <v>751.858447819352</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O11" t="n">
-        <v>696.4886512243163</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P11" t="n">
         <v>559.5874541683813</v>
       </c>
       <c r="Q11" t="n">
-        <v>371.567533492473</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R11" t="n">
         <v>129.8660843902405</v>
@@ -35485,28 +35485,28 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>0</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J12" t="n">
-        <v>151.1582247754089</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K12" t="n">
-        <v>337.2977496678997</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L12" t="n">
-        <v>500.3288951674332</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M12" t="n">
-        <v>509.9138629937507</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N12" t="n">
-        <v>0</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O12" t="n">
-        <v>557.4845759992801</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P12" t="n">
-        <v>427.9021712071398</v>
+        <v>0</v>
       </c>
       <c r="Q12" t="n">
         <v>0</v>
@@ -35567,7 +35567,7 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>81.04648326295344</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K13" t="n">
         <v>264.332588409635</v>
@@ -35579,7 +35579,7 @@
         <v>426.2724270010452</v>
       </c>
       <c r="N13" t="n">
-        <v>421.6261329899075</v>
+        <v>421.6261329899074</v>
       </c>
       <c r="O13" t="n">
         <v>373.2618997060455</v>
@@ -35722,34 +35722,34 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>0</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J15" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K15" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L15" t="n">
-        <v>0</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M15" t="n">
-        <v>440.9755796648388</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N15" t="n">
         <v>633.9373369238454</v>
       </c>
       <c r="O15" t="n">
-        <v>557.48457599928</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P15" t="n">
-        <v>427.9021712071396</v>
+        <v>0</v>
       </c>
       <c r="Q15" t="n">
-        <v>235.6178387625076</v>
+        <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>37.00975247789214</v>
+        <v>0</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -35959,7 +35959,7 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>0</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J18" t="n">
         <v>151.1582247754088</v>
@@ -35974,10 +35974,10 @@
         <v>603.4126137641938</v>
       </c>
       <c r="N18" t="n">
-        <v>334.4034204366973</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O18" t="n">
-        <v>557.48457599928</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P18" t="n">
         <v>0</v>
@@ -36196,13 +36196,13 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>0</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J21" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K21" t="n">
-        <v>37.76383318075146</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L21" t="n">
         <v>500.3288951674331</v>
@@ -36214,7 +36214,7 @@
         <v>633.9373369238454</v>
       </c>
       <c r="O21" t="n">
-        <v>557.48457599928</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P21" t="n">
         <v>0</v>
@@ -36354,34 +36354,34 @@
         <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J23" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K23" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L23" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M23" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N23" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O23" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P23" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q23" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R23" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36433,31 +36433,31 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>0</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J24" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K24" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L24" t="n">
-        <v>432.057294377817</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M24" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N24" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O24" t="n">
-        <v>0</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P24" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q24" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
@@ -36515,22 +36515,22 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K25" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L25" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M25" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N25" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O25" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P25" t="n">
         <v>295.631773306625</v>
@@ -36591,34 +36591,34 @@
         <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J26" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K26" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L26" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M26" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N26" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O26" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P26" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q26" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R26" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36670,34 +36670,34 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>0</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J27" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K27" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L27" t="n">
-        <v>0</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M27" t="n">
-        <v>592.1338044402482</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N27" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O27" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P27" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q27" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -36752,22 +36752,22 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K28" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L28" t="n">
-        <v>394.3420143191275</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M28" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N28" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O28" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P28" t="n">
         <v>295.631773306625</v>
@@ -36828,34 +36828,34 @@
         <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J29" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K29" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L29" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M29" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N29" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O29" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P29" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q29" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R29" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36907,34 +36907,34 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>1.785239600774915</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J30" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K30" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L30" t="n">
-        <v>0</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M30" t="n">
-        <v>439.1903400640646</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N30" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O30" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P30" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q30" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -36989,22 +36989,22 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K31" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L31" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M31" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N31" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O31" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P31" t="n">
         <v>295.631773306625</v>
@@ -37065,34 +37065,34 @@
         <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J32" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K32" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L32" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M32" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N32" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O32" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P32" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q32" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R32" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37144,7 +37144,7 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>1.785239600774915</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J33" t="n">
         <v>151.1582247754088</v>
@@ -37153,25 +37153,25 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L33" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M33" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N33" t="n">
-        <v>189.5729943876631</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O33" t="n">
-        <v>0</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P33" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q33" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -37226,22 +37226,22 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K34" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L34" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M34" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N34" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O34" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P34" t="n">
         <v>295.631773306625</v>
@@ -37302,34 +37302,34 @@
         <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J35" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K35" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L35" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M35" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N35" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O35" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P35" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q35" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R35" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902399</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37381,34 +37381,34 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>0</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J36" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K36" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L36" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M36" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N36" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O36" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P36" t="n">
-        <v>0.7540807028592577</v>
+        <v>0</v>
       </c>
       <c r="Q36" t="n">
         <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -37463,22 +37463,22 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K37" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L37" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M37" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N37" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O37" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P37" t="n">
         <v>295.631773306625</v>
@@ -37539,34 +37539,34 @@
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J38" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K38" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L38" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M38" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N38" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O38" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P38" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q38" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R38" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902399</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37618,34 +37618,34 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>1.785239600774915</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J39" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K39" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L39" t="n">
-        <v>0</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M39" t="n">
-        <v>439.1903400640646</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N39" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O39" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P39" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q39" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -37700,22 +37700,22 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K40" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L40" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M40" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N40" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O40" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P40" t="n">
         <v>295.631773306625</v>
@@ -37776,34 +37776,34 @@
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J41" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K41" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L41" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M41" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N41" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O41" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P41" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q41" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R41" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902399</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37855,7 +37855,7 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>0</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J42" t="n">
         <v>151.1582247754088</v>
@@ -37864,16 +37864,16 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L42" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M42" t="n">
-        <v>303.8786972770459</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N42" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O42" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P42" t="n">
         <v>0</v>
@@ -37937,22 +37937,22 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K43" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L43" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M43" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N43" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O43" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P43" t="n">
         <v>295.631773306625</v>
@@ -38013,34 +38013,34 @@
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J44" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K44" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L44" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M44" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N44" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O44" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P44" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q44" t="n">
         <v>371.5675334924729</v>
       </c>
       <c r="R44" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902399</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38092,7 +38092,7 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>1.785239600774915</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J45" t="n">
         <v>151.1582247754088</v>
@@ -38101,16 +38101,16 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L45" t="n">
-        <v>161.999986601618</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M45" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N45" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O45" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P45" t="n">
         <v>0</v>
@@ -38119,7 +38119,7 @@
         <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -38174,22 +38174,22 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K46" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L46" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M46" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N46" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O46" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P46" t="n">
         <v>295.631773306625</v>

--- a/Outputs/1. Budget/Grid Search/Output Files/2000000/Output_16_25.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/2000000/Output_16_25.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.01</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1474337.439452218</v>
+        <v>1476097.969755003</v>
       </c>
     </row>
     <row r="7">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>416855.1052283183</v>
+        <v>416855.1052283199</v>
       </c>
     </row>
     <row r="9">
@@ -664,10 +664,10 @@
         <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>66.76195975981638</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
-        <v>381.9303700722618</v>
+        <v>269.8811238791491</v>
       </c>
       <c r="F2" t="n">
         <v>406.8760457417114</v>
@@ -676,10 +676,10 @@
         <v>410.9217256534534</v>
       </c>
       <c r="H2" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>41.57692977292598</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -712,10 +712,10 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T2" t="n">
-        <v>203.9179701396202</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U2" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
         <v>327.7522584701349</v>
@@ -724,7 +724,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
         <v>0</v>
@@ -755,10 +755,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H3" t="n">
-        <v>89.59687541851116</v>
+        <v>89.59687541851115</v>
       </c>
       <c r="I3" t="n">
-        <v>18.81721868247745</v>
+        <v>18.81721868247742</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -785,7 +785,7 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>0.1429098734089393</v>
+        <v>0.1429098734098397</v>
       </c>
       <c r="S3" t="n">
         <v>128.1435076414547</v>
@@ -816,7 +816,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>69.42562816460783</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
         <v>167.2468210986278</v>
@@ -825,19 +825,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
-        <v>146.4339626465692</v>
+        <v>140.3233687625875</v>
       </c>
       <c r="F4" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
         <v>144.7550149143208</v>
       </c>
       <c r="I4" t="n">
-        <v>96.35242040983812</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -873,7 +873,7 @@
         <v>219.5489492761692</v>
       </c>
       <c r="U4" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V4" t="n">
         <v>252.137643323828</v>
@@ -882,10 +882,10 @@
         <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="5">
@@ -895,16 +895,16 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>75.45713216103611</v>
+        <v>20.29515656310171</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
         <v>406.8760457417114</v>
@@ -916,7 +916,7 @@
         <v>294.6077643873205</v>
       </c>
       <c r="I5" t="n">
-        <v>41.57692977292598</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -949,19 +949,19 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T5" t="n">
-        <v>203.9179701396202</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U5" t="n">
         <v>250.995171958902</v>
       </c>
       <c r="V5" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
         <v>386.2379386560536</v>
@@ -992,10 +992,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H6" t="n">
-        <v>89.59687541851116</v>
+        <v>89.59687541851115</v>
       </c>
       <c r="I6" t="n">
-        <v>18.81721868247745</v>
+        <v>18.81721868247742</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1022,7 +1022,7 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>0.1429098734098488</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S6" t="n">
         <v>128.1435076414547</v>
@@ -1065,7 +1065,7 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
-        <v>145.4210480229312</v>
+        <v>51.06561173382013</v>
       </c>
       <c r="G7" t="n">
         <v>166.0258082590282</v>
@@ -1110,7 +1110,7 @@
         <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>124.2292170629834</v>
+        <v>0</v>
       </c>
       <c r="V7" t="n">
         <v>252.137643323828</v>
@@ -1122,7 +1122,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="8">
@@ -1132,7 +1132,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>75.45713216103701</v>
       </c>
       <c r="C8" t="n">
         <v>0</v>
@@ -1141,7 +1141,7 @@
         <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>75.45713216103611</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
         <v>406.8760457417114</v>
@@ -1305,7 +1305,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
@@ -1347,10 +1347,10 @@
         <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>71.67037196991727</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>252.137643323828</v>
+        <v>157.7822070347172</v>
       </c>
       <c r="W10" t="n">
         <v>286.522998336591</v>
@@ -1387,7 +1387,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H11" t="n">
-        <v>283.1540821444137</v>
+        <v>283.1540821444132</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -1420,7 +1420,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T11" t="n">
         <v>199.0222304576161</v>
@@ -1429,7 +1429,7 @@
         <v>250.9057009881286</v>
       </c>
       <c r="V11" t="n">
-        <v>327.7522584701355</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W11" t="n">
         <v>349.240968717413</v>
@@ -1533,19 +1533,19 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>99.97427419833815</v>
       </c>
       <c r="F13" t="n">
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>83.06560892428212</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
@@ -1575,7 +1575,7 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S13" t="n">
         <v>181.0262860016446</v>
@@ -1624,7 +1624,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H14" t="n">
-        <v>283.1540821444137</v>
+        <v>283.1540821444123</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -1657,13 +1657,13 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T14" t="n">
         <v>199.0222304576161</v>
       </c>
       <c r="U14" t="n">
-        <v>250.9057009881284</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V14" t="n">
         <v>327.7522584701349</v>
@@ -1770,19 +1770,19 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H16" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
         <v>0</v>
@@ -1812,16 +1812,16 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S16" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T16" t="n">
-        <v>160.1763464053464</v>
+        <v>146.1850499531015</v>
       </c>
       <c r="U16" t="n">
-        <v>286.1844743892441</v>
+        <v>0</v>
       </c>
       <c r="V16" t="n">
         <v>252.137643323828</v>
@@ -1894,7 +1894,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>83.70251495695619</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T17" t="n">
         <v>199.0222304576161</v>
@@ -1903,7 +1903,7 @@
         <v>250.9057009881286</v>
       </c>
       <c r="V17" t="n">
-        <v>327.7522584701349</v>
+        <v>327.7522584701337</v>
       </c>
       <c r="W17" t="n">
         <v>349.240968717413</v>
@@ -2019,10 +2019,10 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H19" t="n">
-        <v>83.06560892428212</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2049,7 +2049,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S19" t="n">
         <v>181.0262860016446</v>
@@ -2064,7 +2064,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W19" t="n">
-        <v>286.522998336591</v>
+        <v>148.0280580960833</v>
       </c>
       <c r="X19" t="n">
         <v>225.7096553890372</v>
@@ -2098,7 +2098,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H20" t="n">
-        <v>283.1540821444137</v>
+        <v>283.1540821444123</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
@@ -2131,7 +2131,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T20" t="n">
         <v>199.0222304576161</v>
@@ -2241,22 +2241,22 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
         <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>108.2950343703271</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H22" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
         <v>0</v>
@@ -2286,10 +2286,10 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S22" t="n">
-        <v>181.0262860016446</v>
+        <v>137.3021949834109</v>
       </c>
       <c r="T22" t="n">
         <v>217.4054503272883</v>
@@ -2323,7 +2323,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D23" t="n">
-        <v>354.683041620683</v>
+        <v>354.6830416206816</v>
       </c>
       <c r="E23" t="n">
         <v>381.9303700722618</v>
@@ -2335,7 +2335,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H23" t="n">
-        <v>283.1540821444141</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I23" t="n">
         <v>0</v>
@@ -2368,7 +2368,7 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T23" t="n">
         <v>199.0222304576161</v>
@@ -2481,22 +2481,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>83.06560892428168</v>
       </c>
       <c r="E25" t="n">
         <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H25" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2523,13 +2523,13 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T25" t="n">
-        <v>180.8909947756162</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U25" t="n">
         <v>286.1844743892441</v>
@@ -2569,7 +2569,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G26" t="n">
-        <v>409.803338518787</v>
+        <v>409.8033385187866</v>
       </c>
       <c r="H26" t="n">
         <v>283.1540821444137</v>
@@ -2605,7 +2605,7 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T26" t="n">
         <v>199.0222304576161</v>
@@ -2712,13 +2712,13 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C28" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
         <v>0</v>
@@ -2733,7 +2733,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2760,10 +2760,10 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>181.0262860016446</v>
+        <v>140.1230996349835</v>
       </c>
       <c r="T28" t="n">
         <v>217.4054503272883</v>
@@ -2775,7 +2775,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W28" t="n">
-        <v>229.2938944146491</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X28" t="n">
         <v>225.7096553890372</v>
@@ -2794,7 +2794,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C29" t="n">
-        <v>365.2728917710076</v>
+        <v>365.2728917710062</v>
       </c>
       <c r="D29" t="n">
         <v>354.683041620683</v>
@@ -2803,7 +2803,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F29" t="n">
-        <v>406.8760457417118</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G29" t="n">
         <v>409.8033385187866</v>
@@ -2842,7 +2842,7 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T29" t="n">
         <v>199.0222304576161</v>
@@ -2955,19 +2955,19 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>83.06560892428168</v>
       </c>
       <c r="E31" t="n">
         <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>9.146142788179874</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H31" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
         <v>0</v>
@@ -2997,7 +2997,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S31" t="n">
         <v>181.0262860016446</v>
@@ -3079,16 +3079,16 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T32" t="n">
         <v>199.0222304576161</v>
       </c>
       <c r="U32" t="n">
-        <v>250.9057009881286</v>
+        <v>250.9057009881284</v>
       </c>
       <c r="V32" t="n">
-        <v>327.7522584701355</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W32" t="n">
         <v>349.240968717413</v>
@@ -3189,25 +3189,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C34" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
-        <v>28.75188085812055</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
-        <v>165.5241382922688</v>
+        <v>55.52079624060383</v>
       </c>
       <c r="H34" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3234,10 +3234,10 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T34" t="n">
         <v>217.4054503272883</v>
@@ -3316,7 +3316,7 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T35" t="n">
         <v>199.0222304576161</v>
@@ -3435,13 +3435,13 @@
         <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>83.06560892428213</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>83.06560892428168</v>
       </c>
       <c r="I37" t="n">
         <v>0</v>
@@ -3471,7 +3471,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S37" t="n">
         <v>181.0262860016446</v>
@@ -3553,7 +3553,7 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T38" t="n">
         <v>199.0222304576161</v>
@@ -3663,10 +3663,10 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C40" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
         <v>0</v>
@@ -3708,13 +3708,13 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>66.37524671012166</v>
+        <v>9.146142788179482</v>
       </c>
       <c r="S40" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T40" t="n">
-        <v>178.8076944857619</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U40" t="n">
         <v>286.1844743892441</v>
@@ -3790,10 +3790,10 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T41" t="n">
-        <v>199.0222304576161</v>
+        <v>199.0222304576164</v>
       </c>
       <c r="U41" t="n">
         <v>250.9057009881286</v>
@@ -3897,25 +3897,25 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C43" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
-        <v>122.6028762599956</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H43" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
         <v>0</v>
@@ -3945,13 +3945,13 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>217.4054503272883</v>
+        <v>107.4021082756239</v>
       </c>
       <c r="U43" t="n">
         <v>286.1844743892441</v>
@@ -4027,7 +4027,7 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T44" t="n">
         <v>199.0222304576161</v>
@@ -4134,28 +4134,28 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C46" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D46" t="n">
-        <v>41.33703994143007</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
         <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H46" t="n">
-        <v>140.2947128462239</v>
+        <v>4.019807611472022</v>
       </c>
       <c r="I46" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4182,7 +4182,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S46" t="n">
         <v>181.0262860016446</v>
@@ -4306,34 +4306,34 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1685.375546116516</v>
+        <v>1565.440264581601</v>
       </c>
       <c r="C2" t="n">
-        <v>1685.375546116516</v>
+        <v>1565.440264581601</v>
       </c>
       <c r="D2" t="n">
-        <v>1617.939223126803</v>
+        <v>1207.17456597485</v>
       </c>
       <c r="E2" t="n">
-        <v>1232.150970528558</v>
+        <v>934.5673701373257</v>
       </c>
       <c r="F2" t="n">
-        <v>821.1650657389509</v>
+        <v>523.5814653477182</v>
       </c>
       <c r="G2" t="n">
-        <v>406.0926155839475</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="H2" t="n">
         <v>108.5090151927147</v>
       </c>
       <c r="I2" t="n">
-        <v>66.51211643218339</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J2" t="n">
         <v>255.3912473912089</v>
       </c>
       <c r="K2" t="n">
-        <v>589.2106210810555</v>
+        <v>589.2106210810553</v>
       </c>
       <c r="L2" t="n">
         <v>1040.244834329464</v>
@@ -4342,16 +4342,16 @@
         <v>1573.776739001388</v>
       </c>
       <c r="N2" t="n">
-        <v>2120.55555606017</v>
+        <v>2120.555556060171</v>
       </c>
       <c r="O2" t="n">
-        <v>2623.528026939507</v>
+        <v>2623.528026939508</v>
       </c>
       <c r="P2" t="n">
-        <v>3018.302393296684</v>
+        <v>3018.302393296686</v>
       </c>
       <c r="Q2" t="n">
-        <v>3266.588755052367</v>
+        <v>3266.588755052368</v>
       </c>
       <c r="R2" t="n">
         <v>3325.60582160917</v>
@@ -4363,19 +4363,19 @@
         <v>3009.337405520487</v>
       </c>
       <c r="U2" t="n">
-        <v>2755.806928794323</v>
+        <v>3009.337405520487</v>
       </c>
       <c r="V2" t="n">
-        <v>2424.744041450752</v>
+        <v>2678.274518176916</v>
       </c>
       <c r="W2" t="n">
-        <v>2071.975386180638</v>
+        <v>2325.505862906802</v>
       </c>
       <c r="X2" t="n">
-        <v>2071.975386180638</v>
+        <v>1952.040104645722</v>
       </c>
       <c r="Y2" t="n">
-        <v>2071.975386180638</v>
+        <v>1952.040104645722</v>
       </c>
     </row>
     <row r="3">
@@ -4400,22 +4400,22 @@
         <v>312.3844025601599</v>
       </c>
       <c r="G3" t="n">
-        <v>176.021302392778</v>
+        <v>176.0213023927779</v>
       </c>
       <c r="H3" t="n">
         <v>85.51940803064545</v>
       </c>
       <c r="I3" t="n">
-        <v>66.51211643218339</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J3" t="n">
         <v>160.1893859228007</v>
       </c>
       <c r="K3" t="n">
-        <v>398.4535849031478</v>
+        <v>398.4535849031479</v>
       </c>
       <c r="L3" t="n">
-        <v>765.151745215813</v>
+        <v>765.1517452158132</v>
       </c>
       <c r="M3" t="n">
         <v>1212.428070438129</v>
@@ -4427,10 +4427,10 @@
         <v>2096.912393410638</v>
       </c>
       <c r="P3" t="n">
-        <v>2407.41198488674</v>
+        <v>2407.411984886741</v>
       </c>
       <c r="Q3" t="n">
-        <v>2565.05354253334</v>
+        <v>2565.053542533341</v>
       </c>
       <c r="R3" t="n">
         <v>2564.909189125856</v>
@@ -4464,40 +4464,40 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>1091.613680441807</v>
+        <v>820.4128495803448</v>
       </c>
       <c r="C4" t="n">
-        <v>922.6774975139006</v>
+        <v>651.4766666524379</v>
       </c>
       <c r="D4" t="n">
-        <v>772.5608581015648</v>
+        <v>501.3600272401021</v>
       </c>
       <c r="E4" t="n">
-        <v>624.6477645191717</v>
+        <v>359.619250712236</v>
       </c>
       <c r="F4" t="n">
-        <v>477.7578170212613</v>
+        <v>212.7293032143256</v>
       </c>
       <c r="G4" t="n">
-        <v>310.0549803959803</v>
+        <v>212.7293032143256</v>
       </c>
       <c r="H4" t="n">
-        <v>163.8377936138381</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="I4" t="n">
-        <v>66.51211643218339</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J4" t="n">
-        <v>111.6347488791189</v>
+        <v>111.634748879119</v>
       </c>
       <c r="K4" t="n">
-        <v>315.6219318279952</v>
+        <v>315.6219318279954</v>
       </c>
       <c r="L4" t="n">
         <v>632.1817302764914</v>
       </c>
       <c r="M4" t="n">
-        <v>976.3387758760404</v>
+        <v>976.3387758760405</v>
       </c>
       <c r="N4" t="n">
         <v>1317.747152581905</v>
@@ -4509,31 +4509,31 @@
         <v>1849.684251935978</v>
       </c>
       <c r="Q4" t="n">
-        <v>1927.294548088492</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="R4" t="n">
-        <v>1927.294548088492</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="S4" t="n">
-        <v>1927.294548088492</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="T4" t="n">
-        <v>1705.527932658018</v>
+        <v>1705.527932658019</v>
       </c>
       <c r="U4" t="n">
-        <v>1416.425065783662</v>
+        <v>1705.527932658019</v>
       </c>
       <c r="V4" t="n">
-        <v>1161.740577577775</v>
+        <v>1450.843444452132</v>
       </c>
       <c r="W4" t="n">
-        <v>1161.740577577775</v>
+        <v>1450.843444452132</v>
       </c>
       <c r="X4" t="n">
-        <v>1161.740577577775</v>
+        <v>1222.853893554115</v>
       </c>
       <c r="Y4" t="n">
-        <v>1161.740577577775</v>
+        <v>1002.061314410584</v>
       </c>
     </row>
     <row r="5">
@@ -4543,13 +4543,13 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1232.150970528558</v>
+        <v>2345.167438673965</v>
       </c>
       <c r="C5" t="n">
-        <v>1232.150970528558</v>
+        <v>1976.204921733553</v>
       </c>
       <c r="D5" t="n">
-        <v>1232.150970528558</v>
+        <v>1617.939223126803</v>
       </c>
       <c r="E5" t="n">
         <v>1232.150970528558</v>
@@ -4564,13 +4564,13 @@
         <v>108.5090151927147</v>
       </c>
       <c r="I5" t="n">
-        <v>66.51211643218339</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J5" t="n">
-        <v>255.3912473912087</v>
+        <v>255.3912473912089</v>
       </c>
       <c r="K5" t="n">
-        <v>589.210621081055</v>
+        <v>589.2106210810553</v>
       </c>
       <c r="L5" t="n">
         <v>1040.244834329464</v>
@@ -4579,40 +4579,40 @@
         <v>1573.776739001388</v>
       </c>
       <c r="N5" t="n">
-        <v>2120.55555606017</v>
+        <v>2120.555556060171</v>
       </c>
       <c r="O5" t="n">
-        <v>2623.528026939507</v>
+        <v>2623.528026939508</v>
       </c>
       <c r="P5" t="n">
-        <v>3018.302393296685</v>
+        <v>3018.302393296686</v>
       </c>
       <c r="Q5" t="n">
-        <v>3266.588755052367</v>
+        <v>3266.588755052368</v>
       </c>
       <c r="R5" t="n">
-        <v>3325.60582160917</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="S5" t="n">
-        <v>3215.315153136265</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="T5" t="n">
-        <v>3009.337405520487</v>
+        <v>3009.337405520488</v>
       </c>
       <c r="U5" t="n">
-        <v>2755.806928794323</v>
+        <v>2755.806928794324</v>
       </c>
       <c r="V5" t="n">
-        <v>2424.744041450752</v>
+        <v>2755.806928794324</v>
       </c>
       <c r="W5" t="n">
-        <v>2071.975386180638</v>
+        <v>2755.806928794324</v>
       </c>
       <c r="X5" t="n">
-        <v>1698.509627919558</v>
+        <v>2755.806928794324</v>
       </c>
       <c r="Y5" t="n">
-        <v>1308.370295943746</v>
+        <v>2365.667596818512</v>
       </c>
     </row>
     <row r="6">
@@ -4622,76 +4622,76 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>941.5438544811082</v>
+        <v>941.5438544811095</v>
       </c>
       <c r="C6" t="n">
-        <v>767.0908251999812</v>
+        <v>767.0908251999825</v>
       </c>
       <c r="D6" t="n">
-        <v>618.15641553873</v>
+        <v>618.1564155387314</v>
       </c>
       <c r="E6" t="n">
-        <v>458.9189605332745</v>
+        <v>458.9189605332758</v>
       </c>
       <c r="F6" t="n">
-        <v>312.3844025601595</v>
+        <v>312.3844025601609</v>
       </c>
       <c r="G6" t="n">
-        <v>176.0213023927781</v>
+        <v>176.0213023927789</v>
       </c>
       <c r="H6" t="n">
-        <v>85.51940803064545</v>
+        <v>85.51940803064583</v>
       </c>
       <c r="I6" t="n">
-        <v>66.51211643218339</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J6" t="n">
-        <v>160.1893859228005</v>
+        <v>160.189385922801</v>
       </c>
       <c r="K6" t="n">
-        <v>398.4535849031476</v>
+        <v>398.4535849031484</v>
       </c>
       <c r="L6" t="n">
-        <v>765.1517452158129</v>
+        <v>765.1517452158141</v>
       </c>
       <c r="M6" t="n">
-        <v>1212.428070438129</v>
+        <v>1212.42807043813</v>
       </c>
       <c r="N6" t="n">
-        <v>1685.951113992583</v>
+        <v>1685.951113992584</v>
       </c>
       <c r="O6" t="n">
-        <v>2096.912393410638</v>
+        <v>2096.912393410639</v>
       </c>
       <c r="P6" t="n">
-        <v>2407.411984886741</v>
+        <v>2407.411984886742</v>
       </c>
       <c r="Q6" t="n">
-        <v>2565.053542533341</v>
+        <v>2565.053542533342</v>
       </c>
       <c r="R6" t="n">
-        <v>2564.909189125856</v>
+        <v>2564.909189125858</v>
       </c>
       <c r="S6" t="n">
-        <v>2435.471302619336</v>
+        <v>2435.471302619338</v>
       </c>
       <c r="T6" t="n">
-        <v>2242.828302297192</v>
+        <v>2242.828302297193</v>
       </c>
       <c r="U6" t="n">
-        <v>2014.760455431607</v>
+        <v>2014.760455431609</v>
       </c>
       <c r="V6" t="n">
-        <v>1779.608347199865</v>
+        <v>1779.608347199866</v>
       </c>
       <c r="W6" t="n">
-        <v>1525.370990471663</v>
+        <v>1525.370990471664</v>
       </c>
       <c r="X6" t="n">
-        <v>1317.51949026613</v>
+        <v>1317.519490266131</v>
       </c>
       <c r="Y6" t="n">
-        <v>1109.759191501176</v>
+        <v>1109.759191501178</v>
       </c>
     </row>
     <row r="7">
@@ -4701,40 +4701,40 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>848.0708164780106</v>
+        <v>752.7622949738579</v>
       </c>
       <c r="C7" t="n">
-        <v>679.1346335501037</v>
+        <v>583.826112045951</v>
       </c>
       <c r="D7" t="n">
-        <v>529.0179941377679</v>
+        <v>433.7094726336153</v>
       </c>
       <c r="E7" t="n">
-        <v>381.1049005553748</v>
+        <v>285.7963790512222</v>
       </c>
       <c r="F7" t="n">
-        <v>234.2149530574644</v>
+        <v>234.2149530574645</v>
       </c>
       <c r="G7" t="n">
-        <v>66.51211643218339</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="H7" t="n">
-        <v>66.51211643218339</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="I7" t="n">
-        <v>66.51211643218339</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J7" t="n">
-        <v>111.6347488791189</v>
+        <v>111.634748879119</v>
       </c>
       <c r="K7" t="n">
-        <v>315.6219318279952</v>
+        <v>315.6219318279954</v>
       </c>
       <c r="L7" t="n">
         <v>632.1817302764914</v>
       </c>
       <c r="M7" t="n">
-        <v>976.3387758760404</v>
+        <v>976.3387758760405</v>
       </c>
       <c r="N7" t="n">
         <v>1317.747152581905</v>
@@ -4746,31 +4746,31 @@
         <v>1849.684251935978</v>
       </c>
       <c r="Q7" t="n">
-        <v>1927.294548088492</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="R7" t="n">
-        <v>1927.294548088492</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="S7" t="n">
-        <v>1927.294548088492</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="T7" t="n">
-        <v>1927.294548088492</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="U7" t="n">
-        <v>1801.810490449115</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="V7" t="n">
-        <v>1547.126002243228</v>
+        <v>1672.610059882606</v>
       </c>
       <c r="W7" t="n">
-        <v>1257.708832206268</v>
+        <v>1383.192889845645</v>
       </c>
       <c r="X7" t="n">
-        <v>1029.71928130825</v>
+        <v>1155.203338947628</v>
       </c>
       <c r="Y7" t="n">
-        <v>1029.71928130825</v>
+        <v>934.4107598040977</v>
       </c>
     </row>
     <row r="8">
@@ -4780,13 +4780,13 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1308.370295943746</v>
+        <v>1232.150970528558</v>
       </c>
       <c r="C8" t="n">
-        <v>1308.370295943746</v>
+        <v>1232.150970528558</v>
       </c>
       <c r="D8" t="n">
-        <v>1308.370295943746</v>
+        <v>1232.150970528558</v>
       </c>
       <c r="E8" t="n">
         <v>1232.150970528558</v>
@@ -4801,10 +4801,10 @@
         <v>108.5090151927147</v>
       </c>
       <c r="I8" t="n">
-        <v>66.51211643218339</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J8" t="n">
-        <v>255.3912473912088</v>
+        <v>255.3912473912089</v>
       </c>
       <c r="K8" t="n">
         <v>589.2106210810553</v>
@@ -4816,40 +4816,40 @@
         <v>1573.776739001388</v>
       </c>
       <c r="N8" t="n">
-        <v>2120.55555606017</v>
+        <v>2120.555556060171</v>
       </c>
       <c r="O8" t="n">
-        <v>2623.528026939507</v>
+        <v>2623.528026939508</v>
       </c>
       <c r="P8" t="n">
-        <v>3018.302393296685</v>
+        <v>3018.302393296686</v>
       </c>
       <c r="Q8" t="n">
-        <v>3266.588755052367</v>
+        <v>3266.588755052368</v>
       </c>
       <c r="R8" t="n">
-        <v>3325.60582160917</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="S8" t="n">
-        <v>3215.315153136265</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="T8" t="n">
-        <v>3009.337405520487</v>
+        <v>3009.337405520488</v>
       </c>
       <c r="U8" t="n">
-        <v>2755.806928794323</v>
+        <v>2755.806928794324</v>
       </c>
       <c r="V8" t="n">
-        <v>2424.744041450752</v>
+        <v>2424.744041450753</v>
       </c>
       <c r="W8" t="n">
-        <v>2071.975386180638</v>
+        <v>2071.975386180639</v>
       </c>
       <c r="X8" t="n">
-        <v>1698.509627919558</v>
+        <v>1698.509627919559</v>
       </c>
       <c r="Y8" t="n">
-        <v>1308.370295943746</v>
+        <v>1308.370295943747</v>
       </c>
     </row>
     <row r="9">
@@ -4859,40 +4859,40 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>941.5438544811082</v>
+        <v>941.5438544811086</v>
       </c>
       <c r="C9" t="n">
-        <v>767.0908251999812</v>
+        <v>767.0908251999816</v>
       </c>
       <c r="D9" t="n">
-        <v>618.15641553873</v>
+        <v>618.1564155387305</v>
       </c>
       <c r="E9" t="n">
-        <v>458.9189605332745</v>
+        <v>458.9189605332749</v>
       </c>
       <c r="F9" t="n">
-        <v>312.3844025601595</v>
+        <v>312.38440256016</v>
       </c>
       <c r="G9" t="n">
-        <v>176.0213023927781</v>
+        <v>176.0213023927786</v>
       </c>
       <c r="H9" t="n">
-        <v>85.51940803064544</v>
+        <v>85.51940803064583</v>
       </c>
       <c r="I9" t="n">
-        <v>66.51211643218339</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J9" t="n">
         <v>160.189385922801</v>
       </c>
       <c r="K9" t="n">
-        <v>398.4535849031481</v>
+        <v>398.4535849031483</v>
       </c>
       <c r="L9" t="n">
-        <v>765.1517452158135</v>
+        <v>765.1517452158139</v>
       </c>
       <c r="M9" t="n">
-        <v>1212.428070438129</v>
+        <v>1212.42807043813</v>
       </c>
       <c r="N9" t="n">
         <v>1685.951113992584</v>
@@ -4901,22 +4901,22 @@
         <v>2096.912393410639</v>
       </c>
       <c r="P9" t="n">
-        <v>2407.411984886741</v>
+        <v>2407.411984886742</v>
       </c>
       <c r="Q9" t="n">
         <v>2565.053542533341</v>
       </c>
       <c r="R9" t="n">
-        <v>2564.909189125856</v>
+        <v>2564.909189125857</v>
       </c>
       <c r="S9" t="n">
-        <v>2435.471302619336</v>
+        <v>2435.471302619337</v>
       </c>
       <c r="T9" t="n">
         <v>2242.828302297192</v>
       </c>
       <c r="U9" t="n">
-        <v>2014.760455431607</v>
+        <v>2014.760455431608</v>
       </c>
       <c r="V9" t="n">
         <v>1779.608347199865</v>
@@ -4925,10 +4925,10 @@
         <v>1525.370990471663</v>
       </c>
       <c r="X9" t="n">
-        <v>1317.51949026613</v>
+        <v>1317.519490266131</v>
       </c>
       <c r="Y9" t="n">
-        <v>1109.759191501176</v>
+        <v>1109.759191501177</v>
       </c>
     </row>
     <row r="10">
@@ -4938,31 +4938,31 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>680.3679798527295</v>
+        <v>848.0708164780106</v>
       </c>
       <c r="C10" t="n">
-        <v>511.4317969248226</v>
+        <v>679.1346335501037</v>
       </c>
       <c r="D10" t="n">
-        <v>361.3151575124868</v>
+        <v>529.0179941377679</v>
       </c>
       <c r="E10" t="n">
-        <v>213.4020639300937</v>
+        <v>381.1049005553748</v>
       </c>
       <c r="F10" t="n">
-        <v>66.51211643218339</v>
+        <v>234.2149530574645</v>
       </c>
       <c r="G10" t="n">
-        <v>66.51211643218339</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="H10" t="n">
-        <v>66.51211643218339</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="I10" t="n">
-        <v>66.51211643218339</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J10" t="n">
-        <v>111.6347488791189</v>
+        <v>111.634748879119</v>
       </c>
       <c r="K10" t="n">
         <v>315.6219318279954</v>
@@ -4995,19 +4995,19 @@
         <v>1927.294548088493</v>
       </c>
       <c r="U10" t="n">
-        <v>1854.900232967364</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="V10" t="n">
-        <v>1600.215744761477</v>
+        <v>1767.918581386758</v>
       </c>
       <c r="W10" t="n">
-        <v>1310.798574724517</v>
+        <v>1478.501411349798</v>
       </c>
       <c r="X10" t="n">
-        <v>1082.809023826499</v>
+        <v>1250.51186045178</v>
       </c>
       <c r="Y10" t="n">
-        <v>862.0164446829692</v>
+        <v>1029.71928130825</v>
       </c>
     </row>
     <row r="11">
@@ -5023,25 +5023,25 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D11" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E11" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F11" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168607</v>
       </c>
       <c r="G11" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362681</v>
       </c>
       <c r="H11" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I11" t="n">
-        <v>95.34095638192571</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J11" t="n">
-        <v>378.1925803111714</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K11" t="n">
         <v>852.8523611075807</v>
@@ -5059,31 +5059,31 @@
         <v>3640.42229106801</v>
       </c>
       <c r="P11" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q11" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R11" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S11" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T11" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U11" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V11" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W11" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X11" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y11" t="n">
         <v>2704.375866615997</v>
@@ -5105,7 +5105,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E12" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F12" t="n">
         <v>314.2396613568978</v>
@@ -5114,25 +5114,25 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H12" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I12" t="n">
-        <v>95.58405025273906</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J12" t="n">
-        <v>245.2306927803938</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K12" t="n">
-        <v>579.1554649516144</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L12" t="n">
-        <v>1074.481071167373</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M12" t="n">
-        <v>1671.859558793925</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N12" t="n">
-        <v>2299.457522348532</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O12" t="n">
         <v>2553.061288060775</v>
@@ -5175,76 +5175,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>513.8536007400717</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C13" t="n">
-        <v>344.9174178121648</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D13" t="n">
-        <v>344.9174178121648</v>
+        <v>194.8007783998286</v>
       </c>
       <c r="E13" t="n">
-        <v>344.9174178121648</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="F13" t="n">
-        <v>344.9174178121648</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G13" t="n">
-        <v>177.7213185270447</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H13" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I13" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J13" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K13" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L13" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M13" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N13" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O13" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P13" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q13" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R13" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S13" t="n">
-        <v>2197.062545487568</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T13" t="n">
-        <v>1977.461080510509</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U13" t="n">
-        <v>1688.385853854707</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V13" t="n">
-        <v>1433.70136564882</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W13" t="n">
-        <v>1144.284195611859</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X13" t="n">
-        <v>916.2946447138415</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y13" t="n">
-        <v>695.5020655703114</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="14">
@@ -5254,76 +5254,76 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C14" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D14" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E14" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406467</v>
       </c>
       <c r="F14" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168597</v>
       </c>
       <c r="G14" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362672</v>
       </c>
       <c r="H14" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I14" t="n">
-        <v>95.34095638192548</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J14" t="n">
-        <v>378.1925803111708</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K14" t="n">
-        <v>852.8523611075802</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L14" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M14" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N14" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O14" t="n">
         <v>3640.42229106801</v>
       </c>
       <c r="P14" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694706</v>
       </c>
       <c r="Q14" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852254</v>
       </c>
       <c r="R14" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S14" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T14" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474783</v>
       </c>
       <c r="U14" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V14" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W14" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X14" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y14" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="15">
@@ -5351,25 +5351,25 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H15" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I15" t="n">
-        <v>95.58405025273905</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J15" t="n">
-        <v>245.2306927803938</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K15" t="n">
-        <v>579.1554649516144</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L15" t="n">
-        <v>1074.481071167373</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M15" t="n">
-        <v>1671.859558793925</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N15" t="n">
-        <v>2299.457522348532</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O15" t="n">
         <v>2553.061288060775</v>
@@ -5412,76 +5412,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>571.6607764188008</v>
+        <v>874.8686257536381</v>
       </c>
       <c r="C16" t="n">
-        <v>402.7245934908938</v>
+        <v>705.9324428257312</v>
       </c>
       <c r="D16" t="n">
-        <v>402.7245934908938</v>
+        <v>555.8158034133954</v>
       </c>
       <c r="E16" t="n">
-        <v>402.7245934908938</v>
+        <v>407.9027098310023</v>
       </c>
       <c r="F16" t="n">
-        <v>402.7245934908938</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G16" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="H16" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I16" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J16" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K16" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L16" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M16" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N16" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O16" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P16" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q16" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R16" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S16" t="n">
-        <v>2197.062545487568</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T16" t="n">
-        <v>2035.268256189238</v>
+        <v>2049.400878868273</v>
       </c>
       <c r="U16" t="n">
-        <v>1746.193029533436</v>
+        <v>2049.400878868273</v>
       </c>
       <c r="V16" t="n">
-        <v>1491.508541327549</v>
+        <v>1794.716390662386</v>
       </c>
       <c r="W16" t="n">
-        <v>1202.091371290588</v>
+        <v>1505.299220625425</v>
       </c>
       <c r="X16" t="n">
-        <v>974.1018203925706</v>
+        <v>1277.309669727408</v>
       </c>
       <c r="Y16" t="n">
-        <v>753.3092412490405</v>
+        <v>1056.517090583878</v>
       </c>
     </row>
     <row r="17">
@@ -5509,16 +5509,16 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H17" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I17" t="n">
-        <v>95.34095638192605</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J17" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K17" t="n">
-        <v>852.852361107581</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L17" t="n">
         <v>1478.611553332387</v>
@@ -5527,28 +5527,28 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N17" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O17" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P17" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q17" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852254</v>
       </c>
       <c r="R17" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S17" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T17" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474783</v>
       </c>
       <c r="U17" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V17" t="n">
         <v>3820.749612123003</v>
@@ -5579,7 +5579,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E18" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F18" t="n">
         <v>314.2396613568978</v>
@@ -5588,25 +5588,25 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H18" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I18" t="n">
-        <v>95.58405025273906</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J18" t="n">
-        <v>245.2306927803938</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K18" t="n">
-        <v>579.1554649516144</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L18" t="n">
-        <v>1074.481071167373</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M18" t="n">
-        <v>1671.859558793925</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N18" t="n">
-        <v>2299.457522348532</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O18" t="n">
         <v>2553.061288060775</v>
@@ -5649,76 +5649,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>513.8536007400717</v>
+        <v>653.7474797708871</v>
       </c>
       <c r="C19" t="n">
-        <v>344.9174178121648</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="D19" t="n">
-        <v>344.9174178121648</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="E19" t="n">
-        <v>344.9174178121648</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="F19" t="n">
-        <v>344.9174178121648</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="G19" t="n">
-        <v>177.7213185270447</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="H19" t="n">
-        <v>93.81666304797189</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="I19" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J19" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K19" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L19" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M19" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N19" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O19" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P19" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q19" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R19" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S19" t="n">
-        <v>2197.062545487568</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T19" t="n">
-        <v>1977.461080510509</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U19" t="n">
-        <v>1688.385853854707</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V19" t="n">
-        <v>1433.70136564882</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W19" t="n">
-        <v>1144.284195611859</v>
+        <v>1284.178074642674</v>
       </c>
       <c r="X19" t="n">
-        <v>916.2946447138415</v>
+        <v>1056.188523744657</v>
       </c>
       <c r="Y19" t="n">
-        <v>695.5020655703114</v>
+        <v>835.3959446011269</v>
       </c>
     </row>
     <row r="20">
@@ -5728,76 +5728,76 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C20" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D20" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E20" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406467</v>
       </c>
       <c r="F20" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168597</v>
       </c>
       <c r="G20" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362672</v>
       </c>
       <c r="H20" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I20" t="n">
-        <v>95.34095638192571</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J20" t="n">
-        <v>378.1925803111714</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K20" t="n">
-        <v>852.8523611075798</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L20" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M20" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N20" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O20" t="n">
         <v>3640.422291068009</v>
       </c>
       <c r="P20" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694706</v>
       </c>
       <c r="Q20" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852254</v>
       </c>
       <c r="R20" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S20" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T20" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474783</v>
       </c>
       <c r="U20" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V20" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W20" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X20" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y20" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="21">
@@ -5825,28 +5825,28 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H21" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I21" t="n">
-        <v>95.58405025273905</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J21" t="n">
-        <v>245.2306927803938</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K21" t="n">
-        <v>579.1554649516144</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L21" t="n">
-        <v>1074.481071167373</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M21" t="n">
-        <v>1671.859558793925</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N21" t="n">
-        <v>2299.457522348532</v>
+        <v>2129.438138565707</v>
       </c>
       <c r="O21" t="n">
-        <v>2553.061288060775</v>
+        <v>2129.438138565707</v>
       </c>
       <c r="P21" t="n">
         <v>2553.061288060775</v>
@@ -5886,76 +5886,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>513.8536007400717</v>
+        <v>558.0193492433381</v>
       </c>
       <c r="C22" t="n">
-        <v>344.9174178121648</v>
+        <v>558.0193492433381</v>
       </c>
       <c r="D22" t="n">
-        <v>344.9174178121648</v>
+        <v>407.9027098310023</v>
       </c>
       <c r="E22" t="n">
-        <v>344.9174178121648</v>
+        <v>407.9027098310023</v>
       </c>
       <c r="F22" t="n">
-        <v>344.9174178121648</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G22" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="H22" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I22" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J22" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K22" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L22" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M22" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N22" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O22" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P22" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q22" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R22" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S22" t="n">
-        <v>2197.062545487568</v>
+        <v>2241.228293990834</v>
       </c>
       <c r="T22" t="n">
-        <v>1977.461080510509</v>
+        <v>2021.626829013775</v>
       </c>
       <c r="U22" t="n">
-        <v>1688.385853854707</v>
+        <v>1732.551602357973</v>
       </c>
       <c r="V22" t="n">
-        <v>1433.70136564882</v>
+        <v>1477.867114152086</v>
       </c>
       <c r="W22" t="n">
-        <v>1144.284195611859</v>
+        <v>1188.449944115125</v>
       </c>
       <c r="X22" t="n">
-        <v>916.2946447138415</v>
+        <v>960.4603932171079</v>
       </c>
       <c r="Y22" t="n">
-        <v>695.5020655703114</v>
+        <v>739.6678140735778</v>
       </c>
     </row>
     <row r="23">
@@ -5965,10 +5965,10 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C23" t="n">
-        <v>1948.813509611464</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D23" t="n">
         <v>1590.547811004713</v>
@@ -5977,22 +5977,22 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F23" t="n">
-        <v>793.7736536168616</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G23" t="n">
-        <v>379.830887436269</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H23" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I23" t="n">
-        <v>95.34095638192571</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J23" t="n">
-        <v>378.1925803111714</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K23" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075806</v>
       </c>
       <c r="L23" t="n">
         <v>1478.611553332387</v>
@@ -6007,34 +6007,34 @@
         <v>3640.42229106801</v>
       </c>
       <c r="P23" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q23" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852254</v>
       </c>
       <c r="R23" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S23" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T23" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474783</v>
       </c>
       <c r="U23" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V23" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W23" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X23" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y23" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="24">
@@ -6053,7 +6053,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E24" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F24" t="n">
         <v>314.2396613568978</v>
@@ -6062,25 +6062,25 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H24" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I24" t="n">
-        <v>95.58405025273906</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J24" t="n">
-        <v>245.2306927803938</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K24" t="n">
-        <v>579.1554649516144</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L24" t="n">
-        <v>1074.481071167373</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M24" t="n">
-        <v>1671.859558793925</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N24" t="n">
-        <v>2299.457522348532</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O24" t="n">
         <v>2553.061288060775</v>
@@ -6123,76 +6123,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>800.6374272687974</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C25" t="n">
-        <v>631.7012443408905</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D25" t="n">
-        <v>631.7012443408905</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="E25" t="n">
-        <v>631.7012443408905</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="F25" t="n">
-        <v>484.8112968429802</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G25" t="n">
-        <v>317.6151975578601</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="H25" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I25" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J25" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K25" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L25" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M25" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N25" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O25" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P25" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q25" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R25" t="n">
-        <v>2446.963083580261</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S25" t="n">
-        <v>2446.963083580261</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T25" t="n">
-        <v>2264.244907039234</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U25" t="n">
-        <v>1975.169680383432</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V25" t="n">
-        <v>1720.485192177545</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W25" t="n">
-        <v>1431.068022140585</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X25" t="n">
-        <v>1203.078471242567</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y25" t="n">
-        <v>982.2858920990371</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="26">
@@ -6205,7 +6205,7 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C26" t="n">
-        <v>1948.813509611464</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D26" t="n">
         <v>1590.547811004713</v>
@@ -6214,7 +6214,7 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F26" t="n">
-        <v>793.7736536168616</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G26" t="n">
         <v>379.8308874362686</v>
@@ -6226,49 +6226,49 @@
         <v>95.34095638192599</v>
       </c>
       <c r="J26" t="n">
-        <v>378.1925803111716</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K26" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L26" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M26" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N26" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O26" t="n">
         <v>3640.42229106801</v>
       </c>
       <c r="P26" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q26" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R26" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S26" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T26" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U26" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V26" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W26" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X26" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y26" t="n">
         <v>2704.375866615997</v>
@@ -6290,7 +6290,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E27" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F27" t="n">
         <v>314.2396613568978</v>
@@ -6299,25 +6299,25 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H27" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I27" t="n">
-        <v>95.58405025273906</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J27" t="n">
-        <v>245.2306927803938</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K27" t="n">
-        <v>579.1554649516144</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L27" t="n">
-        <v>1074.481071167373</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M27" t="n">
-        <v>1671.859558793925</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N27" t="n">
-        <v>2299.457522348532</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O27" t="n">
         <v>2553.061288060775</v>
@@ -6360,76 +6360,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>571.6607764188008</v>
+        <v>803.8641191832229</v>
       </c>
       <c r="C28" t="n">
-        <v>402.7245934908938</v>
+        <v>634.927936255316</v>
       </c>
       <c r="D28" t="n">
-        <v>402.7245934908938</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="E28" t="n">
-        <v>402.7245934908938</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="F28" t="n">
-        <v>402.7245934908938</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G28" t="n">
-        <v>235.5284942057738</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H28" t="n">
-        <v>93.81666304797189</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I28" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J28" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K28" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L28" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M28" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N28" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O28" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P28" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q28" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R28" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S28" t="n">
-        <v>2197.062545487568</v>
+        <v>2305.424599100479</v>
       </c>
       <c r="T28" t="n">
-        <v>1977.461080510509</v>
+        <v>2085.82313412342</v>
       </c>
       <c r="U28" t="n">
-        <v>1688.385853854707</v>
+        <v>1796.747907467618</v>
       </c>
       <c r="V28" t="n">
-        <v>1433.70136564882</v>
+        <v>1542.063419261731</v>
       </c>
       <c r="W28" t="n">
-        <v>1202.091371290588</v>
+        <v>1252.64624922477</v>
       </c>
       <c r="X28" t="n">
-        <v>974.1018203925706</v>
+        <v>1024.656698326753</v>
       </c>
       <c r="Y28" t="n">
-        <v>753.3092412490405</v>
+        <v>803.8641191832229</v>
       </c>
     </row>
     <row r="29">
@@ -6439,10 +6439,10 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C29" t="n">
-        <v>1948.813509611464</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D29" t="n">
         <v>1590.547811004713</v>
@@ -6457,58 +6457,58 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H29" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I29" t="n">
-        <v>95.34095638192602</v>
+        <v>95.34095638192571</v>
       </c>
       <c r="J29" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K29" t="n">
-        <v>852.852361107581</v>
+        <v>852.8523611075805</v>
       </c>
       <c r="L29" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M29" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N29" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O29" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P29" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694706</v>
       </c>
       <c r="Q29" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852254</v>
       </c>
       <c r="R29" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S29" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T29" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474783</v>
       </c>
       <c r="U29" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V29" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W29" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X29" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y29" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="30">
@@ -6527,7 +6527,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E30" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F30" t="n">
         <v>314.2396613568978</v>
@@ -6536,25 +6536,25 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H30" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I30" t="n">
-        <v>95.58405025273906</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J30" t="n">
-        <v>245.2306927803938</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K30" t="n">
-        <v>579.1554649516144</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L30" t="n">
-        <v>1074.481071167373</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M30" t="n">
-        <v>1671.859558793925</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N30" t="n">
-        <v>2299.457522348532</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O30" t="n">
         <v>2553.061288060775</v>
@@ -6597,76 +6597,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>580.8993044876693</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C31" t="n">
-        <v>411.9631215597624</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D31" t="n">
-        <v>411.9631215597624</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="E31" t="n">
-        <v>411.9631215597624</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="F31" t="n">
-        <v>402.7245934908938</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G31" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="H31" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I31" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J31" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K31" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L31" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M31" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N31" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O31" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P31" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q31" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R31" t="n">
-        <v>2446.963083580261</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S31" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T31" t="n">
-        <v>2044.506784258106</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U31" t="n">
-        <v>1755.431557602304</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V31" t="n">
-        <v>1500.747069396417</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W31" t="n">
-        <v>1211.329899359456</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X31" t="n">
-        <v>983.3403484614391</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y31" t="n">
-        <v>762.547769317909</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="32">
@@ -6694,46 +6694,46 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H32" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I32" t="n">
-        <v>95.34095638192605</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J32" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K32" t="n">
-        <v>852.852361107581</v>
+        <v>852.8523611075805</v>
       </c>
       <c r="L32" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M32" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N32" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O32" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P32" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q32" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R32" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S32" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T32" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U32" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V32" t="n">
         <v>3820.749612123003</v>
@@ -6764,7 +6764,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E33" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F33" t="n">
         <v>314.2396613568978</v>
@@ -6773,25 +6773,25 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H33" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I33" t="n">
-        <v>95.58405025273906</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J33" t="n">
-        <v>245.2306927803938</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K33" t="n">
-        <v>579.1554649516144</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L33" t="n">
-        <v>1074.481071167373</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M33" t="n">
-        <v>1671.859558793925</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N33" t="n">
-        <v>2299.457522348532</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O33" t="n">
         <v>2553.061288060775</v>
@@ -6834,76 +6834,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>513.8536007400717</v>
+        <v>763.7541388327643</v>
       </c>
       <c r="C34" t="n">
-        <v>513.8536007400717</v>
+        <v>594.8179559048574</v>
       </c>
       <c r="D34" t="n">
-        <v>484.8112968429802</v>
+        <v>444.7013164925216</v>
       </c>
       <c r="E34" t="n">
-        <v>484.8112968429802</v>
+        <v>296.7882229101285</v>
       </c>
       <c r="F34" t="n">
-        <v>484.8112968429802</v>
+        <v>149.8982754122182</v>
       </c>
       <c r="G34" t="n">
-        <v>317.6151975578601</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H34" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I34" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J34" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K34" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L34" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M34" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N34" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O34" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P34" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q34" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R34" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S34" t="n">
-        <v>2197.062545487568</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="T34" t="n">
-        <v>1977.461080510509</v>
+        <v>2227.361618603201</v>
       </c>
       <c r="U34" t="n">
-        <v>1688.385853854707</v>
+        <v>1938.286391947399</v>
       </c>
       <c r="V34" t="n">
-        <v>1433.70136564882</v>
+        <v>1683.601903741512</v>
       </c>
       <c r="W34" t="n">
-        <v>1144.284195611859</v>
+        <v>1394.184733704551</v>
       </c>
       <c r="X34" t="n">
-        <v>916.2946447138415</v>
+        <v>1166.195182806534</v>
       </c>
       <c r="Y34" t="n">
-        <v>695.5020655703114</v>
+        <v>945.402603663004</v>
       </c>
     </row>
     <row r="35">
@@ -6928,19 +6928,19 @@
         <v>793.7736536168613</v>
       </c>
       <c r="G35" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362687</v>
       </c>
       <c r="H35" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I35" t="n">
-        <v>95.34095638192598</v>
+        <v>95.3409563819265</v>
       </c>
       <c r="J35" t="n">
-        <v>378.1925803111716</v>
+        <v>378.192580311172</v>
       </c>
       <c r="K35" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L35" t="n">
         <v>1478.611553332387</v>
@@ -6949,16 +6949,16 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N35" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O35" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P35" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q35" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R35" t="n">
         <v>4690.833152398593</v>
@@ -7013,22 +7013,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I36" t="n">
-        <v>95.58405025273905</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J36" t="n">
-        <v>245.2306927803938</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K36" t="n">
-        <v>579.1554649516144</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L36" t="n">
-        <v>1074.481071167373</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M36" t="n">
-        <v>1671.859558793925</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N36" t="n">
-        <v>2299.457522348532</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O36" t="n">
         <v>2553.061288060775</v>
@@ -7071,22 +7071,22 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>513.8536007400717</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C37" t="n">
-        <v>344.9174178121648</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D37" t="n">
-        <v>344.9174178121648</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E37" t="n">
-        <v>344.9174178121648</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F37" t="n">
-        <v>261.0127623330919</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="G37" t="n">
-        <v>93.81666304797187</v>
+        <v>177.7213185270443</v>
       </c>
       <c r="H37" t="n">
         <v>93.81666304797187</v>
@@ -7095,52 +7095,52 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J37" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K37" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L37" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M37" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N37" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O37" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P37" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q37" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R37" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S37" t="n">
-        <v>2197.062545487568</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T37" t="n">
-        <v>1977.461080510509</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U37" t="n">
-        <v>1688.385853854707</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V37" t="n">
-        <v>1433.70136564882</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W37" t="n">
-        <v>1144.284195611859</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X37" t="n">
-        <v>916.2946447138415</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y37" t="n">
-        <v>695.5020655703114</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="38">
@@ -7150,34 +7150,34 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C38" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D38" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E38" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F38" t="n">
-        <v>793.7736536168612</v>
+        <v>793.7736536168609</v>
       </c>
       <c r="G38" t="n">
-        <v>379.8308874362687</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H38" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I38" t="n">
-        <v>95.34095638192598</v>
+        <v>95.3409563819265</v>
       </c>
       <c r="J38" t="n">
-        <v>378.1925803111716</v>
+        <v>378.192580311172</v>
       </c>
       <c r="K38" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L38" t="n">
         <v>1478.611553332387</v>
@@ -7186,16 +7186,16 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N38" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O38" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P38" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q38" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R38" t="n">
         <v>4690.833152398593</v>
@@ -7207,19 +7207,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U38" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V38" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W38" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X38" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y38" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="39">
@@ -7250,22 +7250,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I39" t="n">
-        <v>95.58405025273905</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J39" t="n">
-        <v>245.2306927803938</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K39" t="n">
-        <v>579.1554649516144</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L39" t="n">
-        <v>1074.481071167373</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M39" t="n">
-        <v>1671.859558793925</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N39" t="n">
-        <v>2299.457522348532</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O39" t="n">
         <v>2553.061288060775</v>
@@ -7308,19 +7308,19 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>552.8412329032295</v>
+        <v>571.6607764188008</v>
       </c>
       <c r="C40" t="n">
-        <v>552.8412329032295</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="D40" t="n">
-        <v>402.7245934908938</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="E40" t="n">
-        <v>402.7245934908938</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="F40" t="n">
-        <v>402.7245934908938</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G40" t="n">
         <v>235.5284942057738</v>
@@ -7332,52 +7332,52 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J40" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K40" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L40" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M40" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N40" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O40" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P40" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q40" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R40" t="n">
-        <v>2379.917379832663</v>
+        <v>2437.724555511392</v>
       </c>
       <c r="S40" t="n">
-        <v>2197.062545487568</v>
+        <v>2254.869721166297</v>
       </c>
       <c r="T40" t="n">
-        <v>2016.448712673667</v>
+        <v>2035.268256189238</v>
       </c>
       <c r="U40" t="n">
-        <v>1727.373486017864</v>
+        <v>1746.193029533436</v>
       </c>
       <c r="V40" t="n">
-        <v>1472.688997811978</v>
+        <v>1491.508541327549</v>
       </c>
       <c r="W40" t="n">
-        <v>1183.271827775017</v>
+        <v>1202.091371290588</v>
       </c>
       <c r="X40" t="n">
-        <v>955.2822768769994</v>
+        <v>974.1018203925706</v>
       </c>
       <c r="Y40" t="n">
-        <v>734.4896977334693</v>
+        <v>753.3092412490405</v>
       </c>
     </row>
     <row r="41">
@@ -7399,22 +7399,22 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F41" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G41" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H41" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I41" t="n">
-        <v>95.34095638192598</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J41" t="n">
-        <v>378.1925803111716</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K41" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L41" t="n">
         <v>1478.611553332387</v>
@@ -7423,16 +7423,16 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N41" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O41" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P41" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q41" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R41" t="n">
         <v>4690.833152398593</v>
@@ -7447,13 +7447,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V41" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W41" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X41" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y41" t="n">
         <v>2704.375866615997</v>
@@ -7487,22 +7487,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I42" t="n">
-        <v>95.58405025273905</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J42" t="n">
-        <v>245.2306927803938</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K42" t="n">
-        <v>579.1554649516144</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L42" t="n">
-        <v>1074.481071167373</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M42" t="n">
-        <v>1671.859558793925</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N42" t="n">
-        <v>2299.457522348532</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O42" t="n">
         <v>2553.061288060775</v>
@@ -7545,22 +7545,22 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>695.5020655703114</v>
+        <v>874.8686257536381</v>
       </c>
       <c r="C43" t="n">
-        <v>526.5658826424045</v>
+        <v>705.9324428257312</v>
       </c>
       <c r="D43" t="n">
-        <v>402.7245934908938</v>
+        <v>555.8158034133954</v>
       </c>
       <c r="E43" t="n">
-        <v>402.7245934908938</v>
+        <v>407.9027098310023</v>
       </c>
       <c r="F43" t="n">
-        <v>402.7245934908938</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G43" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H43" t="n">
         <v>93.81666304797187</v>
@@ -7569,52 +7569,52 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J43" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K43" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L43" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M43" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N43" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O43" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P43" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q43" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R43" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S43" t="n">
-        <v>2197.062545487568</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="T43" t="n">
-        <v>1977.461080510509</v>
+        <v>2338.476105524075</v>
       </c>
       <c r="U43" t="n">
-        <v>1688.385853854707</v>
+        <v>2049.400878868273</v>
       </c>
       <c r="V43" t="n">
-        <v>1433.70136564882</v>
+        <v>1794.716390662386</v>
       </c>
       <c r="W43" t="n">
-        <v>1144.284195611859</v>
+        <v>1505.299220625425</v>
       </c>
       <c r="X43" t="n">
-        <v>916.2946447138415</v>
+        <v>1277.309669727408</v>
       </c>
       <c r="Y43" t="n">
-        <v>695.5020655703114</v>
+        <v>1056.517090583878</v>
       </c>
     </row>
     <row r="44">
@@ -7645,13 +7645,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I44" t="n">
-        <v>95.34095638192598</v>
+        <v>95.3409563819265</v>
       </c>
       <c r="J44" t="n">
-        <v>378.1925803111716</v>
+        <v>378.192580311172</v>
       </c>
       <c r="K44" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L44" t="n">
         <v>1478.611553332387</v>
@@ -7660,16 +7660,16 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N44" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O44" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P44" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q44" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R44" t="n">
         <v>4690.833152398593</v>
@@ -7724,22 +7724,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I45" t="n">
-        <v>95.58405025273905</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J45" t="n">
-        <v>245.2306927803938</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K45" t="n">
-        <v>579.1554649516144</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L45" t="n">
-        <v>1074.481071167373</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M45" t="n">
-        <v>1671.859558793925</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N45" t="n">
-        <v>2299.457522348532</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O45" t="n">
         <v>2553.061288060775</v>
@@ -7782,76 +7782,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>695.5020655703114</v>
+        <v>580.8993044876688</v>
       </c>
       <c r="C46" t="n">
-        <v>526.5658826424045</v>
+        <v>411.9631215597619</v>
       </c>
       <c r="D46" t="n">
-        <v>484.8112968429802</v>
+        <v>411.9631215597619</v>
       </c>
       <c r="E46" t="n">
-        <v>484.8112968429802</v>
+        <v>411.9631215597619</v>
       </c>
       <c r="F46" t="n">
-        <v>484.8112968429802</v>
+        <v>265.0731740618515</v>
       </c>
       <c r="G46" t="n">
-        <v>317.6151975578601</v>
+        <v>97.87707477673149</v>
       </c>
       <c r="H46" t="n">
-        <v>175.9033664000582</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I46" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J46" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K46" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L46" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M46" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N46" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O46" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P46" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q46" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R46" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S46" t="n">
-        <v>2197.062545487568</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T46" t="n">
-        <v>1977.461080510509</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="U46" t="n">
-        <v>1688.385853854707</v>
+        <v>1755.431557602304</v>
       </c>
       <c r="V46" t="n">
-        <v>1433.70136564882</v>
+        <v>1500.747069396417</v>
       </c>
       <c r="W46" t="n">
-        <v>1144.284195611859</v>
+        <v>1211.329899359456</v>
       </c>
       <c r="X46" t="n">
-        <v>916.2946447138415</v>
+        <v>983.3403484614387</v>
       </c>
       <c r="Y46" t="n">
-        <v>695.5020655703114</v>
+        <v>762.5477693179085</v>
       </c>
     </row>
   </sheetData>
@@ -8081,7 +8081,7 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>9.094947017729282e-13</v>
+        <v>0</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -23421,22 +23421,22 @@
         <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>146.4339626465692</v>
+        <v>46.45968844823102</v>
       </c>
       <c r="F13" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H13" t="n">
-        <v>57.22910392194174</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I13" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23512,7 +23512,7 @@
         <v>0</v>
       </c>
       <c r="H14" t="n">
-        <v>0</v>
+        <v>1.4210854715202e-12</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -23658,22 +23658,22 @@
         <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
         <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I16" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23706,10 +23706,10 @@
         <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>57.22910392194191</v>
+        <v>71.22040037418677</v>
       </c>
       <c r="U16" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -23791,7 +23791,7 @@
         <v>0</v>
       </c>
       <c r="V17" t="n">
-        <v>0</v>
+        <v>1.193711796076968e-12</v>
       </c>
       <c r="W17" t="n">
         <v>0</v>
@@ -23907,10 +23907,10 @@
         <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>57.22910392194174</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23952,7 +23952,7 @@
         <v>0</v>
       </c>
       <c r="W19" t="n">
-        <v>0</v>
+        <v>138.4949402405077</v>
       </c>
       <c r="X19" t="n">
         <v>0</v>
@@ -23986,7 +23986,7 @@
         <v>0</v>
       </c>
       <c r="H20" t="n">
-        <v>0</v>
+        <v>1.4210854715202e-12</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
@@ -24129,25 +24129,25 @@
         <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>57.22910392194174</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I22" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24177,7 +24177,7 @@
         <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>43.72409101823371</v>
       </c>
       <c r="T22" t="n">
         <v>0</v>
@@ -24211,7 +24211,7 @@
         <v>0</v>
       </c>
       <c r="D23" t="n">
-        <v>0</v>
+        <v>1.364242052659392e-12</v>
       </c>
       <c r="E23" t="n">
         <v>0</v>
@@ -24369,22 +24369,22 @@
         <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>148.6154730182124</v>
+        <v>65.54986409393068</v>
       </c>
       <c r="E25" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
         <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24411,13 +24411,13 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>36.51445555167211</v>
+        <v>0</v>
       </c>
       <c r="U25" t="n">
         <v>0</v>
@@ -24600,13 +24600,13 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
         <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
         <v>146.4339626465692</v>
@@ -24621,7 +24621,7 @@
         <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24648,10 +24648,10 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>40.90318636666106</v>
       </c>
       <c r="T28" t="n">
         <v>0</v>
@@ -24663,7 +24663,7 @@
         <v>0</v>
       </c>
       <c r="W28" t="n">
-        <v>57.22910392194186</v>
+        <v>0</v>
       </c>
       <c r="X28" t="n">
         <v>0</v>
@@ -24682,7 +24682,7 @@
         <v>0</v>
       </c>
       <c r="C29" t="n">
-        <v>0</v>
+        <v>1.364242052659392e-12</v>
       </c>
       <c r="D29" t="n">
         <v>0</v>
@@ -24843,22 +24843,22 @@
         <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>148.6154730182124</v>
+        <v>65.54986409393068</v>
       </c>
       <c r="E31" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
-        <v>136.2749052347514</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
         <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I31" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24885,7 +24885,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
         <v>0</v>
@@ -25077,25 +25077,25 @@
         <v>0</v>
       </c>
       <c r="C34" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>119.8635921600918</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>110.003342051665</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25122,10 +25122,10 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S34" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T34" t="n">
         <v>0</v>
@@ -25323,16 +25323,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
-        <v>62.35543909864911</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
         <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>140.2947128462239</v>
+        <v>57.22910392194221</v>
       </c>
       <c r="I37" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25551,10 +25551,10 @@
         <v>0</v>
       </c>
       <c r="C40" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
         <v>146.4339626465692</v>
@@ -25569,7 +25569,7 @@
         <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25596,13 +25596,13 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>57.2291039219422</v>
       </c>
       <c r="S40" t="n">
         <v>0</v>
       </c>
       <c r="T40" t="n">
-        <v>38.59775584152638</v>
+        <v>0</v>
       </c>
       <c r="U40" t="n">
         <v>0</v>
@@ -25785,28 +25785,28 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C43" t="n">
         <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>26.01259675821677</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
         <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I43" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25833,13 +25833,13 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S43" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T43" t="n">
-        <v>0</v>
+        <v>110.0033420516644</v>
       </c>
       <c r="U43" t="n">
         <v>0</v>
@@ -26022,28 +26022,28 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C46" t="n">
         <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>107.2784330767823</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
         <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>136.2749052347519</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26070,7 +26070,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S46" t="n">
         <v>0</v>
@@ -26157,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>917799.0280914541</v>
+        <v>917799.0280914542</v>
       </c>
     </row>
     <row r="7">
@@ -26173,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>917799.0280914541</v>
+        <v>917799.0280914542</v>
       </c>
     </row>
     <row r="9">
@@ -26181,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>917799.0280914542</v>
+        <v>917799.0280914541</v>
       </c>
     </row>
     <row r="10">
@@ -26189,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>917799.0280914541</v>
+        <v>917799.0280914543</v>
       </c>
     </row>
     <row r="11">
@@ -26197,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>917799.0280914542</v>
+        <v>917799.0280914541</v>
       </c>
     </row>
     <row r="12">
@@ -26221,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>917799.0280914542</v>
+        <v>917799.0280914541</v>
       </c>
     </row>
     <row r="15">
@@ -26237,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>917799.0280914543</v>
+        <v>917799.0280914541</v>
       </c>
     </row>
   </sheetData>
@@ -26313,49 +26313,49 @@
         </is>
       </c>
       <c r="B2" t="n">
+        <v>513151.106165177</v>
+      </c>
+      <c r="C2" t="n">
         <v>513151.1061651771</v>
-      </c>
-      <c r="C2" t="n">
-        <v>513151.1061651772</v>
       </c>
       <c r="D2" t="n">
         <v>513151.106165177</v>
       </c>
       <c r="E2" t="n">
-        <v>504466.6248062539</v>
+        <v>504466.6248062536</v>
       </c>
       <c r="F2" t="n">
         <v>504466.6248062536</v>
       </c>
       <c r="G2" t="n">
+        <v>504466.6248062537</v>
+      </c>
+      <c r="H2" t="n">
+        <v>504466.6248062535</v>
+      </c>
+      <c r="I2" t="n">
         <v>504466.6248062536</v>
       </c>
-      <c r="H2" t="n">
+      <c r="J2" t="n">
         <v>504466.6248062536</v>
       </c>
-      <c r="I2" t="n">
+      <c r="K2" t="n">
+        <v>504466.6248062536</v>
+      </c>
+      <c r="L2" t="n">
+        <v>504466.6248062535</v>
+      </c>
+      <c r="M2" t="n">
         <v>504466.6248062538</v>
       </c>
-      <c r="J2" t="n">
-        <v>504466.6248062537</v>
-      </c>
-      <c r="K2" t="n">
-        <v>504466.6248062539</v>
-      </c>
-      <c r="L2" t="n">
-        <v>504466.6248062539</v>
-      </c>
-      <c r="M2" t="n">
-        <v>504466.6248062536</v>
-      </c>
       <c r="N2" t="n">
-        <v>504466.6248062536</v>
+        <v>504466.6248062538</v>
       </c>
       <c r="O2" t="n">
         <v>504466.6248062536</v>
       </c>
       <c r="P2" t="n">
-        <v>504466.6248062536</v>
+        <v>504466.6248062538</v>
       </c>
     </row>
     <row r="3">
@@ -26365,16 +26365,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1328744.745727592</v>
+        <v>1328744.745727593</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>1.947259988810401e-10</v>
+        <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>325412.4618073555</v>
+        <v>325412.4618073552</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26389,7 +26389,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>217531.2023972774</v>
+        <v>217531.2023972775</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -26398,7 +26398,7 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>85055.0279355119</v>
+        <v>85055.02793551184</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26417,13 +26417,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>89744.12305813257</v>
+        <v>89744.12305813252</v>
       </c>
       <c r="C4" t="n">
-        <v>89744.12305813255</v>
+        <v>89744.12305813249</v>
       </c>
       <c r="D4" t="n">
-        <v>89744.12305813255</v>
+        <v>89744.12305813249</v>
       </c>
       <c r="E4" t="n">
         <v>10557.08828678121</v>
@@ -26524,46 +26524,46 @@
         <v>-1013271.703181941</v>
       </c>
       <c r="C6" t="n">
-        <v>315473.0425456514</v>
+        <v>315473.0425456513</v>
       </c>
       <c r="D6" t="n">
-        <v>315473.042545651</v>
+        <v>315473.0425456513</v>
       </c>
       <c r="E6" t="n">
-        <v>67027.16563385309</v>
+        <v>67339.80696277446</v>
       </c>
       <c r="F6" t="n">
-        <v>392439.6274412083</v>
+        <v>392752.2687701296</v>
       </c>
       <c r="G6" t="n">
-        <v>392439.6274412083</v>
+        <v>392752.2687701297</v>
       </c>
       <c r="H6" t="n">
-        <v>392439.6274412083</v>
+        <v>392752.2687701295</v>
       </c>
       <c r="I6" t="n">
-        <v>392439.6274412085</v>
+        <v>392752.2687701296</v>
       </c>
       <c r="J6" t="n">
-        <v>174908.425043931</v>
+        <v>175221.0663728521</v>
       </c>
       <c r="K6" t="n">
-        <v>392439.6274412086</v>
+        <v>392752.2687701296</v>
       </c>
       <c r="L6" t="n">
-        <v>392439.6274412086</v>
+        <v>392752.2687701295</v>
       </c>
       <c r="M6" t="n">
-        <v>307384.5995056964</v>
+        <v>307697.2408346179</v>
       </c>
       <c r="N6" t="n">
-        <v>392439.6274412083</v>
+        <v>392752.2687701298</v>
       </c>
       <c r="O6" t="n">
-        <v>392439.6274412083</v>
+        <v>392752.2687701296</v>
       </c>
       <c r="P6" t="n">
-        <v>392439.6274412083</v>
+        <v>392752.2687701297</v>
       </c>
     </row>
   </sheetData>
@@ -26789,37 +26789,37 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>831.4014554022924</v>
+        <v>831.4014554022925</v>
       </c>
       <c r="C4" t="n">
-        <v>831.4014554022924</v>
+        <v>831.4014554022926</v>
       </c>
       <c r="D4" t="n">
-        <v>831.4014554022924</v>
+        <v>831.4014554022926</v>
       </c>
       <c r="E4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="F4" t="n">
         <v>1172.708288099648</v>
       </c>
       <c r="G4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="H4" t="n">
         <v>1172.708288099648</v>
       </c>
       <c r="I4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="J4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="K4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="L4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="M4" t="n">
         <v>1172.708288099648</v>
@@ -26965,10 +26965,10 @@
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>2.273736754432321e-13</v>
+        <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>278.1987997483757</v>
+        <v>278.1987997483754</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -27011,7 +27011,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>831.4014554022924</v>
+        <v>831.4014554022925</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -27020,7 +27020,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>341.3068326973562</v>
+        <v>341.3068326973557</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27035,7 +27035,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>831.4014554022924</v>
+        <v>831.4014554022928</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27044,7 +27044,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>341.306832697356</v>
+        <v>341.3068326973557</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27257,7 +27257,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>831.4014554022924</v>
+        <v>831.4014554022925</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27266,7 +27266,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>341.3068326973562</v>
+        <v>341.3068326973557</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27384,10 +27384,10 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
-        <v>287.9210818608666</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>112.0492461931127</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
@@ -27396,7 +27396,7 @@
         <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -27435,7 +27435,7 @@
         <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
@@ -27444,7 +27444,7 @@
         <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
         <v>386.2379386560536</v>
@@ -27536,7 +27536,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>110.4063520173295</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -27545,19 +27545,19 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>6.110593883981693</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -27584,7 +27584,7 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>88.93215267004734</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S4" t="n">
         <v>189.7690253314419</v>
@@ -27593,7 +27593,7 @@
         <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -27602,10 +27602,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -27615,16 +27615,16 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>307.2767095024445</v>
+        <v>362.4386851003788</v>
       </c>
       <c r="C5" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
         <v>0</v>
@@ -27675,13 +27675,13 @@
         <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
         <v>0</v>
@@ -27785,7 +27785,7 @@
         <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>94.35543628911111</v>
       </c>
       <c r="G7" t="n">
         <v>0</v>
@@ -27794,7 +27794,7 @@
         <v>144.7550149143208</v>
       </c>
       <c r="I7" t="n">
-        <v>96.35242040983812</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -27821,7 +27821,7 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>88.93215267004734</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S7" t="n">
         <v>189.7690253314419</v>
@@ -27830,7 +27830,7 @@
         <v>219.5489492761692</v>
       </c>
       <c r="U7" t="n">
-        <v>161.9826211426295</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -27842,7 +27842,7 @@
         <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -27852,7 +27852,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>382.7338416634806</v>
+        <v>307.2767095024436</v>
       </c>
       <c r="C8" t="n">
         <v>365.2728917710076</v>
@@ -27861,7 +27861,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
-        <v>306.4732379112257</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
         <v>0</v>
@@ -28025,7 +28025,7 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
         <v>144.7550149143208</v>
@@ -28067,10 +28067,10 @@
         <v>219.5489492761692</v>
       </c>
       <c r="U10" t="n">
-        <v>214.5414662356956</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>94.3554362891108</v>
       </c>
       <c r="W10" t="n">
         <v>0</v>
@@ -31041,43 +31041,43 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>4.381011861681597</v>
+        <v>4.381011861681598</v>
       </c>
       <c r="H2" t="n">
-        <v>44.86703772844667</v>
+        <v>44.86703772844668</v>
       </c>
       <c r="I2" t="n">
-        <v>168.8989597974799</v>
+        <v>168.89895979748</v>
       </c>
       <c r="J2" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K2" t="n">
-        <v>557.2811376003809</v>
+        <v>557.281137600381</v>
       </c>
       <c r="L2" t="n">
-        <v>691.3565293623192</v>
+        <v>691.3565293623194</v>
       </c>
       <c r="M2" t="n">
-        <v>769.2673490574992</v>
+        <v>769.2673490574995</v>
       </c>
       <c r="N2" t="n">
-        <v>781.7148990095022</v>
+        <v>781.7148990095023</v>
       </c>
       <c r="O2" t="n">
-        <v>738.1512123099058</v>
+        <v>738.1512123099059</v>
       </c>
       <c r="P2" t="n">
-        <v>629.9949819746412</v>
+        <v>629.9949819746414</v>
       </c>
       <c r="Q2" t="n">
-        <v>473.0999946781689</v>
+        <v>473.099994678169</v>
       </c>
       <c r="R2" t="n">
-        <v>275.1987363563568</v>
+        <v>275.1987363563569</v>
       </c>
       <c r="S2" t="n">
-        <v>99.83230779806949</v>
+        <v>99.83230779806951</v>
       </c>
       <c r="T2" t="n">
         <v>19.1778794245112</v>
@@ -31126,40 +31126,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I3" t="n">
-        <v>80.70516131752255</v>
+        <v>80.70516131752258</v>
       </c>
       <c r="J3" t="n">
-        <v>221.4611312026437</v>
+        <v>221.4611312026438</v>
       </c>
       <c r="K3" t="n">
         <v>378.5123470353157</v>
       </c>
       <c r="L3" t="n">
-        <v>508.9565619138795</v>
+        <v>508.9565619138796</v>
       </c>
       <c r="M3" t="n">
-        <v>593.9283018233474</v>
+        <v>593.9283018233475</v>
       </c>
       <c r="N3" t="n">
-        <v>609.6478166837924</v>
+        <v>609.6478166837925</v>
       </c>
       <c r="O3" t="n">
-        <v>557.7086478970249</v>
+        <v>557.708647897025</v>
       </c>
       <c r="P3" t="n">
-        <v>447.6103584002926</v>
+        <v>447.6103584002927</v>
       </c>
       <c r="Q3" t="n">
-        <v>299.2156706987486</v>
+        <v>299.2156706987487</v>
       </c>
       <c r="R3" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S3" t="n">
-        <v>43.53966346238315</v>
+        <v>43.53966346238316</v>
       </c>
       <c r="T3" t="n">
-        <v>9.448158375898496</v>
+        <v>9.448158375898497</v>
       </c>
       <c r="U3" t="n">
         <v>0.1542136840462215</v>
@@ -31199,13 +31199,13 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>1.965171099430537</v>
+        <v>1.965171099430538</v>
       </c>
       <c r="H4" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I4" t="n">
-        <v>59.09805451742017</v>
+        <v>59.09805451742019</v>
       </c>
       <c r="J4" t="n">
         <v>138.937596729739</v>
@@ -31214,16 +31214,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L4" t="n">
-        <v>292.1673469098819</v>
+        <v>292.167346909882</v>
       </c>
       <c r="M4" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N4" t="n">
-        <v>300.7247737883114</v>
+        <v>300.7247737883115</v>
       </c>
       <c r="O4" t="n">
-        <v>277.7680023086</v>
+        <v>277.7680023086001</v>
       </c>
       <c r="P4" t="n">
         <v>237.6785118802169</v>
@@ -31232,16 +31232,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R4" t="n">
-        <v>88.36123870712214</v>
+        <v>88.36123870712215</v>
       </c>
       <c r="S4" t="n">
-        <v>34.24757270553035</v>
+        <v>34.24757270553036</v>
       </c>
       <c r="T4" t="n">
-        <v>8.396640152112294</v>
+        <v>8.396640152112296</v>
       </c>
       <c r="U4" t="n">
-        <v>0.1071911508780294</v>
+        <v>0.1071911508780295</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -31278,43 +31278,43 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>4.381011861681597</v>
+        <v>4.381011861681598</v>
       </c>
       <c r="H5" t="n">
-        <v>44.86703772844667</v>
+        <v>44.86703772844668</v>
       </c>
       <c r="I5" t="n">
-        <v>168.8989597974799</v>
+        <v>168.89895979748</v>
       </c>
       <c r="J5" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K5" t="n">
-        <v>557.2811376003809</v>
+        <v>557.281137600381</v>
       </c>
       <c r="L5" t="n">
-        <v>691.3565293623192</v>
+        <v>691.3565293623194</v>
       </c>
       <c r="M5" t="n">
-        <v>769.2673490574992</v>
+        <v>769.2673490574995</v>
       </c>
       <c r="N5" t="n">
-        <v>781.7148990095022</v>
+        <v>781.7148990095023</v>
       </c>
       <c r="O5" t="n">
-        <v>738.1512123099058</v>
+        <v>738.1512123099059</v>
       </c>
       <c r="P5" t="n">
-        <v>629.9949819746412</v>
+        <v>629.9949819746414</v>
       </c>
       <c r="Q5" t="n">
-        <v>473.0999946781689</v>
+        <v>473.099994678169</v>
       </c>
       <c r="R5" t="n">
-        <v>275.1987363563568</v>
+        <v>275.1987363563569</v>
       </c>
       <c r="S5" t="n">
-        <v>99.83230779806949</v>
+        <v>99.83230779806951</v>
       </c>
       <c r="T5" t="n">
         <v>19.1778794245112</v>
@@ -31363,40 +31363,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I6" t="n">
-        <v>80.70516131752255</v>
+        <v>80.70516131752258</v>
       </c>
       <c r="J6" t="n">
-        <v>221.4611312026437</v>
+        <v>221.4611312026438</v>
       </c>
       <c r="K6" t="n">
         <v>378.5123470353157</v>
       </c>
       <c r="L6" t="n">
-        <v>508.9565619138795</v>
+        <v>508.9565619138796</v>
       </c>
       <c r="M6" t="n">
-        <v>593.9283018233474</v>
+        <v>593.9283018233475</v>
       </c>
       <c r="N6" t="n">
-        <v>609.6478166837924</v>
+        <v>609.6478166837925</v>
       </c>
       <c r="O6" t="n">
-        <v>557.7086478970249</v>
+        <v>557.708647897025</v>
       </c>
       <c r="P6" t="n">
-        <v>447.6103584002926</v>
+        <v>447.6103584002927</v>
       </c>
       <c r="Q6" t="n">
-        <v>299.2156706987486</v>
+        <v>299.2156706987487</v>
       </c>
       <c r="R6" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S6" t="n">
-        <v>43.53966346238315</v>
+        <v>43.53966346238316</v>
       </c>
       <c r="T6" t="n">
-        <v>9.448158375898496</v>
+        <v>9.448158375898497</v>
       </c>
       <c r="U6" t="n">
         <v>0.1542136840462215</v>
@@ -31436,13 +31436,13 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>1.965171099430537</v>
+        <v>1.965171099430538</v>
       </c>
       <c r="H7" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I7" t="n">
-        <v>59.09805451742017</v>
+        <v>59.09805451742019</v>
       </c>
       <c r="J7" t="n">
         <v>138.937596729739</v>
@@ -31451,16 +31451,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L7" t="n">
-        <v>292.1673469098819</v>
+        <v>292.167346909882</v>
       </c>
       <c r="M7" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N7" t="n">
-        <v>300.7247737883114</v>
+        <v>300.7247737883115</v>
       </c>
       <c r="O7" t="n">
-        <v>277.7680023086</v>
+        <v>277.7680023086001</v>
       </c>
       <c r="P7" t="n">
         <v>237.6785118802169</v>
@@ -31469,16 +31469,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R7" t="n">
-        <v>88.36123870712214</v>
+        <v>88.36123870712215</v>
       </c>
       <c r="S7" t="n">
-        <v>34.24757270553035</v>
+        <v>34.24757270553036</v>
       </c>
       <c r="T7" t="n">
-        <v>8.396640152112294</v>
+        <v>8.396640152112296</v>
       </c>
       <c r="U7" t="n">
-        <v>0.1071911508780294</v>
+        <v>0.1071911508780295</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -31752,7 +31752,7 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H11" t="n">
         <v>56.32071997135341</v>
@@ -31764,31 +31764,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K11" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L11" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M11" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N11" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O11" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P11" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q11" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R11" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S11" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T11" t="n">
         <v>24.07361910651528</v>
@@ -31831,31 +31831,31 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H12" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I12" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J12" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K12" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L12" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M12" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N12" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O12" t="n">
-        <v>398.7616643558013</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P12" t="n">
         <v>133.9744074143302</v>
@@ -31867,13 +31867,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S12" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T12" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U12" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31913,25 +31913,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H13" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I13" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J13" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K13" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L13" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M13" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N13" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O13" t="n">
         <v>348.6767717920058</v>
@@ -31940,19 +31940,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q13" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R13" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S13" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T13" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U13" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31989,7 +31989,7 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H14" t="n">
         <v>56.32071997135341</v>
@@ -32001,31 +32001,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K14" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L14" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M14" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N14" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O14" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P14" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q14" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R14" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S14" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T14" t="n">
         <v>24.07361910651528</v>
@@ -32068,31 +32068,31 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H15" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I15" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J15" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K15" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L15" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M15" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N15" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O15" t="n">
-        <v>398.7616643558013</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P15" t="n">
         <v>133.9744074143302</v>
@@ -32104,13 +32104,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S15" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T15" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U15" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -32150,25 +32150,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H16" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I16" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J16" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K16" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L16" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M16" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N16" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O16" t="n">
         <v>348.6767717920058</v>
@@ -32177,19 +32177,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q16" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R16" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S16" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T16" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U16" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32226,7 +32226,7 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H17" t="n">
         <v>56.32071997135341</v>
@@ -32238,31 +32238,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K17" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L17" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M17" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N17" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O17" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P17" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q17" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R17" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S17" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T17" t="n">
         <v>24.07361910651528</v>
@@ -32305,31 +32305,31 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H18" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I18" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J18" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K18" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L18" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M18" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N18" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O18" t="n">
-        <v>398.7616643558013</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P18" t="n">
         <v>133.9744074143302</v>
@@ -32341,13 +32341,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S18" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T18" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U18" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -32387,25 +32387,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H19" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I19" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J19" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K19" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L19" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M19" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N19" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O19" t="n">
         <v>348.6767717920058</v>
@@ -32414,19 +32414,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q19" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R19" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S19" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T19" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U19" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32463,7 +32463,7 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H20" t="n">
         <v>56.32071997135341</v>
@@ -32475,31 +32475,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K20" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L20" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M20" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N20" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O20" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P20" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q20" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R20" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S20" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T20" t="n">
         <v>24.07361910651528</v>
@@ -32542,34 +32542,34 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H21" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I21" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J21" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K21" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L21" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M21" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N21" t="n">
-        <v>765.2790490071786</v>
+        <v>595.327537312171</v>
       </c>
       <c r="O21" t="n">
-        <v>398.7616643558013</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P21" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q21" t="n">
         <v>139.9817740860215</v>
@@ -32578,13 +32578,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S21" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T21" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U21" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
@@ -32624,25 +32624,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H22" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I22" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J22" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K22" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L22" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M22" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N22" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O22" t="n">
         <v>348.6767717920058</v>
@@ -32651,19 +32651,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q22" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R22" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S22" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T22" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U22" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32700,7 +32700,7 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H23" t="n">
         <v>56.32071997135341</v>
@@ -32712,31 +32712,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K23" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L23" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M23" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N23" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O23" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P23" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q23" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R23" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S23" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T23" t="n">
         <v>24.07361910651528</v>
@@ -32779,31 +32779,31 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H24" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I24" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J24" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K24" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L24" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M24" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N24" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O24" t="n">
-        <v>398.7616643558013</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P24" t="n">
         <v>133.9744074143302</v>
@@ -32815,13 +32815,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S24" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T24" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U24" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V24" t="n">
         <v>0</v>
@@ -32861,25 +32861,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H25" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I25" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J25" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K25" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L25" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M25" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N25" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O25" t="n">
         <v>348.6767717920058</v>
@@ -32888,19 +32888,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q25" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R25" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S25" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T25" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U25" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -32937,7 +32937,7 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H26" t="n">
         <v>56.32071997135341</v>
@@ -32949,31 +32949,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K26" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L26" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M26" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N26" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O26" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P26" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q26" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R26" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S26" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T26" t="n">
         <v>24.07361910651528</v>
@@ -33016,31 +33016,31 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H27" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I27" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J27" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K27" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L27" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M27" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N27" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O27" t="n">
-        <v>398.7616643558013</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P27" t="n">
         <v>133.9744074143302</v>
@@ -33052,13 +33052,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S27" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T27" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U27" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V27" t="n">
         <v>0</v>
@@ -33098,25 +33098,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H28" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I28" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J28" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K28" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L28" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M28" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N28" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O28" t="n">
         <v>348.6767717920058</v>
@@ -33125,19 +33125,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q28" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R28" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S28" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T28" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U28" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33174,7 +33174,7 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H29" t="n">
         <v>56.32071997135341</v>
@@ -33186,31 +33186,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K29" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L29" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M29" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N29" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O29" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P29" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q29" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R29" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S29" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T29" t="n">
         <v>24.07361910651528</v>
@@ -33253,31 +33253,31 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H30" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I30" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J30" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K30" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L30" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M30" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N30" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O30" t="n">
-        <v>398.7616643558013</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P30" t="n">
         <v>133.9744074143302</v>
@@ -33289,13 +33289,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S30" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T30" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U30" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V30" t="n">
         <v>0</v>
@@ -33335,25 +33335,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H31" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I31" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J31" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K31" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L31" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M31" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N31" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O31" t="n">
         <v>348.6767717920058</v>
@@ -33362,19 +33362,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q31" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R31" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S31" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T31" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U31" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -33411,7 +33411,7 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H32" t="n">
         <v>56.32071997135341</v>
@@ -33423,31 +33423,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K32" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L32" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M32" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N32" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O32" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P32" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q32" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R32" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S32" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T32" t="n">
         <v>24.07361910651528</v>
@@ -33490,31 +33490,31 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H33" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I33" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J33" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K33" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L33" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M33" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N33" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O33" t="n">
-        <v>398.7616643558013</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P33" t="n">
         <v>133.9744074143302</v>
@@ -33526,13 +33526,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S33" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T33" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U33" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V33" t="n">
         <v>0</v>
@@ -33572,25 +33572,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H34" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I34" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J34" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K34" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L34" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M34" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N34" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O34" t="n">
         <v>348.6767717920058</v>
@@ -33599,19 +33599,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q34" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R34" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S34" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T34" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U34" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -33648,43 +33648,43 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H35" t="n">
         <v>56.32071997135341</v>
       </c>
       <c r="I35" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067237</v>
       </c>
       <c r="J35" t="n">
         <v>466.7546155663283</v>
       </c>
       <c r="K35" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L35" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M35" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N35" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O35" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P35" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q35" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R35" t="n">
-        <v>345.451622204372</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S35" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T35" t="n">
         <v>24.07361910651528</v>
@@ -33727,31 +33727,31 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H36" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I36" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J36" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K36" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L36" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M36" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N36" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O36" t="n">
-        <v>398.7616643558013</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P36" t="n">
         <v>133.9744074143302</v>
@@ -33763,13 +33763,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S36" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T36" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U36" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V36" t="n">
         <v>0</v>
@@ -33809,25 +33809,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H37" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I37" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J37" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K37" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L37" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M37" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N37" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O37" t="n">
         <v>348.6767717920058</v>
@@ -33836,19 +33836,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q37" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R37" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S37" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T37" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U37" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -33885,43 +33885,43 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H38" t="n">
         <v>56.32071997135341</v>
       </c>
       <c r="I38" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067237</v>
       </c>
       <c r="J38" t="n">
         <v>466.7546155663283</v>
       </c>
       <c r="K38" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L38" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M38" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N38" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O38" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P38" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q38" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R38" t="n">
-        <v>345.451622204372</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S38" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T38" t="n">
         <v>24.07361910651528</v>
@@ -33964,31 +33964,31 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H39" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I39" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J39" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K39" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L39" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M39" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N39" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O39" t="n">
-        <v>398.7616643558013</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P39" t="n">
         <v>133.9744074143302</v>
@@ -34000,13 +34000,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S39" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T39" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U39" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V39" t="n">
         <v>0</v>
@@ -34046,25 +34046,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H40" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I40" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J40" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K40" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L40" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M40" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N40" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O40" t="n">
         <v>348.6767717920058</v>
@@ -34073,19 +34073,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q40" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R40" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S40" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T40" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U40" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34122,7 +34122,7 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H41" t="n">
         <v>56.32071997135341</v>
@@ -34134,31 +34134,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K41" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L41" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M41" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N41" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O41" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P41" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q41" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R41" t="n">
-        <v>345.451622204372</v>
+        <v>345.4516222043729</v>
       </c>
       <c r="S41" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T41" t="n">
         <v>24.07361910651528</v>
@@ -34201,31 +34201,31 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H42" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I42" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J42" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K42" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L42" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M42" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N42" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O42" t="n">
-        <v>398.7616643558013</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P42" t="n">
         <v>133.9744074143302</v>
@@ -34237,13 +34237,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S42" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T42" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U42" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V42" t="n">
         <v>0</v>
@@ -34283,25 +34283,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H43" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I43" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J43" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K43" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L43" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M43" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N43" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O43" t="n">
         <v>348.6767717920058</v>
@@ -34310,19 +34310,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q43" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R43" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S43" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T43" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U43" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34359,43 +34359,43 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H44" t="n">
         <v>56.32071997135341</v>
       </c>
       <c r="I44" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067237</v>
       </c>
       <c r="J44" t="n">
         <v>466.7546155663283</v>
       </c>
       <c r="K44" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L44" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M44" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N44" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O44" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P44" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q44" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R44" t="n">
-        <v>345.451622204372</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S44" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T44" t="n">
         <v>24.07361910651528</v>
@@ -34438,31 +34438,31 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H45" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I45" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J45" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K45" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L45" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M45" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N45" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O45" t="n">
-        <v>398.7616643558013</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P45" t="n">
         <v>133.9744074143302</v>
@@ -34474,13 +34474,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S45" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T45" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U45" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V45" t="n">
         <v>0</v>
@@ -34520,25 +34520,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H46" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I46" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J46" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K46" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L46" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M46" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N46" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O46" t="n">
         <v>348.6767717920058</v>
@@ -34547,19 +34547,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q46" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R46" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S46" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T46" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U46" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -34698,31 +34698,31 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>190.7870009687125</v>
+        <v>190.7870009687126</v>
       </c>
       <c r="K2" t="n">
-        <v>337.1912865554004</v>
+        <v>337.1912865554005</v>
       </c>
       <c r="L2" t="n">
-        <v>455.5901143923319</v>
+        <v>455.5901143923322</v>
       </c>
       <c r="M2" t="n">
-        <v>538.9211158302265</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N2" t="n">
-        <v>552.3018354129113</v>
+        <v>552.3018354129115</v>
       </c>
       <c r="O2" t="n">
-        <v>508.053000888219</v>
+        <v>508.0530008882191</v>
       </c>
       <c r="P2" t="n">
-        <v>398.7619862193716</v>
+        <v>398.7619862193719</v>
       </c>
       <c r="Q2" t="n">
-        <v>250.7943048037194</v>
+        <v>250.7943048037195</v>
       </c>
       <c r="R2" t="n">
-        <v>59.61319854222472</v>
+        <v>59.61319854222478</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -34777,28 +34777,28 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>94.62350453597705</v>
+        <v>94.6235045359771</v>
       </c>
       <c r="K3" t="n">
         <v>240.6709080609567</v>
       </c>
       <c r="L3" t="n">
-        <v>370.4021821340053</v>
+        <v>370.4021821340054</v>
       </c>
       <c r="M3" t="n">
-        <v>451.7942679013291</v>
+        <v>451.7942679013292</v>
       </c>
       <c r="N3" t="n">
-        <v>478.3061046004591</v>
+        <v>478.3061046004592</v>
       </c>
       <c r="O3" t="n">
-        <v>415.1124034525805</v>
+        <v>415.1124034525806</v>
       </c>
       <c r="P3" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q3" t="n">
-        <v>159.2338966127271</v>
+        <v>159.2338966127272</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34856,10 +34856,10 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>45.5784166130662</v>
+        <v>45.57841661306622</v>
       </c>
       <c r="K4" t="n">
-        <v>206.0476595443195</v>
+        <v>206.0476595443196</v>
       </c>
       <c r="L4" t="n">
         <v>319.7573721701981</v>
@@ -34871,13 +34871,13 @@
         <v>344.8569461675401</v>
       </c>
       <c r="O4" t="n">
-        <v>302.3531302226397</v>
+        <v>302.3531302226398</v>
       </c>
       <c r="P4" t="n">
         <v>234.9570711451104</v>
       </c>
       <c r="Q4" t="n">
-        <v>78.39423853789363</v>
+        <v>78.39423853789366</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -34935,31 +34935,31 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>190.7870009687125</v>
+        <v>190.7870009687126</v>
       </c>
       <c r="K5" t="n">
-        <v>337.1912865554004</v>
+        <v>337.1912865554005</v>
       </c>
       <c r="L5" t="n">
-        <v>455.5901143923319</v>
+        <v>455.5901143923322</v>
       </c>
       <c r="M5" t="n">
-        <v>538.9211158302265</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N5" t="n">
-        <v>552.3018354129113</v>
+        <v>552.3018354129115</v>
       </c>
       <c r="O5" t="n">
-        <v>508.053000888219</v>
+        <v>508.0530008882191</v>
       </c>
       <c r="P5" t="n">
-        <v>398.7619862193716</v>
+        <v>398.7619862193719</v>
       </c>
       <c r="Q5" t="n">
-        <v>250.7943048037194</v>
+        <v>250.7943048037195</v>
       </c>
       <c r="R5" t="n">
-        <v>59.61319854222472</v>
+        <v>59.61319854222478</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -35014,28 +35014,28 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>94.62350453597705</v>
+        <v>94.6235045359771</v>
       </c>
       <c r="K6" t="n">
         <v>240.6709080609567</v>
       </c>
       <c r="L6" t="n">
-        <v>370.4021821340053</v>
+        <v>370.4021821340054</v>
       </c>
       <c r="M6" t="n">
-        <v>451.7942679013291</v>
+        <v>451.7942679013292</v>
       </c>
       <c r="N6" t="n">
-        <v>478.3061046004591</v>
+        <v>478.3061046004592</v>
       </c>
       <c r="O6" t="n">
-        <v>415.1124034525805</v>
+        <v>415.1124034525806</v>
       </c>
       <c r="P6" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q6" t="n">
-        <v>159.2338966127271</v>
+        <v>159.2338966127272</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35093,10 +35093,10 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>45.5784166130662</v>
+        <v>45.57841661306622</v>
       </c>
       <c r="K7" t="n">
-        <v>206.0476595443195</v>
+        <v>206.0476595443196</v>
       </c>
       <c r="L7" t="n">
         <v>319.7573721701981</v>
@@ -35108,13 +35108,13 @@
         <v>344.8569461675401</v>
       </c>
       <c r="O7" t="n">
-        <v>302.3531302226397</v>
+        <v>302.3531302226398</v>
       </c>
       <c r="P7" t="n">
         <v>234.9570711451104</v>
       </c>
       <c r="Q7" t="n">
-        <v>78.39423853789363</v>
+        <v>78.39423853789366</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -35406,34 +35406,34 @@
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J11" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K11" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L11" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M11" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N11" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O11" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P11" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q11" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R11" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35485,7 +35485,7 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>1.785239600774929</v>
+        <v>0</v>
       </c>
       <c r="J12" t="n">
         <v>151.1582247754088</v>
@@ -35494,16 +35494,16 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L12" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M12" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N12" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O12" t="n">
-        <v>256.1654199113569</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P12" t="n">
         <v>0</v>
@@ -35567,22 +35567,22 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K13" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L13" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M13" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N13" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O13" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P13" t="n">
         <v>295.631773306625</v>
@@ -35643,34 +35643,34 @@
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J14" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K14" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L14" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M14" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N14" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O14" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P14" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q14" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R14" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35722,7 +35722,7 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>1.785239600774929</v>
+        <v>0</v>
       </c>
       <c r="J15" t="n">
         <v>151.1582247754088</v>
@@ -35731,16 +35731,16 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L15" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M15" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N15" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O15" t="n">
-        <v>256.1654199113569</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P15" t="n">
         <v>0</v>
@@ -35804,22 +35804,22 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K16" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L16" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M16" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N16" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O16" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P16" t="n">
         <v>295.631773306625</v>
@@ -35880,34 +35880,34 @@
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J17" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K17" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L17" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M17" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N17" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O17" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P17" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q17" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R17" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35959,7 +35959,7 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>1.785239600774929</v>
+        <v>0</v>
       </c>
       <c r="J18" t="n">
         <v>151.1582247754088</v>
@@ -35968,16 +35968,16 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L18" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M18" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N18" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O18" t="n">
-        <v>256.1654199113569</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P18" t="n">
         <v>0</v>
@@ -36041,22 +36041,22 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K19" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L19" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M19" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N19" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O19" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P19" t="n">
         <v>295.631773306625</v>
@@ -36117,34 +36117,34 @@
         <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J20" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K20" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L20" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M20" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N20" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O20" t="n">
-        <v>696.4886512243162</v>
+        <v>696.4886512243153</v>
       </c>
       <c r="P20" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q20" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R20" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36196,7 +36196,7 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>1.785239600774929</v>
+        <v>0</v>
       </c>
       <c r="J21" t="n">
         <v>151.1582247754088</v>
@@ -36205,19 +36205,19 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L21" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M21" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N21" t="n">
-        <v>633.9373369238454</v>
+        <v>463.9858252288377</v>
       </c>
       <c r="O21" t="n">
-        <v>256.1654199113569</v>
+        <v>0</v>
       </c>
       <c r="P21" t="n">
-        <v>0</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q21" t="n">
         <v>0</v>
@@ -36278,22 +36278,22 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K22" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L22" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M22" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N22" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O22" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P22" t="n">
         <v>295.631773306625</v>
@@ -36354,34 +36354,34 @@
         <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J23" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K23" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L23" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M23" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N23" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O23" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P23" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q23" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R23" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36433,7 +36433,7 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>1.785239600774929</v>
+        <v>0</v>
       </c>
       <c r="J24" t="n">
         <v>151.1582247754088</v>
@@ -36442,16 +36442,16 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L24" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M24" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N24" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O24" t="n">
-        <v>256.1654199113569</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P24" t="n">
         <v>0</v>
@@ -36515,22 +36515,22 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K25" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L25" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M25" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N25" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O25" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P25" t="n">
         <v>295.631773306625</v>
@@ -36591,34 +36591,34 @@
         <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J26" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K26" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L26" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M26" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N26" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O26" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P26" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q26" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R26" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36670,7 +36670,7 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>1.785239600774929</v>
+        <v>0</v>
       </c>
       <c r="J27" t="n">
         <v>151.1582247754088</v>
@@ -36679,16 +36679,16 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L27" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M27" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N27" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O27" t="n">
-        <v>256.1654199113569</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P27" t="n">
         <v>0</v>
@@ -36752,22 +36752,22 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K28" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L28" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M28" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N28" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O28" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P28" t="n">
         <v>295.631773306625</v>
@@ -36828,34 +36828,34 @@
         <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J29" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K29" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L29" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M29" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N29" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O29" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P29" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q29" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R29" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36907,7 +36907,7 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>1.785239600774929</v>
+        <v>0</v>
       </c>
       <c r="J30" t="n">
         <v>151.1582247754088</v>
@@ -36916,16 +36916,16 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L30" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M30" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N30" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O30" t="n">
-        <v>256.1654199113569</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P30" t="n">
         <v>0</v>
@@ -36989,22 +36989,22 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K31" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L31" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M31" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N31" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O31" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P31" t="n">
         <v>295.631773306625</v>
@@ -37065,34 +37065,34 @@
         <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J32" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K32" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L32" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M32" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N32" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O32" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P32" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q32" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R32" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37144,7 +37144,7 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>1.785239600774929</v>
+        <v>0</v>
       </c>
       <c r="J33" t="n">
         <v>151.1582247754088</v>
@@ -37153,16 +37153,16 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L33" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M33" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N33" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O33" t="n">
-        <v>256.1654199113569</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P33" t="n">
         <v>0</v>
@@ -37226,22 +37226,22 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K34" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L34" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M34" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N34" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O34" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P34" t="n">
         <v>295.631773306625</v>
@@ -37302,34 +37302,34 @@
         <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317809</v>
       </c>
       <c r="J35" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K35" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L35" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M35" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N35" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O35" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P35" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q35" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R35" t="n">
-        <v>129.8660843902399</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37381,7 +37381,7 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>1.785239600774929</v>
+        <v>0</v>
       </c>
       <c r="J36" t="n">
         <v>151.1582247754088</v>
@@ -37390,16 +37390,16 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L36" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M36" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N36" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O36" t="n">
-        <v>256.1654199113569</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P36" t="n">
         <v>0</v>
@@ -37463,22 +37463,22 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K37" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L37" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M37" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N37" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O37" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P37" t="n">
         <v>295.631773306625</v>
@@ -37539,34 +37539,34 @@
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317809</v>
       </c>
       <c r="J38" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K38" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L38" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M38" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N38" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O38" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P38" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q38" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R38" t="n">
-        <v>129.8660843902399</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37618,7 +37618,7 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>1.785239600774929</v>
+        <v>0</v>
       </c>
       <c r="J39" t="n">
         <v>151.1582247754088</v>
@@ -37627,16 +37627,16 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L39" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M39" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N39" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O39" t="n">
-        <v>256.1654199113569</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P39" t="n">
         <v>0</v>
@@ -37700,22 +37700,22 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K40" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L40" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M40" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N40" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O40" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P40" t="n">
         <v>295.631773306625</v>
@@ -37776,34 +37776,34 @@
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J41" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K41" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L41" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M41" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N41" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O41" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P41" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q41" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R41" t="n">
-        <v>129.8660843902399</v>
+        <v>129.8660843902408</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37855,7 +37855,7 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>1.785239600774929</v>
+        <v>0</v>
       </c>
       <c r="J42" t="n">
         <v>151.1582247754088</v>
@@ -37864,16 +37864,16 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L42" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M42" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N42" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O42" t="n">
-        <v>256.1654199113569</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P42" t="n">
         <v>0</v>
@@ -37937,22 +37937,22 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K43" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L43" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M43" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N43" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O43" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P43" t="n">
         <v>295.631773306625</v>
@@ -38013,34 +38013,34 @@
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317809</v>
       </c>
       <c r="J44" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K44" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L44" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M44" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N44" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O44" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P44" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q44" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R44" t="n">
-        <v>129.8660843902399</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38092,7 +38092,7 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>1.785239600774929</v>
+        <v>0</v>
       </c>
       <c r="J45" t="n">
         <v>151.1582247754088</v>
@@ -38101,16 +38101,16 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L45" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M45" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N45" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O45" t="n">
-        <v>256.1654199113569</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P45" t="n">
         <v>0</v>
@@ -38174,22 +38174,22 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K46" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L46" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M46" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N46" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O46" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P46" t="n">
         <v>295.631773306625</v>
